--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94304BD4-5592-4854-922F-2F728A0B526D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53A2F02-011A-4429-85F1-812D3B56A5E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16440" yWindow="5355" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-330" yWindow="4005" windowWidth="13560" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>xyz-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月27 两层卷积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +97,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,11 +134,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -133,6 +144,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -415,190 +435,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="5" width="9" style="2"/>
+    <col min="3" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.82</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
         <v>0.754</v>
       </c>
-      <c r="D4" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="3">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.97</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
         <v>0.88</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.97</v>
       </c>
-      <c r="D7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
         <v>0.82299999999999995</v>
       </c>
-      <c r="D8" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3">
         <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.98</v>
       </c>
-      <c r="D9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
         <v>0.91</v>
       </c>
-      <c r="D10" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="3">
         <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D11" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
         <v>0.46899999999999997</v>
       </c>
-      <c r="D12" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.2</v>
+      <c r="D12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="12">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53A2F02-011A-4429-85F1-812D3B56A5E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FD1EE2-0787-4AEE-A5BF-7D30110F754C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-330" yWindow="4005" windowWidth="13560" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10530" yWindow="900" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="14">
   <si>
     <t>xyz-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>12月27 两层卷积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月27 一层卷积GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月27一层卷积TEST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +115,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,13 +167,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E26"/>
+  <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -447,10 +477,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -462,7 +492,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -479,7 +509,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -494,7 +524,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -511,7 +541,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -526,7 +556,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
@@ -543,7 +573,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -558,7 +588,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -575,7 +605,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -590,7 +620,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
@@ -607,7 +637,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -622,10 +652,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
@@ -636,8 +666,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
@@ -649,12 +679,12 @@
       <c r="D17" s="1">
         <v>0.81</v>
       </c>
-      <c r="E17" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="E17" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
@@ -664,12 +694,12 @@
       <c r="D18" s="3">
         <v>0.72</v>
       </c>
-      <c r="E18" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="E18" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B19" t="s">
@@ -678,30 +708,30 @@
       <c r="C19" s="1">
         <v>0.99</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="7">
         <v>0.2</v>
       </c>
       <c r="E19" s="1">
         <v>0.86</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="3">
         <v>0.83</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="7">
         <v>0.2</v>
       </c>
       <c r="E20" s="3">
         <v>0.81</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
@@ -717,8 +747,8 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -732,8 +762,8 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B23" t="s">
@@ -749,12 +779,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>0.83</v>
       </c>
       <c r="D24" s="3">
@@ -764,8 +794,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
@@ -781,8 +811,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
@@ -796,10 +826,305 @@
         <v>0.73</v>
       </c>
     </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0.68</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="24">
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:A18"/>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FD1EE2-0787-4AEE-A5BF-7D30110F754C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9316DF-0E1E-4A08-8B3B-7B0EEE4D42A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10530" yWindow="900" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12月27一层卷积TEST</t>
+    <t>TEST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,6 +200,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1032847" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5DC5028-6D49-4B88-83DE-0EC4E5465B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="5753100"/>
+          <a:ext cx="1032847" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>------------------&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>------------------&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,7 +565,7 @@
   <dimension ref="A2:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -942,18 +1039,20 @@
       <c r="E33" s="6">
         <v>0.91</v>
       </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="10"/>
       <c r="I33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J33" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L33" s="5">
         <v>0.56999999999999995</v>
-      </c>
-      <c r="K33" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L33" s="5">
-        <v>0.53</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -972,6 +1071,8 @@
       <c r="E34" s="1">
         <v>0.95</v>
       </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="10" t="s">
         <v>2</v>
       </c>
@@ -985,10 +1086,10 @@
         <v>9</v>
       </c>
       <c r="C35" s="3">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="D35" s="3">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="E35" s="3">
         <v>0.8</v>
@@ -998,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="J35" s="3">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="K35" s="3">
         <v>0.7</v>
@@ -1036,26 +1137,26 @@
         <v>9</v>
       </c>
       <c r="C37" s="5">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="D37" s="3">
-        <v>0.85199999999999998</v>
+        <v>0.87</v>
       </c>
       <c r="E37" s="3">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J37" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="K37" s="3">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="L37" s="3">
-        <v>0.51</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1087,10 +1188,10 @@
         <v>9</v>
       </c>
       <c r="C39" s="3">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="D39" s="3">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E39" s="3">
         <v>0.83</v>
@@ -1106,12 +1207,13 @@
         <v>0.69</v>
       </c>
       <c r="L39" s="3">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="H38:H39"/>
+    <mergeCell ref="F33:G34"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H32:H33"/>
@@ -1139,5 +1241,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9316DF-0E1E-4A08-8B3B-7B0EEE4D42A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140B9962-8D70-4C41-BC52-5AA51CF72186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10530" yWindow="900" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,11 +75,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12月27 一层卷积GPU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月27 single GPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,10 +180,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,7 +565,7 @@
   <dimension ref="A2:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -574,10 +574,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -589,7 +589,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -606,7 +606,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -621,7 +621,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -638,7 +638,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -653,7 +653,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
@@ -670,7 +670,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -685,7 +685,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -702,7 +702,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -717,7 +717,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
@@ -734,7 +734,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -749,10 +749,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,7 +764,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
@@ -781,7 +781,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
@@ -796,7 +796,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B19" t="s">
@@ -813,7 +813,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -828,7 +828,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
@@ -845,7 +845,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -860,7 +860,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B23" t="s">
@@ -877,7 +877,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
@@ -892,7 +892,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
@@ -909,7 +909,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
@@ -924,10 +924,10 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="9"/>
+      <c r="A29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="10"/>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
@@ -937,10 +937,10 @@
       <c r="E29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="9"/>
+      <c r="H29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="10"/>
       <c r="J29" s="8" t="s">
         <v>5</v>
       </c>
@@ -952,7 +952,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B30" t="s">
@@ -967,7 +967,7 @@
       <c r="E30" s="1">
         <v>0.91</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>0</v>
       </c>
       <c r="J30" s="8"/>
@@ -975,7 +975,7 @@
       <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="E31" s="3">
         <v>0.81</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="2" t="s">
         <v>9</v>
       </c>
@@ -1003,7 +1003,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B32" t="s">
@@ -1018,7 +1018,7 @@
       <c r="E32" s="1">
         <v>0.95</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>1</v>
       </c>
       <c r="J32" s="8"/>
@@ -1026,7 +1026,7 @@
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1039,9 +1039,9 @@
       <c r="E33" s="6">
         <v>0.91</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1056,7 +1056,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B34" t="s">
@@ -1071,9 +1071,9 @@
       <c r="E34" s="1">
         <v>0.95</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10" t="s">
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J34" s="8"/>
@@ -1081,7 +1081,7 @@
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="E35" s="3">
         <v>0.8</v>
       </c>
-      <c r="H35" s="10"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1109,7 +1109,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B36" t="s">
@@ -1124,7 +1124,7 @@
       <c r="E36" s="1">
         <v>0.97</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="9" t="s">
         <v>3</v>
       </c>
       <c r="J36" s="8"/>
@@ -1132,7 +1132,7 @@
       <c r="L36" s="8"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="2" t="s">
         <v>9</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="E37" s="3">
         <v>0.87</v>
       </c>
-      <c r="H37" s="10"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="2" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1160,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B38" t="s">
@@ -1175,7 +1175,7 @@
       <c r="E38" s="1">
         <v>0.96</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>4</v>
       </c>
       <c r="J38" s="8"/>
@@ -1183,7 +1183,7 @@
       <c r="L38" s="8"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
@@ -1196,7 +1196,7 @@
       <c r="E39" s="3">
         <v>0.83</v>
       </c>
-      <c r="H39" s="10"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="2" t="s">
         <v>9</v>
       </c>
@@ -1212,18 +1212,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
@@ -1237,6 +1225,18 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1246ED-E0D7-408E-AA91-CD3DB3A06F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F3DFC-6C2F-46D3-91AD-46699DFA1743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="5100" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,14 @@
   </si>
   <si>
     <t>6axis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,8 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -369,23 +380,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:C8"/>
+  <dimension ref="A5:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -395,8 +415,15 @@
       <c r="C6">
         <v>0.88800000000000001</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -406,8 +433,16 @@
       <c r="C7">
         <v>0.85199999999999998</v>
       </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.72299999999999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -417,8 +452,14 @@
       <c r="C8">
         <v>0.85</v>
       </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D6:E7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F3DFC-6C2F-46D3-91AD-46699DFA1743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91953F65-1A7D-407D-B90F-A57C988509F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="5100" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="4320" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,14 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:H8"/>
+  <dimension ref="A5:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -410,10 +418,10 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0.93700000000000006</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="C6">
-        <v>0.88800000000000001</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -421,6 +429,12 @@
       <c r="E6" s="1"/>
       <c r="F6" t="s">
         <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="H6">
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -428,10 +442,10 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0.91300000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>0.85199999999999998</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -441,19 +455,68 @@
       <c r="G7">
         <v>0.72299999999999998</v>
       </c>
+      <c r="H7">
+        <v>0.60899999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.92300000000000004</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="C8">
-        <v>0.85</v>
+        <v>0.876</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H8">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="C9">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="C10">
+        <v>0.52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>0.307</v>
+      </c>
+      <c r="H10">
+        <v>0.40400000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91953F65-1A7D-407D-B90F-A57C988509F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78790EFC-7AEB-4DB1-8150-84C1883723B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11460" yWindow="4320" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,14 @@
   </si>
   <si>
     <t>GRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINGLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,15 +396,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:H10"/>
+  <dimension ref="A5:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -519,9 +530,67 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="C15">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D14:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78790EFC-7AEB-4DB1-8150-84C1883723B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3B82DB-06FB-414C-A9F3-3D37C4EC5812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11460" yWindow="4320" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>MULTI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESCNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +403,7 @@
   <dimension ref="A5:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -574,7 +578,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C16">
+        <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3B82DB-06FB-414C-A9F3-3D37C4EC5812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1527BC3-9484-46ED-B8A1-6656699FFE4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11460" yWindow="4320" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A5:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B15" sqref="B15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,24 +567,12 @@
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="C15">
-        <v>0.88200000000000001</v>
-      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
-      </c>
-      <c r="B16">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="C16">
-        <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1527BC3-9484-46ED-B8A1-6656699FFE4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69680D45-DBD5-4E15-9F88-FA6EBF8CDF89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11460" yWindow="4320" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:H18"/>
+  <dimension ref="A5:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -556,39 +556,54 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="C15">
+        <v>0.99</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="H15">
+        <v>0.67900000000000005</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69680D45-DBD5-4E15-9F88-FA6EBF8CDF89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDB46B5-4505-4896-AB40-0E2433540454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11460" yWindow="4320" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A5:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,6 +557,9 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.96399999999999997</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDB46B5-4505-4896-AB40-0E2433540454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502A7502-B03B-43BF-BC7E-C4EAC976453F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="4320" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11085" yWindow="3300" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>RESCNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONV+LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2021_01_06 19:06:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2021_01_06 19:33:14 -CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +101,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -115,10 +142,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,31 +437,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:H17"/>
+  <dimension ref="A5:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -432,23 +476,23 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.93100000000000005</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.89100000000000001</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="4"/>
       <c r="F6" t="s">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.66100000000000003</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>0.65700000000000003</v>
       </c>
     </row>
@@ -456,21 +500,21 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.88200000000000001</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" t="s">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.72299999999999998</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.60899999999999999</v>
       </c>
     </row>
@@ -478,19 +522,19 @@
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0.90600000000000003</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.876</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>0.628</v>
       </c>
     </row>
@@ -498,19 +542,19 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.66200000000000003</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.45200000000000001</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0.42899999999999999</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>0.39</v>
       </c>
     </row>
@@ -518,95 +562,123 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.53700000000000003</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.52</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.307</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H15" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="C15">
-        <v>0.99</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="H15">
-        <v>0.67900000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.871</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.871</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.92600000000000005</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.57099999999999995</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="F14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502A7502-B03B-43BF-BC7E-C4EAC976453F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3756825D-831B-4ABC-9AAD-53E07BE0C0B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11085" yWindow="3300" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17790" yWindow="1935" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>day2021_01_06 19:33:14 -CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONVCONFLU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:H18"/>
+  <dimension ref="A5:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,41 +620,29 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>0.871</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>0.85099999999999998</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.7</v>
-      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="1">
-        <v>0.871</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>0.92600000000000005</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.76600000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -658,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="1">
-        <v>0.85899999999999999</v>
+        <v>0.879</v>
       </c>
       <c r="C18" s="1">
         <v>0.66200000000000003</v>
@@ -667,10 +659,30 @@
         <v>12</v>
       </c>
       <c r="G18" s="1">
-        <v>0.67400000000000004</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="H18" s="1">
-        <v>0.57099999999999995</v>
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3756825D-831B-4ABC-9AAD-53E07BE0C0B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F0BFD-45A1-40E9-A961-11E4696CF852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17790" yWindow="1935" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11055" yWindow="1770" windowWidth="16335" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A5:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -481,10 +481,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0.93100000000000005</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>0.89100000000000001</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>5</v>
@@ -493,53 +493,35 @@
       <c r="F6" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.65700000000000003</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>0.9</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>0.88200000000000001</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.60899999999999999</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>0.90600000000000003</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>0.876</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.628</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -547,19 +529,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.66200000000000003</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="C9" s="1">
-        <v>0.45200000000000001</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -567,19 +543,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.53700000000000003</v>
+        <v>0.246</v>
       </c>
       <c r="C10" s="1">
-        <v>0.52</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.307</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -636,13 +606,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="1">
-        <v>0.74399999999999999</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="C17" s="1">
         <v>0.95299999999999996</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.73</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -658,12 +634,6 @@
       <c r="F18" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="1">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.49099999999999999</v>
-      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -679,10 +649,10 @@
         <v>15</v>
       </c>
       <c r="G19" s="1">
-        <v>0.60699999999999998</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>0.65</v>
+        <v>0.70399999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F0BFD-45A1-40E9-A961-11E4696CF852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27497CD5-F289-4284-9B4D-7A3F4072CFF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11055" yWindow="1770" windowWidth="16335" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12525" yWindow="1365" windowWidth="16335" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>CONVCONFLU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMPSPACECONFLU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,6 +164,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,18 +448,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:H19"/>
+  <dimension ref="A5:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -493,6 +500,12 @@
       <c r="F6" t="s">
         <v>0</v>
       </c>
+      <c r="G6" s="1">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.65400000000000003</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -509,6 +522,12 @@
       <c r="F7" t="s">
         <v>1</v>
       </c>
+      <c r="G7" s="1">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.60299999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -523,6 +542,12 @@
       <c r="F8" t="s">
         <v>2</v>
       </c>
+      <c r="G8" s="1">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -537,6 +562,12 @@
       <c r="F9" t="s">
         <v>7</v>
       </c>
+      <c r="G9" s="1">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.39200000000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -550,6 +581,12 @@
       </c>
       <c r="F10" t="s">
         <v>8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -600,6 +637,12 @@
       <c r="F16" t="s">
         <v>1</v>
       </c>
+      <c r="G16" s="1">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.73399999999999999</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -634,6 +677,12 @@
       <c r="F18" t="s">
         <v>12</v>
       </c>
+      <c r="G18" s="1">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.752</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -653,6 +702,26 @@
       </c>
       <c r="H19" s="1">
         <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.77200000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27497CD5-F289-4284-9B4D-7A3F4072CFF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152E0B00-A719-44D3-BF6F-111159FFED54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12525" yWindow="1365" windowWidth="16335" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="31">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,58 @@
   </si>
   <si>
     <t>TEMPSPACECONFLU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf + pca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNeighborsClassifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GaussianNB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomForestClassifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action2</t>
+  </si>
+  <si>
+    <t>action3</t>
+  </si>
+  <si>
+    <t>action4</t>
+  </si>
+  <si>
+    <t>action5</t>
+  </si>
+  <si>
+    <t>cnn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9axis-others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6axis-others</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,6 +151,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,12 +185,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,24 +217,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -448,23 +527,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:H20"/>
+  <dimension ref="A5:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1"/>
+    <col min="3" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="20.875" style="7" customWidth="1"/>
+    <col min="10" max="11" width="9" style="1"/>
+    <col min="12" max="13" width="9" style="7"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -473,18 +555,18 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1">
@@ -493,22 +575,25 @@
       <c r="C6" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="J6" s="1">
         <v>0.65700000000000003</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6" s="1">
         <v>0.65400000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1">
@@ -517,20 +602,23 @@
       <c r="C7" s="1">
         <v>0.86699999999999999</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
         <v>0.73599999999999999</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7" s="1">
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1">
@@ -539,18 +627,18 @@
       <c r="C8" s="1">
         <v>0.85899999999999999</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="J8" s="1">
         <v>0.72299999999999998</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K8" s="1">
         <v>0.62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -559,18 +647,18 @@
       <c r="C9" s="1">
         <v>0.45300000000000001</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="1">
+      <c r="J9" s="1">
         <v>0.42099999999999999</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K9" s="1">
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -579,51 +667,59 @@
       <c r="C10" s="1">
         <v>0.52700000000000002</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="1">
+      <c r="J10" s="1">
         <v>0.26800000000000002</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10" s="1">
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="F14" s="5" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="I14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="J15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="1">
@@ -632,20 +728,23 @@
       <c r="C16" s="1">
         <v>0.84599999999999997</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
         <v>0.58799999999999997</v>
       </c>
-      <c r="H16" s="1">
+      <c r="K16" s="1">
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="1">
@@ -654,18 +753,18 @@
       <c r="C17" s="1">
         <v>0.95299999999999996</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="1">
+      <c r="J17" s="1">
         <v>0.49199999999999999</v>
       </c>
-      <c r="H17" s="1">
+      <c r="K17" s="1">
         <v>0.73</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1">
@@ -674,18 +773,18 @@
       <c r="C18" s="1">
         <v>0.66200000000000003</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="1">
+      <c r="J18" s="1">
         <v>0.64700000000000002</v>
       </c>
-      <c r="H18" s="1">
+      <c r="K18" s="1">
         <v>0.752</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="1">
@@ -694,42 +793,1402 @@
       <c r="C19" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="F19" t="s">
+      <c r="I19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="1">
+      <c r="J19" s="1">
         <v>0.47699999999999998</v>
       </c>
-      <c r="H19" s="1">
+      <c r="K19" s="1">
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="1">
         <v>0.84299999999999997</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>0.96199999999999997</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="1">
+      <c r="J20" s="1">
         <v>0.44800000000000001</v>
       </c>
-      <c r="H20" s="6">
+      <c r="K20" s="5">
         <v>0.77200000000000002</v>
       </c>
     </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="O26" s="5">
+        <f>AVERAGE(J26:N26)</f>
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" ref="O27:O30" si="0">AVERAGE(J27:N27)</f>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="0"/>
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4">
+        <f>AVERAGE(B26:B29)</f>
+        <v>0.84749999999999992</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" ref="C30:G30" si="1">AVERAGE(C26:C29)</f>
+        <v>0.89750000000000008</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="1"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="1"/>
+        <v>0.79499999999999993</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="4">
+        <f>AVERAGE(J26:J29)</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" ref="K30:O30" si="2">AVERAGE(K26:K29)</f>
+        <v>0.97</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="2"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="2"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="2"/>
+        <v>0.30300000000000005</v>
+      </c>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="O34" s="1">
+        <f>AVERAGE(J34:N34)</f>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" ref="O35:O37" si="3">AVERAGE(J35:N35)</f>
+        <v>0.44400000000000006</v>
+      </c>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="3"/>
+        <v>0.43600000000000005</v>
+      </c>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="3"/>
+        <v>0.41600000000000004</v>
+      </c>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="4">
+        <f>AVERAGE(B34:B37)</f>
+        <v>0.755</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" ref="C38:G38" si="4">AVERAGE(C34:C37)</f>
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="4"/>
+        <v>0.50750000000000006</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="4"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="4"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="4">
+        <f>AVERAGE(J34:J37)</f>
+        <v>0.1575</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" ref="K38:O38" si="5">AVERAGE(K34:K37)</f>
+        <v>0.86</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="5"/>
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="5"/>
+        <v>5.7500000000000009E-2</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="5"/>
+        <v>0.79499999999999993</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="5"/>
+        <v>0.41949999999999998</v>
+      </c>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="O42" s="1">
+        <f>AVERAGE(J42:N42)</f>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" ref="O43:O46" si="6">AVERAGE(J43:N43)</f>
+        <v>0.442</v>
+      </c>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="6"/>
+        <v>0.40199999999999997</v>
+      </c>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="6"/>
+        <v>0.46399999999999997</v>
+      </c>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="G46" s="1">
+        <f>AVERAGE(B46:F46)</f>
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="O46" s="1">
+        <f>AVERAGE(J46:N46)</f>
+        <v>0.44799999999999995</v>
+      </c>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="4">
+        <f>AVERAGE(B42:B46)</f>
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" ref="C47:G47" si="7">AVERAGE(C42:C46)</f>
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="7"/>
+        <v>0.97199999999999986</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="7"/>
+        <v>0.99</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="7"/>
+        <v>0.94800000000000006</v>
+      </c>
+      <c r="G47" s="4">
+        <f>AVERAGE(G42:G46)</f>
+        <v>0.83799999999999986</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47" s="4">
+        <f>AVERAGE(J42:J46)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" ref="K47:O47" si="8">AVERAGE(K42:K46)</f>
+        <v>0.126</v>
+      </c>
+      <c r="L47" s="4">
+        <f t="shared" si="8"/>
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="M47" s="4">
+        <f t="shared" si="8"/>
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="N47" s="4">
+        <f t="shared" si="8"/>
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="O47" s="4">
+        <f t="shared" si="8"/>
+        <v>0.43319999999999997</v>
+      </c>
+      <c r="P47" s="4"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="O51" s="1">
+        <f>AVERAGE(J51:N51)</f>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" ref="O52:O55" si="9">AVERAGE(J52:N52)</f>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="9"/>
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="9"/>
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <f>AVERAGE(B55:F55)</f>
+        <v>0.96200000000000008</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N55" s="1">
+        <v>1</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="9"/>
+        <v>0.77</v>
+      </c>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="4">
+        <f>AVERAGE(B51:B55)</f>
+        <v>0.9760000000000002</v>
+      </c>
+      <c r="C56" s="4">
+        <f t="shared" ref="C56:G56" si="10">AVERAGE(C51:C55)</f>
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="10"/>
+        <v>0.8859999999999999</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="10"/>
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" si="10"/>
+        <v>0.998</v>
+      </c>
+      <c r="G56" s="4">
+        <f>AVERAGE(G51:G55)</f>
+        <v>0.96879999999999988</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" s="4">
+        <f>AVERAGE(J51:J55)</f>
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" ref="K56:O56" si="11">AVERAGE(K51:K55)</f>
+        <v>0.94600000000000006</v>
+      </c>
+      <c r="L56" s="4">
+        <f t="shared" si="11"/>
+        <v>0.78599999999999992</v>
+      </c>
+      <c r="M56" s="4">
+        <f t="shared" si="11"/>
+        <v>0.25999999999999995</v>
+      </c>
+      <c r="N56" s="4">
+        <f t="shared" si="11"/>
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="O56" s="4">
+        <f t="shared" si="11"/>
+        <v>0.75760000000000005</v>
+      </c>
+      <c r="P56" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D16:E16"/>
+  <mergeCells count="12">
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="D6:G7"/>
+    <mergeCell ref="D16:G16"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152E0B00-A719-44D3-BF6F-111159FFED54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7994A9B1-1C7E-46F4-A400-3B102FD69923}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9630" yWindow="1620" windowWidth="16335" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -219,34 +219,34 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -529,24 +529,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="20.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="20.875" style="6" customWidth="1"/>
     <col min="10" max="11" width="9" style="1"/>
-    <col min="12" max="13" width="9" style="7"/>
+    <col min="12" max="13" width="9" style="6"/>
     <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="16384" width="9" style="7"/>
+    <col min="15" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -555,7 +555,7 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -566,7 +566,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1">
@@ -575,14 +575,14 @@
       <c r="C6" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="7" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="1">
@@ -593,7 +593,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1">
@@ -602,12 +602,12 @@
       <c r="C7" s="1">
         <v>0.86699999999999999</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="7" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="J7" s="1">
@@ -618,7 +618,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1">
@@ -627,7 +627,7 @@
       <c r="C8" s="1">
         <v>0.85899999999999999</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J8" s="1">
@@ -638,7 +638,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -647,7 +647,7 @@
       <c r="C9" s="1">
         <v>0.45300000000000001</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="1">
@@ -658,7 +658,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -667,7 +667,7 @@
       <c r="C10" s="1">
         <v>0.52700000000000002</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J10" s="1">
@@ -678,48 +678,48 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="I14" s="8" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="I14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="9" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="5"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="1">
@@ -728,12 +728,12 @@
       <c r="C16" s="1">
         <v>0.84599999999999997</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="7" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="J16" s="1">
@@ -744,7 +744,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="1">
@@ -753,7 +753,7 @@
       <c r="C17" s="1">
         <v>0.95299999999999996</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J17" s="1">
@@ -764,7 +764,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1">
@@ -773,7 +773,7 @@
       <c r="C18" s="1">
         <v>0.66200000000000003</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="1">
@@ -784,7 +784,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="1">
@@ -793,7 +793,7 @@
       <c r="C19" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J19" s="1">
@@ -804,22 +804,22 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="1">
         <v>0.84299999999999997</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="1">
         <v>0.44800000000000001</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>0.77200000000000002</v>
       </c>
     </row>
@@ -832,8 +832,8 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="10" t="s">
         <v>17</v>
       </c>
@@ -842,8 +842,8 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -864,7 +864,7 @@
       <c r="F25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -885,13 +885,13 @@
       <c r="N25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="O25" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="1">
@@ -909,11 +909,11 @@
       <c r="F26" s="1">
         <v>0.96</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>0.82</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="7" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J26" s="1">
@@ -931,14 +931,14 @@
       <c r="N26" s="1">
         <v>0.04</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="4">
         <f>AVERAGE(J26:N26)</f>
         <v>0.27800000000000002</v>
       </c>
-      <c r="P26" s="5"/>
+      <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="1">
@@ -956,11 +956,11 @@
       <c r="F27" s="1">
         <v>0.97</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>0.9</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="7" t="s">
+      <c r="H27" s="4"/>
+      <c r="I27" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J27" s="1">
@@ -978,14 +978,14 @@
       <c r="N27" s="1">
         <v>0.05</v>
       </c>
-      <c r="O27" s="5">
-        <f t="shared" ref="O27:O30" si="0">AVERAGE(J27:N27)</f>
+      <c r="O27" s="4">
+        <f t="shared" ref="O27:O29" si="0">AVERAGE(J27:N27)</f>
         <v>0.30399999999999999</v>
       </c>
-      <c r="P27" s="5"/>
+      <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="1">
@@ -1003,11 +1003,11 @@
       <c r="F28" s="1">
         <v>0.72</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>0.68</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="7" t="s">
+      <c r="H28" s="3"/>
+      <c r="I28" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="1">
@@ -1025,14 +1025,14 @@
       <c r="N28" s="1">
         <v>0.23</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="4">
         <f t="shared" si="0"/>
         <v>0.30399999999999999</v>
       </c>
-      <c r="P28" s="4"/>
+      <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="1">
@@ -1050,11 +1050,11 @@
       <c r="F29" s="1">
         <v>0.94</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>0.78</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="7" t="s">
+      <c r="H29" s="3"/>
+      <c r="I29" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J29" s="1">
@@ -1072,69 +1072,69 @@
       <c r="N29" s="1">
         <v>0.03</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="4">
         <f t="shared" si="0"/>
         <v>0.32600000000000001</v>
       </c>
-      <c r="P29" s="4"/>
+      <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <f>AVERAGE(B26:B29)</f>
         <v>0.84749999999999992</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f t="shared" ref="C30:G30" si="1">AVERAGE(C26:C29)</f>
         <v>0.89750000000000008</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <f t="shared" si="1"/>
         <v>0.72499999999999998</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <f t="shared" si="1"/>
         <v>0.89749999999999996</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <f t="shared" si="1"/>
         <v>0.79499999999999993</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="9" t="s">
+      <c r="H30" s="3"/>
+      <c r="I30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <f>AVERAGE(J26:J29)</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <f t="shared" ref="K30:O30" si="2">AVERAGE(K26:K29)</f>
         <v>0.97</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="3">
         <f t="shared" si="2"/>
         <v>0.32</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <f t="shared" si="2"/>
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <f t="shared" si="2"/>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="3">
         <f t="shared" si="2"/>
         <v>0.30300000000000005</v>
       </c>
-      <c r="P30" s="4"/>
+      <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L31" s="1"/>
@@ -1142,7 +1142,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>17</v>
       </c>
@@ -1151,8 +1151,8 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="10" t="s">
         <v>17</v>
       </c>
@@ -1161,8 +1161,8 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -1183,7 +1183,7 @@
       <c r="F33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -1204,13 +1204,13 @@
       <c r="N33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O33" s="9" t="s">
+      <c r="O33" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="1">
@@ -1231,7 +1231,7 @@
       <c r="G34" s="1">
         <v>0.7</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J34" s="1">
@@ -1240,10 +1240,10 @@
       <c r="K34" s="1">
         <v>0.79</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="6">
         <v>0.25</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="6">
         <v>0.14000000000000001</v>
       </c>
       <c r="N34" s="1">
@@ -1256,7 +1256,7 @@
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="1">
@@ -1277,7 +1277,7 @@
       <c r="G35" s="1">
         <v>0.77</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J35" s="1">
@@ -1302,7 +1302,7 @@
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="1">
@@ -1323,7 +1323,7 @@
       <c r="G36" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="1">
@@ -1348,7 +1348,7 @@
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="1">
@@ -1369,7 +1369,7 @@
       <c r="G37" s="1">
         <v>0.7</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J37" s="1">
@@ -1394,62 +1394,62 @@
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <f>AVERAGE(B34:B37)</f>
         <v>0.755</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <f t="shared" ref="C38:G38" si="4">AVERAGE(C34:C37)</f>
         <v>0.85250000000000004</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <f t="shared" si="4"/>
         <v>0.50750000000000006</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <f t="shared" si="4"/>
         <v>0.42499999999999999</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <f t="shared" si="4"/>
         <v>0.68500000000000005</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="9" t="s">
+      <c r="H38" s="3"/>
+      <c r="I38" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="3">
         <f>AVERAGE(J34:J37)</f>
         <v>0.1575</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="3">
         <f t="shared" ref="K38:O38" si="5">AVERAGE(K34:K37)</f>
         <v>0.86</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="3">
         <f t="shared" si="5"/>
         <v>0.22750000000000001</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="3">
         <f t="shared" si="5"/>
         <v>5.7500000000000009E-2</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="3">
         <f t="shared" si="5"/>
         <v>0.79499999999999993</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="3">
         <f t="shared" si="5"/>
         <v>0.41949999999999998</v>
       </c>
-      <c r="P38" s="4"/>
+      <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L39" s="1"/>
@@ -1457,7 +1457,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>27</v>
       </c>
@@ -1466,8 +1466,8 @@
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="10" t="s">
         <v>27</v>
       </c>
@@ -1476,8 +1476,8 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -1498,7 +1498,7 @@
       <c r="F41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -1519,13 +1519,13 @@
       <c r="N41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O41" s="9" t="s">
+      <c r="O41" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="1">
@@ -1546,7 +1546,7 @@
       <c r="G42" s="1">
         <v>0.84799999999999998</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J42" s="1">
@@ -1571,7 +1571,7 @@
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="1">
@@ -1592,7 +1592,7 @@
       <c r="G43" s="1">
         <v>0.84899999999999998</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J43" s="1">
@@ -1611,13 +1611,13 @@
         <v>0.82</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" ref="O43:O46" si="6">AVERAGE(J43:N43)</f>
+        <f t="shared" ref="O43:O45" si="6">AVERAGE(J43:N43)</f>
         <v>0.442</v>
       </c>
       <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="1">
@@ -1638,7 +1638,7 @@
       <c r="G44" s="1">
         <v>0.81499999999999995</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J44" s="1">
@@ -1663,7 +1663,7 @@
       <c r="P44" s="1"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="1">
@@ -1684,7 +1684,7 @@
       <c r="G45" s="1">
         <v>0.83599999999999997</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J45" s="1">
@@ -1709,7 +1709,7 @@
       <c r="P45" s="1"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="1">
@@ -1731,7 +1731,7 @@
         <f>AVERAGE(B46:F46)</f>
         <v>0.84199999999999997</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J46" s="1">
@@ -1756,62 +1756,62 @@
       <c r="P46" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <f>AVERAGE(B42:B46)</f>
         <v>0.27400000000000002</v>
       </c>
-      <c r="C47" s="4">
-        <f t="shared" ref="C47:G47" si="7">AVERAGE(C42:C46)</f>
-        <v>1</v>
-      </c>
-      <c r="D47" s="4">
+      <c r="C47" s="3">
+        <f t="shared" ref="C47:F47" si="7">AVERAGE(C42:C46)</f>
+        <v>1</v>
+      </c>
+      <c r="D47" s="3">
         <f t="shared" si="7"/>
         <v>0.97199999999999986</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <f t="shared" si="7"/>
         <v>0.99</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <f t="shared" si="7"/>
         <v>0.94800000000000006</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <f>AVERAGE(G42:G46)</f>
         <v>0.83799999999999986</v>
       </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="9" t="s">
+      <c r="H47" s="3"/>
+      <c r="I47" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="3">
         <f>AVERAGE(J42:J46)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="3">
         <f t="shared" ref="K47:O47" si="8">AVERAGE(K42:K46)</f>
         <v>0.126</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L47" s="3">
         <f t="shared" si="8"/>
         <v>0.69599999999999995</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47" s="3">
         <f t="shared" si="8"/>
         <v>0.52600000000000002</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N47" s="3">
         <f t="shared" si="8"/>
         <v>0.81799999999999995</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O47" s="3">
         <f t="shared" si="8"/>
         <v>0.43319999999999997</v>
       </c>
-      <c r="P47" s="4"/>
+      <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L48" s="1"/>
@@ -1819,7 +1819,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>27</v>
       </c>
@@ -1828,8 +1828,8 @@
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
       <c r="I49" s="10" t="s">
         <v>27</v>
       </c>
@@ -1838,8 +1838,8 @@
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1860,7 +1860,7 @@
       <c r="F50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I50" s="1" t="s">
@@ -1881,13 +1881,13 @@
       <c r="N50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O50" s="9" t="s">
+      <c r="O50" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P50" s="1"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="1">
@@ -1908,7 +1908,7 @@
       <c r="G51" s="1">
         <v>0.97899999999999998</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J51" s="1">
@@ -1933,7 +1933,7 @@
       <c r="P51" s="1"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="1">
@@ -1954,7 +1954,7 @@
       <c r="G52" s="1">
         <v>0.97799999999999998</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J52" s="1">
@@ -1979,7 +1979,7 @@
       <c r="P52" s="1"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B53" s="1">
@@ -2000,7 +2000,7 @@
       <c r="G53" s="1">
         <v>0.94099999999999995</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J53" s="1">
@@ -2025,7 +2025,7 @@
       <c r="P53" s="1"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="1">
@@ -2046,7 +2046,7 @@
       <c r="G54" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J54" s="1">
@@ -2071,7 +2071,7 @@
       <c r="P54" s="1"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="1">
@@ -2093,7 +2093,7 @@
         <f>AVERAGE(B55:F55)</f>
         <v>0.96200000000000008</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J55" s="1">
@@ -2118,70 +2118,65 @@
       <c r="P55" s="1"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <f>AVERAGE(B51:B55)</f>
         <v>0.9760000000000002</v>
       </c>
-      <c r="C56" s="4">
-        <f t="shared" ref="C56:G56" si="10">AVERAGE(C51:C55)</f>
-        <v>1</v>
-      </c>
-      <c r="D56" s="4">
+      <c r="C56" s="3">
+        <f t="shared" ref="C56:F56" si="10">AVERAGE(C51:C55)</f>
+        <v>1</v>
+      </c>
+      <c r="D56" s="3">
         <f t="shared" si="10"/>
         <v>0.8859999999999999</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <f t="shared" si="10"/>
         <v>0.98199999999999998</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="3">
         <f t="shared" si="10"/>
         <v>0.998</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="3">
         <f>AVERAGE(G51:G55)</f>
         <v>0.96879999999999988</v>
       </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="9" t="s">
+      <c r="H56" s="3"/>
+      <c r="I56" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="3">
         <f>AVERAGE(J51:J55)</f>
         <v>0.81200000000000006</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56" s="3">
         <f t="shared" ref="K56:O56" si="11">AVERAGE(K51:K55)</f>
         <v>0.94600000000000006</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L56" s="3">
         <f t="shared" si="11"/>
         <v>0.78599999999999992</v>
       </c>
-      <c r="M56" s="4">
+      <c r="M56" s="3">
         <f t="shared" si="11"/>
         <v>0.25999999999999995</v>
       </c>
-      <c r="N56" s="4">
+      <c r="N56" s="3">
         <f t="shared" si="11"/>
         <v>0.98399999999999999</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O56" s="3">
         <f t="shared" si="11"/>
         <v>0.75760000000000005</v>
       </c>
-      <c r="P56" s="4"/>
+      <c r="P56" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="A40:F40"/>
     <mergeCell ref="A49:F49"/>
     <mergeCell ref="I49:N49"/>
     <mergeCell ref="I40:N40"/>
@@ -2189,6 +2184,11 @@
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="I14:K14"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7994A9B1-1C7E-46F4-A400-3B102FD69923}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6680D80-6811-4FB0-90A1-E8344C1D9518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9630" yWindow="1620" windowWidth="16335" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SVC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GaussianNB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +141,9 @@
   <si>
     <t>6axis-others</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
   </si>
 </sst>
 </file>
@@ -529,15 +528,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="8" width="9" style="1"/>
+    <col min="3" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="20.875" style="6" customWidth="1"/>
     <col min="10" max="11" width="9" style="1"/>
     <col min="12" max="13" width="9" style="6"/>
@@ -705,7 +706,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="4"/>
       <c r="I15" s="7" t="s">
         <v>6</v>
@@ -850,43 +851,43 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="O25" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P25" s="1"/>
     </row>
@@ -895,73 +896,75 @@
         <v>18</v>
       </c>
       <c r="B26" s="1">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="C26" s="1">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="E26" s="1">
         <v>0.72</v>
       </c>
       <c r="F26" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.82</v>
+        <v>0.94</v>
+      </c>
+      <c r="G26" s="3">
+        <f>AVERAGE(B26:F26)</f>
+        <v>0.8620000000000001</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J26" s="1">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="K26" s="1">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="L26" s="1">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="M26" s="1">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="N26" s="1">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="O26" s="4">
         <f>AVERAGE(J26:N26)</f>
-        <v>0.27800000000000002</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="C27" s="1">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="D27" s="1">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="E27" s="1">
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
       <c r="F27" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.9</v>
+        <v>0.96</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" ref="G27:G30" si="0">AVERAGE(B27:F27)</f>
+        <v>0.89400000000000013</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J27" s="1">
         <v>0.01</v>
@@ -979,36 +982,37 @@
         <v>0.05</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" ref="O27:O29" si="0">AVERAGE(J27:N27)</f>
+        <f t="shared" ref="O27:O29" si="1">AVERAGE(J27:N27)</f>
         <v>0.30399999999999999</v>
       </c>
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1">
-        <v>0.84</v>
+        <v>0.98</v>
       </c>
       <c r="C28" s="1">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="E28" s="1">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="F28" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
         <v>0.72</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.68</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -1026,113 +1030,114 @@
         <v>0.23</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30399999999999999</v>
       </c>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
         <v>0.8</v>
       </c>
-      <c r="C29" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.67</v>
-      </c>
       <c r="E29" s="1">
-        <v>0.6</v>
+        <v>0.46</v>
       </c>
       <c r="F29" s="1">
         <v>0.94</v>
       </c>
       <c r="G29" s="3">
-        <v>0.78</v>
+        <f t="shared" si="0"/>
+        <v>0.77</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J29" s="1">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="K29" s="1">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="L29" s="1">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="M29" s="1">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="N29" s="1">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="0"/>
-        <v>0.32600000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.35399999999999998</v>
       </c>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3">
         <f>AVERAGE(B26:B29)</f>
-        <v>0.84749999999999992</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ref="C30:G30" si="1">AVERAGE(C26:C29)</f>
-        <v>0.89750000000000008</v>
+        <f t="shared" ref="C30:G30" si="2">AVERAGE(C26:C29)</f>
+        <v>0.99750000000000005</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="1"/>
-        <v>0.72499999999999998</v>
+        <f t="shared" si="2"/>
+        <v>0.8274999999999999</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
+        <f t="shared" si="2"/>
+        <v>0.51500000000000001</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="1"/>
-        <v>0.89749999999999996</v>
+        <f t="shared" si="2"/>
+        <v>0.85249999999999992</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="1"/>
-        <v>0.79499999999999993</v>
+        <f t="shared" si="0"/>
+        <v>0.8115</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J30" s="3">
         <f>AVERAGE(J26:J29)</f>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" ref="K30:O30" si="2">AVERAGE(K26:K29)</f>
+        <f t="shared" ref="K30:O30" si="3">AVERAGE(K26:K29)</f>
         <v>0.97</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="2"/>
-        <v>0.32</v>
+        <f t="shared" si="3"/>
+        <v>0.33749999999999997</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="2"/>
-        <v>8.7499999999999994E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="2"/>
-        <v>0.30300000000000005</v>
+        <f t="shared" si="3"/>
+        <v>0.3085</v>
       </c>
       <c r="P30" s="3"/>
     </row>
@@ -1169,43 +1174,43 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>28</v>
+      <c r="G33" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="O33" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P33" s="1"/>
     </row>
@@ -1214,71 +1219,73 @@
         <v>18</v>
       </c>
       <c r="B34" s="1">
-        <v>0.68</v>
+        <v>0.85</v>
       </c>
       <c r="C34" s="1">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="D34" s="1">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="E34" s="1">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="F34" s="1">
         <v>0.89</v>
       </c>
-      <c r="G34" s="1">
-        <v>0.7</v>
+      <c r="G34" s="3">
+        <f>AVERAGE(B34:F34)</f>
+        <v>0.73399999999999999</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J34" s="1">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="K34" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="L34" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="L34" s="1">
         <v>0.25</v>
       </c>
-      <c r="M34" s="6">
-        <v>0.14000000000000001</v>
+      <c r="M34" s="1">
+        <v>0.06</v>
       </c>
       <c r="N34" s="1">
-        <v>0.62</v>
+        <v>0.69</v>
       </c>
       <c r="O34" s="1">
         <f>AVERAGE(J34:N34)</f>
-        <v>0.38200000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="C35" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="E35" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.49</v>
       </c>
       <c r="F35" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.77</v>
+        <v>0.98</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" ref="G35:G38" si="4">AVERAGE(B35:F35)</f>
+        <v>0.78399999999999992</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J35" s="1">
         <v>0.2</v>
@@ -1296,35 +1303,36 @@
         <v>0.86</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" ref="O35:O37" si="3">AVERAGE(J35:N35)</f>
+        <f t="shared" ref="O35:O37" si="5">AVERAGE(J35:N35)</f>
         <v>0.44400000000000006</v>
       </c>
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1">
-        <v>0.73</v>
+        <v>0.81</v>
       </c>
       <c r="C36" s="1">
-        <v>0.74</v>
+        <v>0.92</v>
       </c>
       <c r="D36" s="1">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="E36" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F36" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.89</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="4"/>
+        <v>0.60799999999999998</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J36" s="1">
         <v>0.18</v>
@@ -1342,112 +1350,113 @@
         <v>0.86</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.43600000000000005</v>
       </c>
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="1">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="C37" s="1">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="D37" s="1">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="E37" s="1">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="F37" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.7</v>
+        <v>0.99</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="4"/>
+        <v>0.72599999999999998</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J37" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="K37" s="1">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="L37" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="M37" s="1">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N37" s="1">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="3"/>
-        <v>0.41600000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.40600000000000003</v>
       </c>
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="3">
         <f>AVERAGE(B34:B37)</f>
-        <v>0.755</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" ref="C38:G38" si="4">AVERAGE(C34:C37)</f>
-        <v>0.85250000000000004</v>
+        <f t="shared" ref="C38:G38" si="6">AVERAGE(C34:C37)</f>
+        <v>0.95750000000000002</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="4"/>
-        <v>0.50750000000000006</v>
+        <f t="shared" si="6"/>
+        <v>0.4375</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="4"/>
-        <v>0.42499999999999999</v>
+        <f t="shared" si="6"/>
+        <v>0.39749999999999996</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>0.9375</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="4"/>
-        <v>0.68500000000000005</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J38" s="3">
         <f>AVERAGE(J34:J37)</f>
         <v>0.1575</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" ref="K38:O38" si="5">AVERAGE(K34:K37)</f>
-        <v>0.86</v>
+        <f t="shared" ref="K38:O38" si="7">AVERAGE(K34:K37)</f>
+        <v>0.87250000000000005</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="5"/>
-        <v>0.22750000000000001</v>
+        <f t="shared" si="7"/>
+        <v>0.215</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="5"/>
-        <v>5.7500000000000009E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.2499999999999996E-2</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="5"/>
-        <v>0.79499999999999993</v>
+        <f t="shared" si="7"/>
+        <v>0.80999999999999994</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="5"/>
-        <v>0.41949999999999998</v>
+        <f t="shared" si="7"/>
+        <v>0.4195000000000001</v>
       </c>
       <c r="P38" s="3"/>
     </row>
@@ -1459,7 +1468,7 @@
     </row>
     <row r="40" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1469,7 +1478,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
@@ -1484,43 +1493,43 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="N41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="O41" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P41" s="1"/>
     </row>
@@ -1529,7 +1538,7 @@
         <v>18</v>
       </c>
       <c r="B42" s="1">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1541,10 +1550,11 @@
         <v>0.99</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.84799999999999998</v>
+        <v>0.97</v>
+      </c>
+      <c r="G42" s="3">
+        <f>AVERAGE(B42:F42)</f>
+        <v>0.84199999999999997</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>18</v>
@@ -1553,26 +1563,26 @@
         <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="L42" s="1">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="M42" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N42" s="1">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="O42" s="1">
         <f>AVERAGE(J42:N42)</f>
-        <v>0.41000000000000003</v>
+        <v>0.45599999999999996</v>
       </c>
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1">
         <v>0.28000000000000003</v>
@@ -1589,11 +1599,12 @@
       <c r="F43" s="1">
         <v>1</v>
       </c>
-      <c r="G43" s="1">
-        <v>0.84899999999999998</v>
+      <c r="G43" s="3">
+        <f t="shared" ref="G43:G47" si="8">AVERAGE(B43:F43)</f>
+        <v>0.84800000000000009</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J43" s="1">
         <v>0</v>
@@ -1611,14 +1622,14 @@
         <v>0.82</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" ref="O43:O45" si="6">AVERAGE(J43:N43)</f>
+        <f t="shared" ref="O43:O45" si="9">AVERAGE(J43:N43)</f>
         <v>0.442</v>
       </c>
       <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1">
         <v>0.27</v>
@@ -1635,11 +1646,12 @@
       <c r="F44" s="1">
         <v>0.83</v>
       </c>
-      <c r="G44" s="1">
-        <v>0.81499999999999995</v>
+      <c r="G44" s="3">
+        <f t="shared" si="8"/>
+        <v>0.81400000000000006</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
@@ -1657,17 +1669,17 @@
         <v>0.82</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.40199999999999997</v>
       </c>
       <c r="P44" s="1"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45" s="1">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -1679,22 +1691,23 @@
         <v>0.99</v>
       </c>
       <c r="F45" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.83599999999999997</v>
+        <v>0.91</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="8"/>
+        <v>0.83800000000000008</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="K45" s="1">
-        <v>0.28000000000000003</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L45" s="1">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="M45" s="1">
         <v>0.53</v>
@@ -1703,8 +1716,8 @@
         <v>0.82</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="6"/>
-        <v>0.46399999999999997</v>
+        <f t="shared" si="9"/>
+        <v>0.49199999999999999</v>
       </c>
       <c r="P45" s="1"/>
     </row>
@@ -1727,8 +1740,8 @@
       <c r="F46" s="1">
         <v>0.97</v>
       </c>
-      <c r="G46" s="1">
-        <f>AVERAGE(B46:F46)</f>
+      <c r="G46" s="3">
+        <f t="shared" si="8"/>
         <v>0.84199999999999997</v>
       </c>
       <c r="I46" s="6" t="s">
@@ -1757,59 +1770,59 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="3">
         <f>AVERAGE(B42:B46)</f>
-        <v>0.27400000000000002</v>
+        <v>0.28600000000000003</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:F47" si="7">AVERAGE(C42:C46)</f>
+        <f t="shared" ref="C47:F47" si="10">AVERAGE(C42:C46)</f>
         <v>1</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.97199999999999986</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.99</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="7"/>
-        <v>0.94800000000000006</v>
+        <f t="shared" si="10"/>
+        <v>0.93599999999999994</v>
       </c>
       <c r="G47" s="3">
-        <f>AVERAGE(G42:G46)</f>
-        <v>0.83799999999999986</v>
+        <f t="shared" si="8"/>
+        <v>0.83679999999999999</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J47" s="3">
         <f>AVERAGE(J42:J46)</f>
-        <v>0</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" ref="K47:O47" si="8">AVERAGE(K42:K46)</f>
-        <v>0.126</v>
+        <f t="shared" ref="K47:O47" si="11">AVERAGE(K42:K46)</f>
+        <v>0.124</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="8"/>
-        <v>0.69599999999999995</v>
+        <f t="shared" si="11"/>
+        <v>0.69399999999999995</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="8"/>
-        <v>0.52600000000000002</v>
+        <f t="shared" si="11"/>
+        <v>0.52800000000000002</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="8"/>
-        <v>0.81799999999999995</v>
+        <f t="shared" si="11"/>
+        <v>0.82</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="8"/>
-        <v>0.43319999999999997</v>
+        <f>AVERAGE(O42:O46)</f>
+        <v>0.44799999999999995</v>
       </c>
       <c r="P47" s="3"/>
     </row>
@@ -1821,7 +1834,7 @@
     </row>
     <row r="49" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1831,7 +1844,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
@@ -1846,43 +1859,43 @@
         <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>28</v>
+      <c r="G50" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N50" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="O50" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P50" s="1"/>
     </row>
@@ -1897,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="1">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="E51" s="1">
         <v>0.98</v>
@@ -1905,8 +1918,9 @@
       <c r="F51" s="1">
         <v>1</v>
       </c>
-      <c r="G51" s="1">
-        <v>0.97899999999999998</v>
+      <c r="G51" s="3">
+        <f>AVERAGE(B51:F51)</f>
+        <v>0.97599999999999998</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>18</v>
@@ -1915,26 +1929,26 @@
         <v>0.88</v>
       </c>
       <c r="K51" s="1">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="L51" s="1">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="M51" s="1">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="N51" s="1">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O51" s="1">
         <f>AVERAGE(J51:N51)</f>
-        <v>0.79200000000000004</v>
+        <v>0.76999999999999991</v>
       </c>
       <c r="P51" s="1"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B52" s="1">
         <v>0.98</v>
@@ -1951,11 +1965,12 @@
       <c r="F52" s="1">
         <v>1</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="3">
+        <f t="shared" ref="G52:G56" si="12">AVERAGE(B52:F52)</f>
         <v>0.97799999999999998</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J52" s="1">
         <v>0.88</v>
@@ -1973,14 +1988,14 @@
         <v>0.98</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" ref="O52:O55" si="9">AVERAGE(J52:N52)</f>
+        <f t="shared" ref="O52:O55" si="13">AVERAGE(J52:N52)</f>
         <v>0.76600000000000001</v>
       </c>
       <c r="P52" s="1"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" s="1">
         <v>0.94</v>
@@ -1997,11 +2012,12 @@
       <c r="F53" s="1">
         <v>0.99</v>
       </c>
-      <c r="G53" s="1">
-        <v>0.94099999999999995</v>
+      <c r="G53" s="3">
+        <f t="shared" si="12"/>
+        <v>0.94199999999999995</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J53" s="1">
         <v>0.56000000000000005</v>
@@ -2019,14 +2035,14 @@
         <v>0.98</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.68200000000000005</v>
       </c>
       <c r="P53" s="1"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" s="1">
         <v>0.99</v>
@@ -2035,19 +2051,20 @@
         <v>1</v>
       </c>
       <c r="D54" s="1">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
       <c r="E54" s="1">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
       </c>
-      <c r="G54" s="1">
-        <v>0.98399999999999999</v>
+      <c r="G54" s="3">
+        <f t="shared" si="12"/>
+        <v>0.98199999999999998</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J54" s="1">
         <v>0.87</v>
@@ -2059,14 +2076,14 @@
         <v>0.76</v>
       </c>
       <c r="M54" s="1">
-        <v>0.35</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N54" s="1">
         <v>0.98</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="9"/>
-        <v>0.77800000000000002</v>
+        <f t="shared" si="13"/>
+        <v>0.76600000000000001</v>
       </c>
       <c r="P54" s="1"/>
     </row>
@@ -2089,8 +2106,8 @@
       <c r="F55" s="1">
         <v>1</v>
       </c>
-      <c r="G55" s="1">
-        <f>AVERAGE(B55:F55)</f>
+      <c r="G55" s="3">
+        <f t="shared" si="12"/>
         <v>0.96200000000000008</v>
       </c>
       <c r="I55" s="6" t="s">
@@ -2112,66 +2129,66 @@
         <v>1</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.77</v>
       </c>
       <c r="P55" s="1"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56" s="3">
         <f>AVERAGE(B51:B55)</f>
         <v>0.9760000000000002</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" ref="C56:F56" si="10">AVERAGE(C51:C55)</f>
+        <f t="shared" ref="C56:F56" si="14">AVERAGE(C51:C55)</f>
         <v>1</v>
       </c>
       <c r="D56" s="3">
-        <f t="shared" si="10"/>
-        <v>0.8859999999999999</v>
+        <f t="shared" si="14"/>
+        <v>0.88000000000000012</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="10"/>
-        <v>0.98199999999999998</v>
+        <f t="shared" si="14"/>
+        <v>0.98599999999999999</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.998</v>
       </c>
       <c r="G56" s="3">
-        <f>AVERAGE(G51:G55)</f>
-        <v>0.96879999999999988</v>
+        <f t="shared" si="12"/>
+        <v>0.96800000000000019</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J56" s="3">
         <f>AVERAGE(J51:J55)</f>
         <v>0.81200000000000006</v>
       </c>
       <c r="K56" s="3">
-        <f t="shared" ref="K56:O56" si="11">AVERAGE(K51:K55)</f>
-        <v>0.94600000000000006</v>
+        <f t="shared" ref="K56:O56" si="15">AVERAGE(K51:K55)</f>
+        <v>0.95600000000000007</v>
       </c>
       <c r="L56" s="3">
-        <f t="shared" si="11"/>
-        <v>0.78599999999999992</v>
+        <f t="shared" si="15"/>
+        <v>0.79</v>
       </c>
       <c r="M56" s="3">
-        <f t="shared" si="11"/>
-        <v>0.25999999999999995</v>
+        <f t="shared" si="15"/>
+        <v>0.20999999999999996</v>
       </c>
       <c r="N56" s="3">
-        <f t="shared" si="11"/>
-        <v>0.98399999999999999</v>
+        <f t="shared" si="15"/>
+        <v>0.98599999999999999</v>
       </c>
       <c r="O56" s="3">
-        <f t="shared" si="11"/>
-        <v>0.75760000000000005</v>
+        <f t="shared" si="15"/>
+        <v>0.75080000000000002</v>
       </c>
       <c r="P56" s="3"/>
     </row>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,13 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6680D80-6811-4FB0-90A1-E8344C1D9518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DFA6CB-1272-423A-B557-99E1F0D22C4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9630" yWindow="1620" windowWidth="16335" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$I$51</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$I$52</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$J$54:$O$54</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$J$55:$O$55</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$J$56:$O$56</definedName>
+    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$I$51</definedName>
+    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$I$52</definedName>
+    <definedName name="_xlchart.v2.15" hidden="1">Sheet1!$I$53</definedName>
+    <definedName name="_xlchart.v2.16" hidden="1">Sheet1!$I$54</definedName>
+    <definedName name="_xlchart.v2.17" hidden="1">Sheet1!$I$55</definedName>
+    <definedName name="_xlchart.v2.18" hidden="1">Sheet1!$I$56</definedName>
+    <definedName name="_xlchart.v2.19" hidden="1">Sheet1!$J$50:$O$50</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$I$53</definedName>
+    <definedName name="_xlchart.v2.20" hidden="1">Sheet1!$J$51:$O$51</definedName>
+    <definedName name="_xlchart.v2.21" hidden="1">Sheet1!$J$52:$O$52</definedName>
+    <definedName name="_xlchart.v2.22" hidden="1">Sheet1!$J$53:$O$53</definedName>
+    <definedName name="_xlchart.v2.23" hidden="1">Sheet1!$J$54:$O$54</definedName>
+    <definedName name="_xlchart.v2.24" hidden="1">Sheet1!$J$55:$O$55</definedName>
+    <definedName name="_xlchart.v2.25" hidden="1">Sheet1!$J$56:$O$56</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$I$54</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$I$55</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$I$56</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$J$50:$O$50</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$J$51:$O$51</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$J$52:$O$52</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$J$53:$O$53</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="33">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +172,13 @@
   </si>
   <si>
     <t>SVM</t>
+  </si>
+  <si>
+    <t>MultinomialNB</t>
+  </si>
+  <si>
+    <t>MultinomialNB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -528,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="D39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50:N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1092,7 +1127,7 @@
         <v>0.86499999999999999</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ref="C30:G30" si="2">AVERAGE(C26:C29)</f>
+        <f t="shared" ref="C30:F30" si="2">AVERAGE(C26:C29)</f>
         <v>0.99750000000000005</v>
       </c>
       <c r="D30" s="3">
@@ -1411,7 +1446,7 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" ref="C38:G38" si="6">AVERAGE(C34:C37)</f>
+        <f t="shared" ref="C38:F38" si="6">AVERAGE(C34:C37)</f>
         <v>0.95750000000000002</v>
       </c>
       <c r="D38" s="3">
@@ -1563,20 +1598,20 @@
         <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="L42" s="1">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="M42" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="N42" s="1">
         <v>0.82</v>
       </c>
       <c r="O42" s="1">
         <f>AVERAGE(J42:N42)</f>
-        <v>0.45599999999999996</v>
+        <v>0.43600000000000005</v>
       </c>
       <c r="P42" s="1"/>
     </row>
@@ -1591,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="1">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E43" s="1">
         <v>0.99</v>
@@ -1601,7 +1636,7 @@
       </c>
       <c r="G43" s="3">
         <f t="shared" ref="G43:G47" si="8">AVERAGE(B43:F43)</f>
-        <v>0.84800000000000009</v>
+        <v>0.85</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>30</v>
@@ -1610,26 +1645,26 @@
         <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="L43" s="1">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="M43" s="1">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="N43" s="1">
         <v>0.82</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" ref="O43:O45" si="9">AVERAGE(J43:N43)</f>
-        <v>0.442</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B44" s="1">
         <v>0.27</v>
@@ -1638,39 +1673,39 @@
         <v>1</v>
       </c>
       <c r="D44" s="1">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E44" s="1">
         <v>0.99</v>
       </c>
       <c r="F44" s="1">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="8"/>
-        <v>0.81400000000000006</v>
+        <v>0.84200000000000019</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L44" s="1">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
       <c r="M44" s="1">
-        <v>0.46</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N44" s="1">
         <v>0.82</v>
       </c>
       <c r="O44" s="1">
         <f t="shared" si="9"/>
-        <v>0.40199999999999997</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="P44" s="1"/>
     </row>
@@ -1679,41 +1714,41 @@
         <v>20</v>
       </c>
       <c r="B45" s="1">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="E45" s="1">
         <v>0.99</v>
       </c>
       <c r="F45" s="1">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="8"/>
-        <v>0.83800000000000008</v>
+        <v>0.81600000000000006</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J45" s="1">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.42</v>
       </c>
       <c r="L45" s="1">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="M45" s="1">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="N45" s="1">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="O45" s="1">
         <f t="shared" si="9"/>
@@ -1774,7 +1809,7 @@
       </c>
       <c r="B47" s="3">
         <f>AVERAGE(B42:B46)</f>
-        <v>0.28600000000000003</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="C47" s="3">
         <f t="shared" ref="C47:F47" si="10">AVERAGE(C42:C46)</f>
@@ -1782,7 +1817,7 @@
       </c>
       <c r="D47" s="3">
         <f t="shared" si="10"/>
-        <v>0.97199999999999986</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" si="10"/>
@@ -1790,11 +1825,11 @@
       </c>
       <c r="F47" s="3">
         <f t="shared" si="10"/>
-        <v>0.93599999999999994</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="8"/>
-        <v>0.83679999999999999</v>
+        <v>0.83840000000000003</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="7" t="s">
@@ -1802,27 +1837,27 @@
       </c>
       <c r="J47" s="3">
         <f>AVERAGE(J42:J46)</f>
-        <v>7.3999999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" ref="K47:O47" si="11">AVERAGE(K42:K46)</f>
-        <v>0.124</v>
+        <f t="shared" ref="K47:N47" si="11">AVERAGE(K42:K46)</f>
+        <v>0.19600000000000001</v>
       </c>
       <c r="L47" s="3">
         <f t="shared" si="11"/>
-        <v>0.69399999999999995</v>
+        <v>0.68599999999999994</v>
       </c>
       <c r="M47" s="3">
         <f t="shared" si="11"/>
-        <v>0.52800000000000002</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="N47" s="3">
         <f t="shared" si="11"/>
-        <v>0.82</v>
+        <v>0.83000000000000007</v>
       </c>
       <c r="O47" s="3">
         <f>AVERAGE(O42:O46)</f>
-        <v>0.44799999999999995</v>
+        <v>0.4476</v>
       </c>
       <c r="P47" s="3"/>
     </row>
@@ -1904,23 +1939,23 @@
         <v>18</v>
       </c>
       <c r="B51" s="1">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="E51" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
       </c>
       <c r="G51" s="3">
         <f>AVERAGE(B51:F51)</f>
-        <v>0.97599999999999998</v>
+        <v>0.97199999999999986</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>18</v>
@@ -1929,20 +1964,20 @@
         <v>0.88</v>
       </c>
       <c r="K51" s="1">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="L51" s="1">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="M51" s="1">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="N51" s="1">
         <v>0.99</v>
       </c>
       <c r="O51" s="1">
         <f>AVERAGE(J51:N51)</f>
-        <v>0.76999999999999991</v>
+        <v>0.78599999999999992</v>
       </c>
       <c r="P51" s="1"/>
     </row>
@@ -1957,35 +1992,35 @@
         <v>1</v>
       </c>
       <c r="D52" s="1">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="E52" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
       </c>
       <c r="G52" s="3">
         <f t="shared" ref="G52:G56" si="12">AVERAGE(B52:F52)</f>
-        <v>0.97799999999999998</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J52" s="1">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="K52" s="1">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
       <c r="L52" s="1">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="M52" s="1">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="N52" s="1">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O52" s="1">
         <f t="shared" ref="O52:O55" si="13">AVERAGE(J52:N52)</f>
@@ -1995,48 +2030,48 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B53" s="1">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1">
-        <v>0.78</v>
+        <v>0.9</v>
       </c>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F53" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="12"/>
-        <v>0.94199999999999995</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J53" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.86</v>
       </c>
       <c r="K53" s="1">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="L53" s="1">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="M53" s="1">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="N53" s="1">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O53" s="1">
         <f t="shared" si="13"/>
-        <v>0.68200000000000005</v>
+        <v>0.77800000000000014</v>
       </c>
       <c r="P53" s="1"/>
     </row>
@@ -2045,45 +2080,45 @@
         <v>20</v>
       </c>
       <c r="B54" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="E54" s="1">
         <v>0.99</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0.98</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
       </c>
       <c r="G54" s="3">
         <f t="shared" si="12"/>
-        <v>0.98199999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J54" s="1">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="K54" s="1">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="L54" s="1">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="M54" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.19</v>
       </c>
       <c r="N54" s="1">
         <v>0.98</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" si="13"/>
-        <v>0.76600000000000001</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="P54" s="1"/>
     </row>
@@ -2140,7 +2175,7 @@
       </c>
       <c r="B56" s="3">
         <f>AVERAGE(B51:B55)</f>
-        <v>0.9760000000000002</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="C56" s="3">
         <f t="shared" ref="C56:F56" si="14">AVERAGE(C51:C55)</f>
@@ -2148,19 +2183,19 @@
       </c>
       <c r="D56" s="3">
         <f t="shared" si="14"/>
-        <v>0.88000000000000012</v>
+        <v>0.86999999999999988</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" si="14"/>
-        <v>0.98599999999999999</v>
+        <v>0.99200000000000021</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="14"/>
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="12"/>
-        <v>0.96800000000000019</v>
+        <v>0.96880000000000011</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="7" t="s">
@@ -2168,27 +2203,27 @@
       </c>
       <c r="J56" s="3">
         <f>AVERAGE(J51:J55)</f>
-        <v>0.81200000000000006</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="K56" s="3">
         <f t="shared" ref="K56:O56" si="15">AVERAGE(K51:K55)</f>
-        <v>0.95600000000000007</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="L56" s="3">
         <f t="shared" si="15"/>
-        <v>0.79</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="M56" s="3">
         <f t="shared" si="15"/>
-        <v>0.20999999999999996</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="N56" s="3">
         <f t="shared" si="15"/>
-        <v>0.98599999999999999</v>
+        <v>0.98999999999999988</v>
       </c>
       <c r="O56" s="3">
         <f t="shared" si="15"/>
-        <v>0.75080000000000002</v>
+        <v>0.76680000000000004</v>
       </c>
       <c r="P56" s="3"/>
     </row>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -1,48 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DFA6CB-1272-423A-B557-99E1F0D22C4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D01C0BF-A0E2-4142-8864-CD5485D023F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9630" yWindow="1620" windowWidth="16335" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$I$51</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$I$52</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$J$54:$O$54</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$J$55:$O$55</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$J$56:$O$56</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$I$51</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$I$52</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">Sheet1!$I$53</definedName>
-    <definedName name="_xlchart.v2.16" hidden="1">Sheet1!$I$54</definedName>
-    <definedName name="_xlchart.v2.17" hidden="1">Sheet1!$I$55</definedName>
-    <definedName name="_xlchart.v2.18" hidden="1">Sheet1!$I$56</definedName>
-    <definedName name="_xlchart.v2.19" hidden="1">Sheet1!$J$50:$O$50</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$I$53</definedName>
-    <definedName name="_xlchart.v2.20" hidden="1">Sheet1!$J$51:$O$51</definedName>
-    <definedName name="_xlchart.v2.21" hidden="1">Sheet1!$J$52:$O$52</definedName>
-    <definedName name="_xlchart.v2.22" hidden="1">Sheet1!$J$53:$O$53</definedName>
-    <definedName name="_xlchart.v2.23" hidden="1">Sheet1!$J$54:$O$54</definedName>
-    <definedName name="_xlchart.v2.24" hidden="1">Sheet1!$J$55:$O$55</definedName>
-    <definedName name="_xlchart.v2.25" hidden="1">Sheet1!$J$56:$O$56</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$I$54</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$I$55</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$I$56</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$J$50:$O$50</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$J$51:$O$51</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$J$52:$O$52</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$J$53:$O$53</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -53,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="32">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,10 +146,7 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>MultinomialNB</t>
-  </si>
-  <si>
-    <t>MultinomialNB</t>
+    <t>GaussianNB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50:N55"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1664,26 +1633,26 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="1">
-        <v>0.27</v>
+        <v>0.48</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="E44" s="1">
-        <v>0.99</v>
+        <v>0.41</v>
       </c>
       <c r="F44" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="8"/>
-        <v>0.84200000000000019</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>31</v>
@@ -1692,20 +1661,20 @@
         <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="L44" s="1">
-        <v>0.69</v>
+        <v>0.61</v>
       </c>
       <c r="M44" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.92</v>
       </c>
       <c r="N44" s="1">
-        <v>0.82</v>
+        <v>0.99</v>
       </c>
       <c r="O44" s="1">
         <f t="shared" si="9"/>
-        <v>0.43999999999999995</v>
+        <v>0.56600000000000006</v>
       </c>
       <c r="P44" s="1"/>
     </row>
@@ -1720,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="1">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E45" s="1">
         <v>0.99</v>
@@ -1730,7 +1699,7 @@
       </c>
       <c r="G45" s="3">
         <f t="shared" si="8"/>
-        <v>0.81600000000000006</v>
+        <v>0.81400000000000006</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>20</v>
@@ -1739,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="L45" s="1">
         <v>0.73</v>
@@ -1748,11 +1717,11 @@
         <v>0.44</v>
       </c>
       <c r="N45" s="1">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="O45" s="1">
         <f t="shared" si="9"/>
-        <v>0.49199999999999999</v>
+        <v>0.502</v>
       </c>
       <c r="P45" s="1"/>
     </row>
@@ -1809,7 +1778,7 @@
       </c>
       <c r="B47" s="3">
         <f>AVERAGE(B42:B46)</f>
-        <v>0.27600000000000002</v>
+        <v>0.318</v>
       </c>
       <c r="C47" s="3">
         <f t="shared" ref="C47:F47" si="10">AVERAGE(C42:C46)</f>
@@ -1817,19 +1786,19 @@
       </c>
       <c r="D47" s="3">
         <f t="shared" si="10"/>
-        <v>0.94399999999999995</v>
+        <v>0.93399999999999994</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" si="10"/>
-        <v>0.99</v>
+        <v>0.874</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="10"/>
-        <v>0.98199999999999998</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="8"/>
-        <v>0.83840000000000003</v>
+        <v>0.82240000000000002</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="7" t="s">
@@ -1841,23 +1810,23 @@
       </c>
       <c r="K47" s="3">
         <f t="shared" ref="K47:N47" si="11">AVERAGE(K42:K46)</f>
-        <v>0.19600000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="L47" s="3">
         <f t="shared" si="11"/>
-        <v>0.68599999999999994</v>
+        <v>0.67</v>
       </c>
       <c r="M47" s="3">
         <f t="shared" si="11"/>
-        <v>0.52600000000000002</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="N47" s="3">
         <f t="shared" si="11"/>
-        <v>0.83000000000000007</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="O47" s="3">
         <f>AVERAGE(O42:O46)</f>
-        <v>0.4476</v>
+        <v>0.4748</v>
       </c>
       <c r="P47" s="3"/>
     </row>
@@ -2033,45 +2002,45 @@
         <v>31</v>
       </c>
       <c r="B53" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
         <v>0.99</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="12"/>
-        <v>0.97599999999999998</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J53" s="1">
-        <v>0.86</v>
+        <v>0.17</v>
       </c>
       <c r="K53" s="1">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="L53" s="1">
-        <v>0.81</v>
+        <v>0.65</v>
       </c>
       <c r="M53" s="1">
-        <v>0.24</v>
+        <v>0.68</v>
       </c>
       <c r="N53" s="1">
-        <v>0.99</v>
+        <v>0.94</v>
       </c>
       <c r="O53" s="1">
         <f t="shared" si="13"/>
-        <v>0.77800000000000014</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="P53" s="1"/>
     </row>
@@ -2102,23 +2071,23 @@
         <v>20</v>
       </c>
       <c r="J54" s="1">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="K54" s="1">
         <v>0.99</v>
       </c>
       <c r="L54" s="1">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="M54" s="1">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="N54" s="1">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" si="13"/>
-        <v>0.73399999999999999</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="P54" s="1"/>
     </row>
@@ -2175,7 +2144,7 @@
       </c>
       <c r="B56" s="3">
         <f>AVERAGE(B51:B55)</f>
-        <v>0.98199999999999998</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="C56" s="3">
         <f t="shared" ref="C56:F56" si="14">AVERAGE(C51:C55)</f>
@@ -2183,19 +2152,19 @@
       </c>
       <c r="D56" s="3">
         <f t="shared" si="14"/>
-        <v>0.86999999999999988</v>
+        <v>0.85399999999999987</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" si="14"/>
-        <v>0.99200000000000021</v>
+        <v>0.99400000000000011</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="12"/>
-        <v>0.96880000000000011</v>
+        <v>0.96519999999999995</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="7" t="s">
@@ -2203,27 +2172,27 @@
       </c>
       <c r="J56" s="3">
         <f>AVERAGE(J51:J55)</f>
-        <v>0.85199999999999998</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="K56" s="3">
         <f t="shared" ref="K56:O56" si="15">AVERAGE(K51:K55)</f>
-        <v>0.98000000000000009</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="L56" s="3">
         <f t="shared" si="15"/>
-        <v>0.81799999999999995</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="M56" s="3">
         <f t="shared" si="15"/>
-        <v>0.19400000000000001</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="N56" s="3">
         <f t="shared" si="15"/>
-        <v>0.98999999999999988</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="O56" s="3">
         <f t="shared" si="15"/>
-        <v>0.76680000000000004</v>
+        <v>0.74720000000000009</v>
       </c>
       <c r="P56" s="3"/>
     </row>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFAB9DB-5737-40F2-8963-9CA06887A5FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7A68A1-7BDC-4CCB-85C4-50D92D00ECB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9630" yWindow="1620" windowWidth="16335" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2351,45 +2351,45 @@
         <v>16</v>
       </c>
       <c r="B69" s="1">
-        <v>0.37</v>
+        <v>0.97</v>
       </c>
       <c r="C69" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D69" s="1">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="E69" s="1">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="F69" s="1">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="G69" s="3">
         <f t="shared" si="16"/>
-        <v>0.75</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="K69" s="1">
-        <v>0.65</v>
+        <v>0.94</v>
       </c>
       <c r="L69" s="1">
-        <v>0.46</v>
+        <v>0.71</v>
       </c>
       <c r="M69" s="1">
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="N69" s="1">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="O69" s="1">
         <f>AVERAGE(J69:N69)</f>
-        <v>0.42000000000000004</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="P69" s="1"/>
     </row>
@@ -2399,27 +2399,27 @@
       </c>
       <c r="B70" s="3">
         <f>AVERAGE(B65:B69)</f>
-        <v>0.37</v>
+        <v>0.97</v>
       </c>
       <c r="C70" s="3">
         <f t="shared" ref="C70:F70" si="18">AVERAGE(C65:C69)</f>
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D70" s="3">
         <f t="shared" si="18"/>
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="18"/>
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" si="18"/>
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="G70" s="3">
         <f t="shared" si="16"/>
-        <v>0.75</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="7" t="s">
@@ -2427,23 +2427,23 @@
       </c>
       <c r="J70" s="3">
         <f>AVERAGE(J65:J69)</f>
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="K70" s="3">
         <f t="shared" ref="K70:N70" si="19">AVERAGE(K65:K69)</f>
-        <v>0.65</v>
+        <v>0.94</v>
       </c>
       <c r="L70" s="3">
         <f t="shared" si="19"/>
-        <v>0.46</v>
+        <v>0.71</v>
       </c>
       <c r="M70" s="3">
         <f t="shared" si="19"/>
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="N70" s="3">
         <f t="shared" si="19"/>
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="O70" s="3" t="e">
         <f>AVERAGE(O65:O69)</f>
@@ -2605,45 +2605,45 @@
         <v>16</v>
       </c>
       <c r="B78" s="1">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
       </c>
       <c r="D78" s="1">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="E78" s="1">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="F78" s="1">
         <v>1</v>
       </c>
       <c r="G78" s="3">
         <f t="shared" si="20"/>
-        <v>0.97800000000000009</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J78" s="1">
-        <v>0.51</v>
+        <v>0.74</v>
       </c>
       <c r="K78" s="1">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="L78" s="1">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="M78" s="1">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="N78" s="1">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="O78" s="1">
         <f t="shared" si="21"/>
-        <v>0.61799999999999999</v>
+        <v>0.68800000000000006</v>
       </c>
       <c r="P78" s="1"/>
     </row>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B79" s="3">
         <f>AVERAGE(B74:B78)</f>
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="C79" s="3">
         <f t="shared" ref="C79:F79" si="22">AVERAGE(C74:C78)</f>
@@ -2661,11 +2661,11 @@
       </c>
       <c r="D79" s="3">
         <f t="shared" si="22"/>
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="E79" s="3">
         <f t="shared" si="22"/>
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" si="22"/>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="G79" s="3">
         <f t="shared" si="20"/>
-        <v>0.97800000000000009</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="7" t="s">
@@ -2681,23 +2681,23 @@
       </c>
       <c r="J79" s="3">
         <f>AVERAGE(J74:J78)</f>
-        <v>0.51</v>
+        <v>0.74</v>
       </c>
       <c r="K79" s="3">
         <f t="shared" ref="K79:O79" si="23">AVERAGE(K74:K78)</f>
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="L79" s="3">
         <f t="shared" si="23"/>
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="M79" s="3">
         <f t="shared" si="23"/>
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="N79" s="3">
         <f t="shared" si="23"/>
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="O79" s="3" t="e">
         <f t="shared" si="23"/>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7A68A1-7BDC-4CCB-85C4-50D92D00ECB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C5866F-C9D9-45AA-803A-8D7F3485E7D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="1620" windowWidth="16335" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9630" yWindow="1620" windowWidth="16335" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="分类器" sheetId="1" r:id="rId1"/>
+    <sheet name="分类器-2" sheetId="3" r:id="rId2"/>
+    <sheet name="K-means" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="77">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +161,139 @@
   </si>
   <si>
     <t>tf + pca  f1 score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf + pca  f1 score</t>
+  </si>
+  <si>
+    <t>cnn  f1 score</t>
+  </si>
+  <si>
+    <t>cnn  f1 score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn   f1 score</t>
+  </si>
+  <si>
+    <t>cnn   f1 score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINGLE</t>
+  </si>
+  <si>
+    <t>9axis</t>
+  </si>
+  <si>
+    <t>6axis</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>DNN</t>
+  </si>
+  <si>
+    <t>——&gt;</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>DILACNN</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>GRU</t>
+  </si>
+  <si>
+    <t>day2021_01_06 19:33:14 -CPU</t>
+  </si>
+  <si>
+    <t>day2021_01_06 19:06:48</t>
+  </si>
+  <si>
+    <t>MULTI</t>
+  </si>
+  <si>
+    <t>CovCNN</t>
+  </si>
+  <si>
+    <t>RESCNN</t>
+  </si>
+  <si>
+    <t>CONV+LSTM</t>
+  </si>
+  <si>
+    <t>CONVCONFLU</t>
+  </si>
+  <si>
+    <t>TEMPSPACECONFLU</t>
+  </si>
+  <si>
+    <t>MultiCNN-f1</t>
+  </si>
+  <si>
+    <t>action1</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>9axis-others</t>
+  </si>
+  <si>
+    <t>6axis-others</t>
+  </si>
+  <si>
+    <t>tf + pca</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier</t>
+  </si>
+  <si>
+    <t>GaussianNB</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>cnn</t>
+  </si>
+  <si>
+    <t>train-6axis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action-1</t>
+  </si>
+  <si>
+    <t>action-2</t>
+  </si>
+  <si>
+    <t>action-3</t>
+  </si>
+  <si>
+    <t>action-4</t>
+  </si>
+  <si>
+    <t>train-9axis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-6axis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-9axis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,10 +301,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,13 +330,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -253,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,9 +406,6 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,6 +419,11 @@
     <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -581,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P78" sqref="P78"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -629,7 +760,7 @@
       <c r="C6" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -653,7 +784,7 @@
       <c r="C7" s="1">
         <v>0.86699999999999999</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="6" t="s">
         <v>1</v>
       </c>
@@ -726,17 +857,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
@@ -771,7 +902,7 @@
       <c r="C16" s="1">
         <v>0.84599999999999997</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="6" t="s">
         <v>1</v>
       </c>
@@ -869,56 +1000,56 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="11"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
@@ -994,19 +1125,19 @@
       <c r="I27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="10">
         <v>0.44</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="10">
         <v>0.8</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="10">
         <v>0.73</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="10">
         <v>0.33</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="10">
         <v>0.55000000000000004</v>
       </c>
       <c r="O27" s="4">
@@ -1163,47 +1294,47 @@
       <c r="A31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="C31" s="11">
-        <v>1</v>
-      </c>
-      <c r="D31" s="11">
-        <v>0.95</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0.95</v>
-      </c>
-      <c r="F31" s="11">
+      <c r="B31" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="E31" s="1">
         <v>0.88</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="0"/>
-        <v>0.93599999999999994</v>
+        <v>0.95</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="K31" s="1">
-        <v>0.52</v>
+        <v>0.93</v>
       </c>
       <c r="L31" s="1">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="M31" s="1">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="N31" s="1">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="1"/>
-        <v>0.50600000000000001</v>
+        <v>0.74600000000000011</v>
       </c>
       <c r="P31" s="3"/>
     </row>
@@ -1213,27 +1344,27 @@
       </c>
       <c r="B32" s="3">
         <f>AVERAGE(B27:B31)</f>
-        <v>0.78</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ref="C32:F32" si="2">AVERAGE(C27:C31)</f>
-        <v>0.98599999999999999</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="2"/>
-        <v>0.88400000000000001</v>
+        <v>0.87200000000000011</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="2"/>
-        <v>0.80800000000000005</v>
+        <v>0.79399999999999993</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="2"/>
-        <v>0.86999999999999988</v>
+        <v>0.89399999999999991</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>0.86560000000000004</v>
+        <v>0.86839999999999995</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="8" t="s">
@@ -1241,51 +1372,51 @@
       </c>
       <c r="J32" s="3">
         <f>AVERAGE(J27:J31)</f>
-        <v>0.3</v>
+        <v>0.45199999999999996</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" ref="K32:N32" si="3">AVERAGE(K27:K31)</f>
-        <v>0.63200000000000001</v>
+        <v>0.71400000000000008</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="3"/>
-        <v>0.58400000000000007</v>
+        <v>0.59200000000000008</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" si="3"/>
-        <v>0.49000000000000005</v>
+        <v>0.47600000000000009</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="3"/>
-        <v>0.83199999999999985</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="1"/>
-        <v>0.56759999999999999</v>
+        <v>0.61559999999999993</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="17" t="s">
+      <c r="I34" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
@@ -1530,47 +1661,47 @@
       <c r="A40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="10">
-        <v>0.96</v>
-      </c>
-      <c r="C40" s="10">
-        <v>1</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0.96</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0.92</v>
-      </c>
-      <c r="F40" s="10">
-        <v>1</v>
+      <c r="B40" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.99</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="4"/>
-        <v>0.96799999999999997</v>
+        <v>0.97200000000000009</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J40" s="1">
-        <v>0.26</v>
+        <v>0.7</v>
       </c>
       <c r="K40" s="1">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="L40" s="1">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="M40" s="1">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="N40" s="1">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="O40" s="4">
         <f t="shared" si="5"/>
-        <v>0.59399999999999997</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="P40" s="3"/>
     </row>
@@ -1580,7 +1711,7 @@
       </c>
       <c r="B41" s="3">
         <f>AVERAGE(B36:B40)</f>
-        <v>0.93599999999999994</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="C41" s="3">
         <f t="shared" ref="C41:F41" si="6">AVERAGE(C36:C40)</f>
@@ -1588,19 +1719,19 @@
       </c>
       <c r="D41" s="3">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" si="6"/>
-        <v>0.72200000000000009</v>
+        <v>0.72400000000000009</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="6"/>
-        <v>0.98599999999999999</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="4"/>
-        <v>0.87959999999999994</v>
+        <v>0.88040000000000007</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="8" t="s">
@@ -1608,82 +1739,82 @@
       </c>
       <c r="J41" s="4">
         <f>AVERAGE(J36:J40)</f>
-        <v>0.61799999999999999</v>
+        <v>0.70600000000000007</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" ref="K41:N41" si="7">AVERAGE(K36:K40)</f>
-        <v>0.81600000000000006</v>
+        <v>0.82999999999999985</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="7"/>
-        <v>0.64600000000000002</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="M41" s="4">
         <f t="shared" si="7"/>
-        <v>0.23800000000000004</v>
+        <v>0.254</v>
       </c>
       <c r="N41" s="4">
         <f t="shared" si="7"/>
-        <v>0.93999999999999984</v>
+        <v>0.91799999999999993</v>
       </c>
       <c r="O41" s="4">
         <f t="shared" si="5"/>
-        <v>0.65159999999999996</v>
+        <v>0.66839999999999988</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="12"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="11"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="12"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="11"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="17" t="s">
+      <c r="I47" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
     </row>
@@ -1759,11 +1890,24 @@
       <c r="I49" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="O49" s="4" t="e">
+      <c r="J49" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="O49" s="4">
         <f>AVERAGE(J49:N49)</f>
-        <v>#DIV/0!</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="P49" s="4"/>
     </row>
@@ -1794,11 +1938,24 @@
       <c r="I50" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="O50" s="4" t="e">
+      <c r="J50" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O50" s="4">
         <f t="shared" ref="O50:O52" si="9">AVERAGE(J50:N50)</f>
-        <v>#DIV/0!</v>
+        <v>0.20800000000000002</v>
       </c>
       <c r="P50" s="4"/>
     </row>
@@ -1829,11 +1986,24 @@
       <c r="I51" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="O51" s="4" t="e">
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="O51" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.23200000000000004</v>
       </c>
       <c r="P51" s="3"/>
     </row>
@@ -1842,33 +2012,46 @@
         <v>20</v>
       </c>
       <c r="B52" s="1">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="C52" s="1">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="D52" s="1">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E52" s="1">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="F52" s="1">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G52" s="3">
         <f t="shared" si="8"/>
-        <v>0.75600000000000001</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="O52" s="4" t="e">
+      <c r="J52" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="O52" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.252</v>
       </c>
       <c r="P52" s="3"/>
     </row>
@@ -1878,55 +2061,55 @@
       </c>
       <c r="B53" s="3">
         <f>AVERAGE(B49:B52)</f>
-        <v>0.89249999999999996</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="C53" s="3">
         <f t="shared" ref="C53:F53" si="10">AVERAGE(C49:C52)</f>
-        <v>0.88249999999999995</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" si="10"/>
-        <v>0.77</v>
+        <v>0.77249999999999996</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" si="10"/>
-        <v>0.58000000000000007</v>
+        <v>0.60750000000000004</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="10"/>
-        <v>0.89249999999999996</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="8"/>
-        <v>0.80349999999999999</v>
+        <v>0.8125</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J53" s="3" t="e">
+      <c r="J53" s="3">
         <f>AVERAGE(J49:J52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K53" s="3" t="e">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K53" s="3">
         <f t="shared" ref="K53:O53" si="11">AVERAGE(K49:K52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" s="3" t="e">
+        <v>0.495</v>
+      </c>
+      <c r="L53" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M53" s="3" t="e">
+        <v>0.37250000000000005</v>
+      </c>
+      <c r="M53" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N53" s="3" t="e">
+        <v>0.1075</v>
+      </c>
+      <c r="N53" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O53" s="3" t="e">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="O53" s="3">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.22550000000000001</v>
       </c>
       <c r="P53" s="3"/>
     </row>
@@ -1937,24 +2120,24 @@
       <c r="P54" s="1"/>
     </row>
     <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="A55" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="17" t="s">
+      <c r="I55" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
     </row>
@@ -2029,11 +2212,24 @@
       <c r="I57" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="O57" s="1" t="e">
+      <c r="J57" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="O57" s="1">
         <f>AVERAGE(J57:N57)</f>
-        <v>#DIV/0!</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="P57" s="1"/>
     </row>
@@ -2063,11 +2259,24 @@
       <c r="I58" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="O58" s="1" t="e">
+      <c r="J58" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M58" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="O58" s="1">
         <f t="shared" ref="O58:O60" si="13">AVERAGE(J58:N58)</f>
-        <v>#DIV/0!</v>
+        <v>0.372</v>
       </c>
       <c r="P58" s="1"/>
     </row>
@@ -2097,11 +2306,24 @@
       <c r="I59" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="O59" s="1" t="e">
+      <c r="J59" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="O59" s="1">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="P59" s="1"/>
     </row>
@@ -2113,29 +2335,42 @@
         <v>0.84</v>
       </c>
       <c r="C60" s="1">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="D60" s="1">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E60" s="1">
-        <v>0.35</v>
+        <v>0.48</v>
       </c>
       <c r="F60" s="1">
         <v>0.94</v>
       </c>
       <c r="G60" s="3">
         <f t="shared" si="12"/>
-        <v>0.68600000000000005</v>
+        <v>0.73</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="O60" s="1" t="e">
+      <c r="J60" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="O60" s="1">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="P60" s="1"/>
     </row>
@@ -2149,15 +2384,15 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ref="C61:F61" si="14">AVERAGE(C57:C60)</f>
-        <v>0.83000000000000007</v>
+        <v>0.84</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" si="14"/>
-        <v>0.53500000000000003</v>
+        <v>0.5475000000000001</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="14"/>
-        <v>0.41000000000000003</v>
+        <v>0.4425</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" si="14"/>
@@ -2165,35 +2400,35 @@
       </c>
       <c r="G61" s="3">
         <f t="shared" si="12"/>
-        <v>0.69200000000000006</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J61" s="3" t="e">
+      <c r="J61" s="3">
         <f>AVERAGE(J57:J60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K61" s="3" t="e">
+        <v>0.1875</v>
+      </c>
+      <c r="K61" s="3">
         <f t="shared" ref="K61:O61" si="15">AVERAGE(K57:K60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L61" s="3" t="e">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="L61" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M61" s="3" t="e">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="M61" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N61" s="3" t="e">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="N61" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O61" s="3" t="e">
+        <v>0.75750000000000006</v>
+      </c>
+      <c r="O61" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.36950000000000005</v>
       </c>
       <c r="P61" s="3"/>
     </row>
@@ -2204,24 +2439,24 @@
       <c r="P62" s="1"/>
     </row>
     <row r="63" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
+      <c r="A63" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="17" t="s">
+      <c r="I63" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
     </row>
@@ -2274,18 +2509,46 @@
       <c r="A65" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G65" s="3" t="e">
+      <c r="B65" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3">
         <f>AVERAGE(B65:F65)</f>
-        <v>#DIV/0!</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="O65" s="1" t="e">
+      <c r="J65" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="O65" s="1">
         <f>AVERAGE(J65:N65)</f>
-        <v>#DIV/0!</v>
+        <v>0.73000000000000009</v>
       </c>
       <c r="P65" s="1"/>
     </row>
@@ -2293,18 +2556,46 @@
       <c r="A66" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="3" t="e">
+      <c r="B66" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3">
         <f t="shared" ref="G66:G70" si="16">AVERAGE(B66:F66)</f>
-        <v>#DIV/0!</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="O66" s="1" t="e">
-        <f t="shared" ref="O66:O68" si="17">AVERAGE(J66:N66)</f>
-        <v>#DIV/0!</v>
+      <c r="J66" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="O66" s="1">
+        <f t="shared" ref="O66:O69" si="17">AVERAGE(J66:N66)</f>
+        <v>0.73799999999999999</v>
       </c>
       <c r="P66" s="1"/>
     </row>
@@ -2312,18 +2603,46 @@
       <c r="A67" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G67" s="3" t="e">
+      <c r="B67" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="O67" s="1" t="e">
+      <c r="J67" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="O67" s="1">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.64399999999999991</v>
       </c>
       <c r="P67" s="1"/>
     </row>
@@ -2331,18 +2650,46 @@
       <c r="A68" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="3" t="e">
+      <c r="B68" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G68" s="3">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>0.97800000000000009</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="O68" s="1" t="e">
+      <c r="J68" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="O68" s="1">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.74600000000000011</v>
       </c>
       <c r="P68" s="1"/>
     </row>
@@ -2351,45 +2698,45 @@
         <v>16</v>
       </c>
       <c r="B69" s="1">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="C69" s="1">
         <v>0.99</v>
       </c>
       <c r="D69" s="1">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="E69" s="1">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="F69" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G69" s="3">
         <f t="shared" si="16"/>
-        <v>0.93200000000000005</v>
+        <v>0.95</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J69" s="1">
-        <v>0.69</v>
+        <v>0.76</v>
       </c>
       <c r="K69" s="1">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="L69" s="1">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="M69" s="1">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="N69" s="1">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="O69" s="1">
-        <f>AVERAGE(J69:N69)</f>
-        <v>0.72199999999999998</v>
+        <f t="shared" si="17"/>
+        <v>0.74600000000000011</v>
       </c>
       <c r="P69" s="1"/>
     </row>
@@ -2399,27 +2746,27 @@
       </c>
       <c r="B70" s="3">
         <f>AVERAGE(B65:B69)</f>
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="C70" s="3">
         <f t="shared" ref="C70:F70" si="18">AVERAGE(C65:C69)</f>
-        <v>0.99</v>
+        <v>0.998</v>
       </c>
       <c r="D70" s="3">
         <f t="shared" si="18"/>
-        <v>0.87</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="18"/>
-        <v>0.84</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" si="18"/>
-        <v>0.99</v>
+        <v>0.99600000000000011</v>
       </c>
       <c r="G70" s="3">
         <f t="shared" si="16"/>
-        <v>0.93200000000000005</v>
+        <v>0.97320000000000007</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="7" t="s">
@@ -2427,27 +2774,27 @@
       </c>
       <c r="J70" s="3">
         <f>AVERAGE(J65:J69)</f>
-        <v>0.69</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="K70" s="3">
         <f t="shared" ref="K70:N70" si="19">AVERAGE(K65:K69)</f>
-        <v>0.94</v>
+        <v>0.83799999999999986</v>
       </c>
       <c r="L70" s="3">
         <f t="shared" si="19"/>
-        <v>0.71</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="M70" s="3">
         <f t="shared" si="19"/>
-        <v>0.34</v>
+        <v>0.46000000000000008</v>
       </c>
       <c r="N70" s="3">
         <f t="shared" si="19"/>
-        <v>0.93</v>
-      </c>
-      <c r="O70" s="3" t="e">
+        <v>0.92599999999999993</v>
+      </c>
+      <c r="O70" s="3">
         <f>AVERAGE(O65:O69)</f>
-        <v>#DIV/0!</v>
+        <v>0.7208</v>
       </c>
       <c r="P70" s="3"/>
     </row>
@@ -2458,24 +2805,24 @@
       <c r="P71" s="1"/>
     </row>
     <row r="72" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
+      <c r="A72" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="17" t="s">
+      <c r="I72" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
     </row>
@@ -2528,18 +2875,46 @@
       <c r="A74" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G74" s="3" t="e">
+      <c r="B74" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3">
         <f>AVERAGE(B74:F74)</f>
-        <v>#DIV/0!</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="O74" s="1" t="e">
+      <c r="J74" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="O74" s="1">
         <f>AVERAGE(J74:N74)</f>
-        <v>#DIV/0!</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="P74" s="1"/>
     </row>
@@ -2547,18 +2922,46 @@
       <c r="A75" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G75" s="3" t="e">
+      <c r="B75" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3">
         <f t="shared" ref="G75:G79" si="20">AVERAGE(B75:F75)</f>
-        <v>#DIV/0!</v>
+        <v>0.94800000000000006</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="O75" s="1" t="e">
+      <c r="J75" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="O75" s="1">
         <f t="shared" ref="O75:O78" si="21">AVERAGE(J75:N75)</f>
-        <v>#DIV/0!</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="P75" s="1"/>
     </row>
@@ -2566,18 +2969,46 @@
       <c r="A76" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G76" s="3" t="e">
+      <c r="B76" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>0.92800000000000016</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="O76" s="1" t="e">
+      <c r="J76" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="O76" s="1">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>0.60600000000000009</v>
       </c>
       <c r="P76" s="1"/>
     </row>
@@ -2585,18 +3016,46 @@
       <c r="A77" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G77" s="3" t="e">
+      <c r="B77" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>0.94400000000000017</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="O77" s="1" t="e">
+      <c r="J77" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="O77" s="1">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="P77" s="1"/>
     </row>
@@ -2611,39 +3070,39 @@
         <v>1</v>
       </c>
       <c r="D78" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E78" s="1">
         <v>0.93</v>
       </c>
-      <c r="E78" s="1">
-        <v>0.92</v>
-      </c>
       <c r="F78" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G78" s="3">
         <f t="shared" si="20"/>
-        <v>0.96799999999999997</v>
+        <v>0.97200000000000009</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J78" s="1">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="K78" s="1">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
       <c r="L78" s="1">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="M78" s="1">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="N78" s="1">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="O78" s="1">
         <f t="shared" si="21"/>
-        <v>0.68800000000000006</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="P78" s="1"/>
     </row>
@@ -2653,27 +3112,27 @@
       </c>
       <c r="B79" s="3">
         <f>AVERAGE(B74:B78)</f>
-        <v>0.99</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="C79" s="3">
-        <f t="shared" ref="C79:F79" si="22">AVERAGE(C74:C78)</f>
+        <f>AVERAGE(C74:C78)</f>
         <v>1</v>
       </c>
       <c r="D79" s="3">
-        <f t="shared" si="22"/>
-        <v>0.93</v>
+        <f>AVERAGE(D74:D78)</f>
+        <v>0.874</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" si="22"/>
-        <v>0.92</v>
+        <f>AVERAGE(E74:E78)</f>
+        <v>0.874</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f>AVERAGE(F74:F78)</f>
+        <v>0.998</v>
       </c>
       <c r="G79" s="3">
         <f t="shared" si="20"/>
-        <v>0.96799999999999997</v>
+        <v>0.94600000000000006</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="7" t="s">
@@ -2681,27 +3140,27 @@
       </c>
       <c r="J79" s="3">
         <f>AVERAGE(J74:J78)</f>
-        <v>0.74</v>
+        <v>0.65999999999999992</v>
       </c>
       <c r="K79" s="3">
-        <f t="shared" ref="K79:O79" si="23">AVERAGE(K74:K78)</f>
-        <v>0.73</v>
+        <f t="shared" ref="K79:O79" si="22">AVERAGE(K74:K78)</f>
+        <v>0.81799999999999995</v>
       </c>
       <c r="L79" s="3">
-        <f t="shared" si="23"/>
-        <v>0.67</v>
+        <f t="shared" si="22"/>
+        <v>0.57199999999999995</v>
       </c>
       <c r="M79" s="3">
-        <f t="shared" si="23"/>
-        <v>0.41</v>
+        <f t="shared" si="22"/>
+        <v>0.40400000000000003</v>
       </c>
       <c r="N79" s="3">
-        <f t="shared" si="23"/>
-        <v>0.89</v>
-      </c>
-      <c r="O79" s="3" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="22"/>
+        <v>0.88800000000000012</v>
+      </c>
+      <c r="O79" s="3">
+        <f t="shared" si="22"/>
+        <v>0.66839999999999999</v>
       </c>
       <c r="P79" s="3"/>
     </row>
@@ -2726,4 +3185,2205 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206DC0CC-9E3D-482C-9909-509203E70288}">
+  <dimension ref="A5:O79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="7" width="9" style="17"/>
+    <col min="8" max="9" width="9" style="16"/>
+    <col min="10" max="15" width="9" style="17"/>
+    <col min="16" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0.246</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.73399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0.879</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="17">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0.77200000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="17">
+        <v>1</v>
+      </c>
+      <c r="C27" s="17">
+        <v>1</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.93</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0.97200000000000009</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="K27" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="M27" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="N27" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O27" s="17">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0.93</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="K28" s="17">
+        <v>0.31</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="M28" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0.91</v>
+      </c>
+      <c r="O28" s="17">
+        <v>0.45600000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.91</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0.93</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0.69</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0.67</v>
+      </c>
+      <c r="F29" s="17">
+        <v>1</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="17">
+        <v>0.76</v>
+      </c>
+      <c r="K29" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="M29" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="N29" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="O29" s="17">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.41</v>
+      </c>
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0.87</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0.69</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="G30" s="17">
+        <v>0.76999999999999991</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="K30" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="M30" s="17">
+        <v>0.61</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0.97</v>
+      </c>
+      <c r="O30" s="17">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0.89</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="F31" s="17">
+        <v>1</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="17">
+        <v>0.76</v>
+      </c>
+      <c r="K31" s="17">
+        <v>0.93</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="M31" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="N31" s="17">
+        <v>0.91</v>
+      </c>
+      <c r="O31" s="17">
+        <v>0.74600000000000011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0.87200000000000011</v>
+      </c>
+      <c r="E32" s="17">
+        <v>0.79399999999999993</v>
+      </c>
+      <c r="F32" s="17">
+        <v>0.89399999999999991</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="17">
+        <v>0.45199999999999996</v>
+      </c>
+      <c r="K32" s="17">
+        <v>0.71400000000000008</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0.59200000000000008</v>
+      </c>
+      <c r="M32" s="17">
+        <v>0.47600000000000009</v>
+      </c>
+      <c r="N32" s="17">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="O32" s="17">
+        <v>0.61559999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="C36" s="17">
+        <v>0.96</v>
+      </c>
+      <c r="D36" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="E36" s="17">
+        <v>0.61</v>
+      </c>
+      <c r="F36" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="K36" s="17">
+        <v>0.87</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="M36" s="17">
+        <v>0</v>
+      </c>
+      <c r="N36" s="17">
+        <v>0.97</v>
+      </c>
+      <c r="O36" s="17">
+        <v>0.65999999999999992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="C37" s="17">
+        <v>1</v>
+      </c>
+      <c r="D37" s="17">
+        <v>0.91</v>
+      </c>
+      <c r="E37" s="17">
+        <v>0.76</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0.96</v>
+      </c>
+      <c r="G37" s="17">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J37" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="K37" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="M37" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="N37" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="O37" s="17">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="C38" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="D38" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="E38" s="17">
+        <v>0.34</v>
+      </c>
+      <c r="F38" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="G38" s="17">
+        <v>0.68399999999999994</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" s="17">
+        <v>0.54</v>
+      </c>
+      <c r="K38" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="M38" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="N38" s="17">
+        <v>0.79</v>
+      </c>
+      <c r="O38" s="17">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="17">
+        <v>1</v>
+      </c>
+      <c r="C39" s="17">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="E39" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="F39" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="G39" s="17">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="K39" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="M39" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="N39" s="17">
+        <v>0.97</v>
+      </c>
+      <c r="O39" s="17">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="C40" s="17">
+        <v>1</v>
+      </c>
+      <c r="D40" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="E40" s="17">
+        <v>0.93</v>
+      </c>
+      <c r="F40" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="G40" s="17">
+        <v>0.97200000000000009</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="K40" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="M40" s="17">
+        <v>0.42</v>
+      </c>
+      <c r="N40" s="17">
+        <v>0.87</v>
+      </c>
+      <c r="O40" s="17">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="C41" s="17">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="D41" s="17">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="E41" s="17">
+        <v>0.72400000000000009</v>
+      </c>
+      <c r="F41" s="17">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="G41" s="17">
+        <v>0.88040000000000007</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" s="17">
+        <v>0.70600000000000007</v>
+      </c>
+      <c r="K41" s="17">
+        <v>0.82999999999999985</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="M41" s="17">
+        <v>0.254</v>
+      </c>
+      <c r="N41" s="17">
+        <v>0.91799999999999993</v>
+      </c>
+      <c r="O41" s="17">
+        <v>0.66839999999999988</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="C49" s="17">
+        <v>0.97</v>
+      </c>
+      <c r="D49" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="E49" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="F49" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="G49" s="17">
+        <v>0.874</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J49" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="K49" s="17">
+        <v>0.47</v>
+      </c>
+      <c r="L49" s="17">
+        <v>0.32</v>
+      </c>
+      <c r="M49" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="N49" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="O49" s="17">
+        <v>0.20999999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="C50" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="D50" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="E50" s="17">
+        <v>0.79</v>
+      </c>
+      <c r="F50" s="17">
+        <v>0.96</v>
+      </c>
+      <c r="G50" s="17">
+        <v>0.90599999999999992</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="K50" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="L50" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="M50" s="17">
+        <v>0</v>
+      </c>
+      <c r="N50" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O50" s="17">
+        <v>0.20800000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="C51" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="D51" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="E51" s="17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F51" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="G51" s="17">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J51" s="17">
+        <v>0</v>
+      </c>
+      <c r="K51" s="17">
+        <v>0.51</v>
+      </c>
+      <c r="L51" s="17">
+        <v>0.32</v>
+      </c>
+      <c r="M51" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="N51" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="O51" s="17">
+        <v>0.23200000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="17">
+        <v>0.83</v>
+      </c>
+      <c r="C52" s="17">
+        <v>0.89</v>
+      </c>
+      <c r="D52" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="E52" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="F52" s="17">
+        <v>0.93</v>
+      </c>
+      <c r="G52" s="17">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J52" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="K52" s="17">
+        <v>0.52</v>
+      </c>
+      <c r="L52" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="M52" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="N52" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="O52" s="17">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="17">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="C53" s="17">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="D53" s="17">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="E53" s="17">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="F53" s="17">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G53" s="17">
+        <v>0.8125</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J53" s="17">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K53" s="17">
+        <v>0.495</v>
+      </c>
+      <c r="L53" s="17">
+        <v>0.37250000000000005</v>
+      </c>
+      <c r="M53" s="17">
+        <v>0.1075</v>
+      </c>
+      <c r="N53" s="17">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="O53" s="17">
+        <v>0.22550000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="C57" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="D57" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="E57" s="17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F57" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="G57" s="17">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J57" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="K57" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="L57" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="M57" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="N57" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="O57" s="17">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="17">
+        <v>0.79</v>
+      </c>
+      <c r="C58" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="D58" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="E58" s="17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F58" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="G58" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="K58" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="L58" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="M58" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N58" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="O58" s="17">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="C59" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="D59" s="17">
+        <v>0.38</v>
+      </c>
+      <c r="E59" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F59" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="G59" s="17">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J59" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="K59" s="17">
+        <v>0.52</v>
+      </c>
+      <c r="L59" s="17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M59" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="N59" s="17">
+        <v>0.79</v>
+      </c>
+      <c r="O59" s="17">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="C60" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="D60" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E60" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="F60" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="G60" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J60" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="K60" s="17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L60" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="M60" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="N60" s="17">
+        <v>0.79</v>
+      </c>
+      <c r="O60" s="17">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="C61" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="D61" s="17">
+        <v>0.5475000000000001</v>
+      </c>
+      <c r="E61" s="17">
+        <v>0.4425</v>
+      </c>
+      <c r="F61" s="17">
+        <v>0.91499999999999992</v>
+      </c>
+      <c r="G61" s="17">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J61" s="17">
+        <v>0.1875</v>
+      </c>
+      <c r="K61" s="17">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="L61" s="17">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="M61" s="17">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="N61" s="17">
+        <v>0.75750000000000006</v>
+      </c>
+      <c r="O61" s="17">
+        <v>0.36950000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O64" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="C65" s="17">
+        <v>1</v>
+      </c>
+      <c r="D65" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="E65" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="F65" s="17">
+        <v>1</v>
+      </c>
+      <c r="G65" s="17">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J65" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="K65" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="L65" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="M65" s="17">
+        <v>0.43</v>
+      </c>
+      <c r="N65" s="17">
+        <v>0.93</v>
+      </c>
+      <c r="O65" s="17">
+        <v>0.73000000000000009</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="C66" s="17">
+        <v>1</v>
+      </c>
+      <c r="D66" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="E66" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="F66" s="17">
+        <v>1</v>
+      </c>
+      <c r="G66" s="17">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K66" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="L66" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="M66" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="N66" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="O66" s="17">
+        <v>0.73799999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="C67" s="17">
+        <v>1</v>
+      </c>
+      <c r="D67" s="17">
+        <v>0.96</v>
+      </c>
+      <c r="E67" s="17">
+        <v>0.96</v>
+      </c>
+      <c r="F67" s="17">
+        <v>1</v>
+      </c>
+      <c r="G67" s="17">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J67" s="17">
+        <v>0.67</v>
+      </c>
+      <c r="K67" s="17">
+        <v>0.52</v>
+      </c>
+      <c r="L67" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="M67" s="17">
+        <v>0.43</v>
+      </c>
+      <c r="N67" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="O67" s="17">
+        <v>0.64399999999999991</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="C68" s="17">
+        <v>1</v>
+      </c>
+      <c r="D68" s="17">
+        <v>0.97</v>
+      </c>
+      <c r="E68" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="F68" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="G68" s="17">
+        <v>0.97800000000000009</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J68" s="17">
+        <v>0.72</v>
+      </c>
+      <c r="K68" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="L68" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="M68" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N68" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="O68" s="17">
+        <v>0.74600000000000011</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="C69" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="D69" s="17">
+        <v>0.89</v>
+      </c>
+      <c r="E69" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="F69" s="17">
+        <v>1</v>
+      </c>
+      <c r="G69" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J69" s="17">
+        <v>0.76</v>
+      </c>
+      <c r="K69" s="17">
+        <v>0.93</v>
+      </c>
+      <c r="L69" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="M69" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="N69" s="17">
+        <v>0.91</v>
+      </c>
+      <c r="O69" s="17">
+        <v>0.74600000000000011</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="C70" s="17">
+        <v>0.998</v>
+      </c>
+      <c r="D70" s="17">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E70" s="17">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F70" s="17">
+        <v>0.99600000000000011</v>
+      </c>
+      <c r="G70" s="17">
+        <v>0.97320000000000007</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J70" s="17">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="K70" s="17">
+        <v>0.83799999999999986</v>
+      </c>
+      <c r="L70" s="17">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="M70" s="17">
+        <v>0.46000000000000008</v>
+      </c>
+      <c r="N70" s="17">
+        <v>0.92599999999999993</v>
+      </c>
+      <c r="O70" s="17">
+        <v>0.7208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M73" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N73" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O73" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="C74" s="17">
+        <v>1</v>
+      </c>
+      <c r="D74" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="E74" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="F74" s="17">
+        <v>1</v>
+      </c>
+      <c r="G74" s="17">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J74" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="K74" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="L74" s="17">
+        <v>0.61</v>
+      </c>
+      <c r="M74" s="17">
+        <v>0.42</v>
+      </c>
+      <c r="N74" s="17">
+        <v>0.89</v>
+      </c>
+      <c r="O74" s="17">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="C75" s="17">
+        <v>1</v>
+      </c>
+      <c r="D75" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="E75" s="17">
+        <v>0.87</v>
+      </c>
+      <c r="F75" s="17">
+        <v>1</v>
+      </c>
+      <c r="G75" s="17">
+        <v>0.94800000000000006</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J75" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="K75" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="L75" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="M75" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="N75" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="O75" s="17">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="C76" s="17">
+        <v>1</v>
+      </c>
+      <c r="D76" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="E76" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="F76" s="17">
+        <v>1</v>
+      </c>
+      <c r="G76" s="17">
+        <v>0.92800000000000016</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J76" s="17">
+        <v>0.53</v>
+      </c>
+      <c r="K76" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="L76" s="17">
+        <v>0.43</v>
+      </c>
+      <c r="M76" s="17">
+        <v>0.38</v>
+      </c>
+      <c r="N76" s="17">
+        <v>0.89</v>
+      </c>
+      <c r="O76" s="17">
+        <v>0.60600000000000009</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="17">
+        <v>0.97</v>
+      </c>
+      <c r="C77" s="17">
+        <v>1</v>
+      </c>
+      <c r="D77" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="E77" s="17">
+        <v>0.87</v>
+      </c>
+      <c r="F77" s="17">
+        <v>1</v>
+      </c>
+      <c r="G77" s="17">
+        <v>0.94400000000000017</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J77" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="K77" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="L77" s="17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M77" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="N77" s="17">
+        <v>0.91</v>
+      </c>
+      <c r="O77" s="17">
+        <v>0.67999999999999994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="C78" s="17">
+        <v>1</v>
+      </c>
+      <c r="D78" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="E78" s="17">
+        <v>0.93</v>
+      </c>
+      <c r="F78" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="G78" s="17">
+        <v>0.97200000000000009</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J78" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="K78" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="L78" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="M78" s="17">
+        <v>0.42</v>
+      </c>
+      <c r="N78" s="17">
+        <v>0.87</v>
+      </c>
+      <c r="O78" s="17">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" s="17">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="C79" s="17">
+        <v>1</v>
+      </c>
+      <c r="D79" s="17">
+        <v>0.874</v>
+      </c>
+      <c r="E79" s="17">
+        <v>0.874</v>
+      </c>
+      <c r="F79" s="17">
+        <v>0.998</v>
+      </c>
+      <c r="G79" s="17">
+        <v>0.94600000000000006</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J79" s="17">
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="K79" s="17">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="L79" s="17">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="M79" s="17">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="N79" s="17">
+        <v>0.88800000000000012</v>
+      </c>
+      <c r="O79" s="17">
+        <v>0.66839999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ACDE61-1CA3-427F-95EF-757CDFBD1DD6}">
+  <dimension ref="A3:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>0.69</v>
+      </c>
+      <c r="C4">
+        <v>0.45</v>
+      </c>
+      <c r="D4">
+        <v>0.66</v>
+      </c>
+      <c r="E4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>0.73</v>
+      </c>
+      <c r="C5">
+        <v>0.49</v>
+      </c>
+      <c r="D5">
+        <v>0.67</v>
+      </c>
+      <c r="E5">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>0.68</v>
+      </c>
+      <c r="C6">
+        <v>0.7</v>
+      </c>
+      <c r="D6">
+        <v>0.72</v>
+      </c>
+      <c r="E6">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>0.73</v>
+      </c>
+      <c r="C7">
+        <v>0.59</v>
+      </c>
+      <c r="D7">
+        <v>0.63</v>
+      </c>
+      <c r="E7">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>0.78</v>
+      </c>
+      <c r="C8">
+        <v>0.48</v>
+      </c>
+      <c r="D8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E8">
+        <v>0.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C5866F-C9D9-45AA-803A-8D7F3485E7D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD2427-71D6-4069-B853-A158E20B0654}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="1620" windowWidth="16335" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9630" yWindow="1620" windowWidth="16335" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分类器" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="80">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TEMPSPACECONFLU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tf + pca</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,6 +290,21 @@
   </si>
   <si>
     <t>test-9axis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-Dimension CNN</t>
+  </si>
+  <si>
+    <t>Simple-Incepiton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-Dimension CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyCNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:P79"/>
+  <dimension ref="A5:P104"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -894,7 +905,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>0.96599999999999997</v>
@@ -976,7 +987,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1">
         <v>0.84299999999999997</v>
@@ -985,7 +996,7 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F20" s="1">
         <v>0.44800000000000001</v>
@@ -1033,7 +1044,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -1043,7 +1054,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
@@ -1058,91 +1069,91 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="O26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="E27" s="1">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F27" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G27" s="3">
         <f>AVERAGE(B27:F27)</f>
-        <v>0.97200000000000009</v>
+        <v>0.93399999999999994</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J27" s="10">
-        <v>0.44</v>
+        <v>0.62</v>
       </c>
       <c r="K27" s="10">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="L27" s="10">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="M27" s="10">
-        <v>0.33</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N27" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.79</v>
       </c>
       <c r="O27" s="4">
         <f>AVERAGE(J27:N27)</f>
-        <v>0.56999999999999995</v>
+        <v>0.58200000000000007</v>
       </c>
       <c r="P27" s="4"/>
     </row>
@@ -1292,7 +1303,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1">
         <v>0.99</v>
@@ -1315,7 +1326,7 @@
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="6" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="J31" s="1">
         <v>0.76</v>
@@ -1340,11 +1351,11 @@
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3">
         <f>AVERAGE(B27:B31)</f>
-        <v>0.79800000000000004</v>
+        <v>0.79400000000000015</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ref="C32:F32" si="2">AVERAGE(C27:C31)</f>
@@ -1352,47 +1363,47 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" si="2"/>
-        <v>0.87200000000000011</v>
+        <v>0.84800000000000009</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="2"/>
-        <v>0.79399999999999993</v>
+        <v>0.77399999999999991</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="2"/>
-        <v>0.89399999999999991</v>
+        <v>0.90399999999999991</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>0.86839999999999995</v>
+        <v>0.86080000000000001</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J32" s="3">
         <f>AVERAGE(J27:J31)</f>
-        <v>0.45199999999999996</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" ref="K32:N32" si="3">AVERAGE(K27:K31)</f>
-        <v>0.71400000000000008</v>
+        <v>0.70600000000000007</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="3"/>
-        <v>0.59200000000000008</v>
+        <v>0.56600000000000006</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" si="3"/>
-        <v>0.47600000000000009</v>
+        <v>0.43800000000000006</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="3"/>
-        <v>0.84399999999999997</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="1"/>
-        <v>0.61559999999999993</v>
+        <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -1400,7 +1411,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -1410,7 +1421,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
@@ -1425,91 +1436,91 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G35" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="O35" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="C36" s="1">
         <v>0.96</v>
       </c>
       <c r="D36" s="1">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="E36" s="1">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="F36" s="1">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="G36" s="3">
         <f>AVERAGE(B36:F36)</f>
-        <v>0.83999999999999986</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J36" s="1">
-        <v>0.71</v>
+        <v>0.16</v>
       </c>
       <c r="K36" s="1">
-        <v>0.87</v>
+        <v>0.63</v>
       </c>
       <c r="L36" s="1">
-        <v>0.75</v>
+        <v>0.46</v>
       </c>
       <c r="M36" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="N36" s="1">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="O36" s="4">
         <f>AVERAGE(J36:N36)</f>
-        <v>0.65999999999999992</v>
+        <v>0.45599999999999996</v>
       </c>
       <c r="P36" s="4"/>
     </row>
@@ -1659,7 +1670,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1">
         <v>0.99</v>
@@ -1682,7 +1693,7 @@
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="6" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="J40" s="1">
         <v>0.7</v>
@@ -1707,11 +1718,11 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="3">
         <f>AVERAGE(B36:B40)</f>
-        <v>0.94199999999999995</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="C41" s="3">
         <f t="shared" ref="C41:F41" si="6">AVERAGE(C36:C40)</f>
@@ -1719,47 +1730,47 @@
       </c>
       <c r="D41" s="3">
         <f t="shared" si="6"/>
-        <v>0.79800000000000004</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" si="6"/>
-        <v>0.72400000000000009</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="6"/>
-        <v>0.98399999999999999</v>
+        <v>0.97200000000000009</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="4"/>
-        <v>0.88040000000000007</v>
+        <v>0.86680000000000013</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J41" s="4">
         <f>AVERAGE(J36:J40)</f>
-        <v>0.70600000000000007</v>
+        <v>0.59600000000000009</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" ref="K41:N41" si="7">AVERAGE(K36:K40)</f>
-        <v>0.82999999999999985</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="7"/>
-        <v>0.63400000000000001</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="M41" s="4">
         <f t="shared" si="7"/>
-        <v>0.254</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N41" s="4">
         <f t="shared" si="7"/>
-        <v>0.91799999999999993</v>
+        <v>0.89399999999999991</v>
       </c>
       <c r="O41" s="4">
         <f t="shared" si="5"/>
-        <v>0.66839999999999988</v>
+        <v>0.62759999999999994</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -1798,7 +1809,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -1808,7 +1819,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
@@ -1823,49 +1834,49 @@
         <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G48" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N48" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="O48" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P48" s="1"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49" s="1">
         <v>0.92</v>
@@ -1888,7 +1899,7 @@
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J49" s="1">
         <v>0.1</v>
@@ -1913,7 +1924,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" s="1">
         <v>0.98</v>
@@ -1936,7 +1947,7 @@
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J50" s="1">
         <v>0.01</v>
@@ -1961,7 +1972,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51" s="1">
         <v>0.85</v>
@@ -1984,7 +1995,7 @@
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J51" s="1">
         <v>0</v>
@@ -2009,7 +2020,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52" s="1">
         <v>0.83</v>
@@ -2032,7 +2043,7 @@
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J52" s="1">
         <v>0.15</v>
@@ -2057,7 +2068,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53" s="3">
         <f>AVERAGE(B49:B52)</f>
@@ -2085,7 +2096,7 @@
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J53" s="3">
         <f>AVERAGE(J49:J52)</f>
@@ -2121,7 +2132,7 @@
     </row>
     <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -2131,7 +2142,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
@@ -2146,49 +2157,49 @@
         <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G56" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N56" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="O56" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P56" s="1"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B57" s="1">
         <v>0.71</v>
@@ -2210,7 +2221,7 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J57" s="1">
         <v>0.09</v>
@@ -2235,7 +2246,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58" s="1">
         <v>0.79</v>
@@ -2257,7 +2268,7 @@
         <v>0.77</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J58" s="1">
         <v>0.22</v>
@@ -2282,7 +2293,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B59" s="1">
         <v>0.74</v>
@@ -2304,7 +2315,7 @@
         <v>0.57599999999999996</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J59" s="1">
         <v>0.21</v>
@@ -2329,7 +2340,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60" s="1">
         <v>0.84</v>
@@ -2351,7 +2362,7 @@
         <v>0.73</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J60" s="1">
         <v>0.23</v>
@@ -2376,7 +2387,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B61" s="3">
         <f>AVERAGE(B57:B60)</f>
@@ -2404,7 +2415,7 @@
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J61" s="3">
         <f>AVERAGE(J57:J60)</f>
@@ -2433,753 +2444,1502 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-    </row>
-    <row r="63" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="19" t="s">
+      <c r="A62" s="7"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="7"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="11"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="11"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" s="7"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="I68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="L68" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="N68" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O64" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P64" s="1"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3">
-        <f>AVERAGE(B65:F65)</f>
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J65" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="K65" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="L65" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="M65" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="N65" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="O65" s="1">
-        <f>AVERAGE(J65:N65)</f>
-        <v>0.73000000000000009</v>
-      </c>
-      <c r="P65" s="1"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="E66" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3">
-        <f t="shared" ref="G66:G70" si="16">AVERAGE(B66:F66)</f>
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J66" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="K66" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="L66" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="M66" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="N66" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="O66" s="1">
-        <f t="shared" ref="O66:O69" si="17">AVERAGE(J66:N66)</f>
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="P66" s="1"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="E67" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3">
-        <f t="shared" si="16"/>
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J67" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="K67" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="L67" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="M67" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="N67" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="O67" s="1">
-        <f t="shared" si="17"/>
-        <v>0.64399999999999991</v>
-      </c>
-      <c r="P67" s="1"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="E68" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="F68" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="G68" s="3">
-        <f t="shared" si="16"/>
-        <v>0.97800000000000009</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J68" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="K68" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="L68" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="M68" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N68" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="O68" s="1">
-        <f t="shared" si="17"/>
-        <v>0.74600000000000011</v>
+      <c r="O68" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="P68" s="1"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B69" s="1">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="C69" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E69" s="1">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F69" s="1">
         <v>1</v>
       </c>
       <c r="G69" s="3">
+        <f>AVERAGE(B69:F69)</f>
+        <v>0.93399999999999994</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J69" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="K69" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="L69" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="M69" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N69" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="O69" s="4">
+        <f>AVERAGE(J69:N69)</f>
+        <v>0.58200000000000007</v>
+      </c>
+      <c r="P69" s="4"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" ref="G70:G72" si="16">AVERAGE(B70:F70)</f>
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="O70" s="4">
+        <f t="shared" ref="O70:O71" si="17">AVERAGE(J70:N70)</f>
+        <v>0.49399999999999994</v>
+      </c>
+      <c r="P70" s="4"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
         <f t="shared" si="16"/>
         <v>0.95</v>
       </c>
-      <c r="I69" s="6" t="s">
+      <c r="H71" s="3"/>
+      <c r="I71" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="O71" s="4">
+        <f t="shared" si="17"/>
+        <v>0.79799999999999993</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="3">
+        <f>AVERAGE(B69:B71)</f>
+        <v>0.96333333333333337</v>
+      </c>
+      <c r="C72" s="3">
+        <f>AVERAGE(C69:C71)</f>
+        <v>0.99333333333333329</v>
+      </c>
+      <c r="D72" s="3">
+        <f>AVERAGE(D69:D71)</f>
+        <v>0.91333333333333322</v>
+      </c>
+      <c r="E72" s="3">
+        <f>AVERAGE(E69:E71)</f>
+        <v>0.88</v>
+      </c>
+      <c r="F72" s="3">
+        <f>AVERAGE(F69:F71)</f>
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="16"/>
+        <v>0.95</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="3">
+        <f t="shared" ref="J72:O72" si="18">AVERAGE(J69:J71)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K72" s="3">
+        <f t="shared" si="18"/>
+        <v>0.80333333333333334</v>
+      </c>
+      <c r="L72" s="3">
+        <f t="shared" si="18"/>
+        <v>0.65333333333333332</v>
+      </c>
+      <c r="M72" s="3">
+        <f t="shared" si="18"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="N72" s="3">
+        <f t="shared" si="18"/>
+        <v>0.80666666666666664</v>
+      </c>
+      <c r="O72" s="3">
+        <f t="shared" si="18"/>
+        <v>0.6246666666666667</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J69" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="K69" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="L69" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="M69" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="N69" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="O69" s="1">
-        <f t="shared" si="17"/>
-        <v>0.74600000000000011</v>
-      </c>
-      <c r="P69" s="1"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="3">
-        <f>AVERAGE(B65:B69)</f>
-        <v>0.99</v>
-      </c>
-      <c r="C70" s="3">
-        <f t="shared" ref="C70:F70" si="18">AVERAGE(C65:C69)</f>
-        <v>0.998</v>
-      </c>
-      <c r="D70" s="3">
-        <f t="shared" si="18"/>
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="E70" s="3">
-        <f t="shared" si="18"/>
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="F70" s="3">
-        <f t="shared" si="18"/>
-        <v>0.99600000000000011</v>
-      </c>
-      <c r="G70" s="3">
-        <f t="shared" si="16"/>
-        <v>0.97320000000000007</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J70" s="3">
-        <f>AVERAGE(J65:J69)</f>
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="K70" s="3">
-        <f t="shared" ref="K70:N70" si="19">AVERAGE(K65:K69)</f>
-        <v>0.83799999999999986</v>
-      </c>
-      <c r="L70" s="3">
-        <f t="shared" si="19"/>
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="M70" s="3">
-        <f t="shared" si="19"/>
-        <v>0.46000000000000008</v>
-      </c>
-      <c r="N70" s="3">
-        <f t="shared" si="19"/>
-        <v>0.92599999999999993</v>
-      </c>
-      <c r="O70" s="3">
-        <f>AVERAGE(O65:O69)</f>
-        <v>0.7208</v>
-      </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-    </row>
-    <row r="72" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="19" t="s">
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="I75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="L75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="N75" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O73" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P73" s="1"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="E74" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="F74" s="1">
-        <v>1</v>
-      </c>
-      <c r="G74" s="3">
-        <f>AVERAGE(B74:F74)</f>
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J74" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="K74" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="L74" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="M74" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="N74" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="O74" s="1">
-        <f>AVERAGE(J74:N74)</f>
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="P74" s="1"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B75" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="F75" s="1">
-        <v>1</v>
-      </c>
-      <c r="G75" s="3">
-        <f t="shared" ref="G75:G79" si="20">AVERAGE(B75:F75)</f>
-        <v>0.94800000000000006</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J75" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="K75" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="L75" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="M75" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="N75" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="O75" s="1">
-        <f t="shared" ref="O75:O78" si="21">AVERAGE(J75:N75)</f>
-        <v>0.69199999999999995</v>
+      <c r="O75" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="P75" s="1"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B76" s="1">
-        <v>0.98</v>
+        <v>0.73</v>
       </c>
       <c r="C76" s="1">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D76" s="1">
-        <v>0.81</v>
+        <v>0.75</v>
       </c>
       <c r="E76" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="G76" s="3">
+        <f>AVERAGE(B76:F76)</f>
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="N76" s="1">
         <v>0.85</v>
       </c>
-      <c r="F76" s="1">
-        <v>1</v>
-      </c>
-      <c r="G76" s="3">
-        <f t="shared" si="20"/>
-        <v>0.92800000000000016</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J76" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="K76" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="L76" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="M76" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="N76" s="1">
-        <v>0.89</v>
-      </c>
       <c r="O76" s="1">
-        <f t="shared" si="21"/>
-        <v>0.60600000000000009</v>
+        <f>AVERAGE(J76:N76)</f>
+        <v>0.45599999999999996</v>
       </c>
       <c r="P76" s="1"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="E77" s="1">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="F77" s="1">
         <v>1</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" si="20"/>
-        <v>0.94400000000000017</v>
+        <f t="shared" ref="G77:G79" si="19">AVERAGE(B77:F77)</f>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="J77" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="L77" s="1">
         <v>0.65</v>
       </c>
-      <c r="K77" s="1">
+      <c r="M77" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="N77" s="1">
         <v>0.9</v>
       </c>
-      <c r="L77" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M77" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="N77" s="1">
-        <v>0.91</v>
-      </c>
       <c r="O77" s="1">
-        <f t="shared" si="21"/>
-        <v>0.67999999999999994</v>
+        <f t="shared" ref="O77:O78" si="20">AVERAGE(J77:N77)</f>
+        <v>0.626</v>
       </c>
       <c r="P77" s="1"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="C78" s="1">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="D78" s="1">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="E78" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="19"/>
+        <v>0.85600000000000009</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="N78" s="1">
         <v>0.93</v>
       </c>
-      <c r="F78" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="G78" s="3">
+      <c r="O78" s="1">
         <f t="shared" si="20"/>
-        <v>0.97200000000000009</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J78" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K78" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="L78" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="M78" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="N78" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="O78" s="1">
-        <f t="shared" si="21"/>
-        <v>0.67800000000000005</v>
+        <v>0.59800000000000009</v>
       </c>
       <c r="P78" s="1"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B79" s="3">
-        <f>AVERAGE(B74:B78)</f>
-        <v>0.98399999999999999</v>
+        <f>AVERAGE(B76:B78)</f>
+        <v>0.88</v>
       </c>
       <c r="C79" s="3">
-        <f>AVERAGE(C74:C78)</f>
-        <v>1</v>
+        <f>AVERAGE(C76:C78)</f>
+        <v>0.96666666666666667</v>
       </c>
       <c r="D79" s="3">
-        <f>AVERAGE(D74:D78)</f>
-        <v>0.874</v>
+        <f>AVERAGE(D76:D78)</f>
+        <v>0.79333333333333333</v>
       </c>
       <c r="E79" s="3">
-        <f>AVERAGE(E74:E78)</f>
-        <v>0.874</v>
+        <f>AVERAGE(E76:E78)</f>
+        <v>0.64</v>
       </c>
       <c r="F79" s="3">
-        <f>AVERAGE(F74:F78)</f>
-        <v>0.998</v>
+        <f>AVERAGE(F76:F78)</f>
+        <v>0.94666666666666677</v>
       </c>
       <c r="G79" s="3">
-        <f t="shared" si="20"/>
-        <v>0.94600000000000006</v>
+        <f t="shared" si="19"/>
+        <v>0.84533333333333327</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" s="3">
+        <f t="shared" ref="J79:O79" si="21">AVERAGE(J76:J78)</f>
+        <v>0.46333333333333337</v>
+      </c>
+      <c r="K79" s="3">
+        <f t="shared" si="21"/>
+        <v>0.75</v>
+      </c>
+      <c r="L79" s="3">
+        <f t="shared" si="21"/>
+        <v>0.52666666666666673</v>
+      </c>
+      <c r="M79" s="3">
+        <f t="shared" si="21"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N79" s="3">
+        <f t="shared" si="21"/>
+        <v>0.89333333333333342</v>
+      </c>
+      <c r="O79" s="3">
+        <f t="shared" si="21"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="P79" s="3"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80" s="7"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81" s="7"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82" s="7"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83" s="7"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84" s="11"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="11"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85" s="11"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="11"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" s="7"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J79" s="3">
-        <f>AVERAGE(J74:J78)</f>
-        <v>0.65999999999999992</v>
-      </c>
-      <c r="K79" s="3">
-        <f t="shared" ref="K79:O79" si="22">AVERAGE(K74:K78)</f>
+      <c r="J89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3">
+        <f>AVERAGE(B90:F90)</f>
+        <v>0.96</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="O90" s="1">
+        <f>AVERAGE(J90:N90)</f>
+        <v>0.82199999999999984</v>
+      </c>
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3">
+        <f t="shared" ref="G91:G95" si="22">AVERAGE(B91:F91)</f>
+        <v>0.96400000000000008</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="L91" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="O91" s="1">
+        <f t="shared" ref="O91:O94" si="23">AVERAGE(J91:N91)</f>
+        <v>0.82</v>
+      </c>
+      <c r="P91" s="1"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3">
+        <f t="shared" si="22"/>
+        <v>0.92599999999999993</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="M92" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="O92" s="1">
+        <f t="shared" si="23"/>
         <v>0.81799999999999995</v>
       </c>
-      <c r="L79" s="3">
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3">
         <f t="shared" si="22"/>
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="M79" s="3">
+        <v>0.96400000000000008</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="O93" s="1">
+        <f t="shared" si="23"/>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3">
         <f t="shared" si="22"/>
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="N79" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="O94" s="1">
+        <f t="shared" si="23"/>
+        <v>0.79799999999999993</v>
+      </c>
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="3">
+        <f>AVERAGE(B90:B94)</f>
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C95" s="3">
+        <f t="shared" ref="C95:F95" si="24">AVERAGE(C90:C94)</f>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D95" s="3">
+        <f t="shared" si="24"/>
+        <v>0.92599999999999993</v>
+      </c>
+      <c r="E95" s="3">
+        <f t="shared" si="24"/>
+        <v>0.87800000000000011</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="G95" s="3">
         <f t="shared" si="22"/>
-        <v>0.88800000000000012</v>
-      </c>
-      <c r="O79" s="3">
-        <f t="shared" si="22"/>
-        <v>0.66839999999999999</v>
-      </c>
-      <c r="P79" s="3"/>
+        <v>0.95280000000000009</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J95" s="3">
+        <f>AVERAGE(J90:J94)</f>
+        <v>0.86199999999999988</v>
+      </c>
+      <c r="K95" s="3">
+        <f t="shared" ref="K95:N95" si="25">AVERAGE(K90:K94)</f>
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="L95" s="3">
+        <f t="shared" si="25"/>
+        <v>0.60600000000000009</v>
+      </c>
+      <c r="M95" s="3">
+        <f t="shared" si="25"/>
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="N95" s="3">
+        <f t="shared" si="25"/>
+        <v>0.97199999999999986</v>
+      </c>
+      <c r="O95" s="3">
+        <f>AVERAGE(O90:O94)</f>
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+    </row>
+    <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O98" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P98" s="1"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G99" s="3">
+        <f>AVERAGE(B99:F99)</f>
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="M99" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="N99" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="O99" s="1">
+        <f>AVERAGE(J99:N99)</f>
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="P99" s="1"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G100" s="3">
+        <f t="shared" ref="G100:G104" si="26">AVERAGE(B100:F100)</f>
+        <v>0.85599999999999987</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="L100" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="M100" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="N100" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="O100" s="1">
+        <f t="shared" ref="O100:O103" si="27">AVERAGE(J100:N100)</f>
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="P100" s="1"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="G101" s="3">
+        <f t="shared" si="26"/>
+        <v>0.87800000000000011</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="L101" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="M101" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="N101" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="O101" s="1">
+        <f t="shared" si="27"/>
+        <v>0.62600000000000011</v>
+      </c>
+      <c r="P101" s="1"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G102" s="3">
+        <f t="shared" si="26"/>
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="M102" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="N102" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="O102" s="1">
+        <f t="shared" si="27"/>
+        <v>0.62600000000000011</v>
+      </c>
+      <c r="P102" s="1"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" si="26"/>
+        <v>0.85600000000000009</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="L103" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="M103" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="N103" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="O103" s="1">
+        <f t="shared" si="27"/>
+        <v>0.59800000000000009</v>
+      </c>
+      <c r="P103" s="1"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="3">
+        <f>AVERAGE(B99:B103)</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="C104" s="3">
+        <f>AVERAGE(C99:C103)</f>
+        <v>0.94800000000000006</v>
+      </c>
+      <c r="D104" s="3">
+        <f>AVERAGE(D99:D103)</f>
+        <v>0.81600000000000006</v>
+      </c>
+      <c r="E104" s="3">
+        <f>AVERAGE(E99:E103)</f>
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F104" s="3">
+        <f>AVERAGE(F99:F103)</f>
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="G104" s="3">
+        <f t="shared" si="26"/>
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="H104" s="3"/>
+      <c r="I104" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J104" s="3">
+        <f>AVERAGE(J99:J103)</f>
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="K104" s="3">
+        <f t="shared" ref="K104:O104" si="28">AVERAGE(K99:K103)</f>
+        <v>0.85399999999999987</v>
+      </c>
+      <c r="L104" s="3">
+        <f t="shared" si="28"/>
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="M104" s="3">
+        <f t="shared" si="28"/>
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="N104" s="3">
+        <f t="shared" si="28"/>
+        <v>0.93</v>
+      </c>
+      <c r="O104" s="3">
+        <f t="shared" si="28"/>
+        <v>0.61520000000000008</v>
+      </c>
+      <c r="P104" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="I63:N63"/>
+  <mergeCells count="18">
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="I67:N67"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="I47:N47"/>
     <mergeCell ref="A55:F55"/>
     <mergeCell ref="I55:N55"/>
-    <mergeCell ref="A63:F63"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="I25:N25"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="I34:N34"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="I74:N74"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="I97:N97"/>
+    <mergeCell ref="I88:N88"/>
+    <mergeCell ref="A88:F88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3206,27 +3966,27 @@
   <sheetData>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="F5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="17">
         <v>0.91500000000000004</v>
@@ -3235,10 +3995,10 @@
         <v>0.88800000000000001</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="17">
         <v>0.65700000000000003</v>
@@ -3249,7 +4009,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="17">
         <v>0.90200000000000002</v>
@@ -3258,7 +4018,7 @@
         <v>0.86699999999999999</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="17">
         <v>0.73599999999999999</v>
@@ -3269,7 +4029,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="17">
         <v>0.89600000000000002</v>
@@ -3278,7 +4038,7 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="17">
         <v>0.72299999999999998</v>
@@ -3289,7 +4049,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="17">
         <v>0.53300000000000003</v>
@@ -3298,7 +4058,7 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="17">
         <v>0.42099999999999999</v>
@@ -3309,7 +4069,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="17">
         <v>0.246</v>
@@ -3318,7 +4078,7 @@
         <v>0.52700000000000002</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="17">
         <v>0.26800000000000002</v>
@@ -3329,35 +4089,35 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="E15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="F15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="17">
         <v>0.96599999999999997</v>
@@ -3366,7 +4126,7 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="17">
         <v>0.58799999999999997</v>
@@ -3377,7 +4137,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="17">
         <v>0.83799999999999997</v>
@@ -3386,7 +4146,7 @@
         <v>0.95299999999999996</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="17">
         <v>0.49199999999999999</v>
@@ -3397,7 +4157,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="17">
         <v>0.879</v>
@@ -3406,7 +4166,7 @@
         <v>0.66200000000000003</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="17">
         <v>0.64700000000000002</v>
@@ -3417,7 +4177,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="17">
         <v>0.89600000000000002</v>
@@ -3426,7 +4186,7 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="17">
         <v>0.47699999999999998</v>
@@ -3437,7 +4197,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="17">
         <v>0.84299999999999997</v>
@@ -3446,7 +4206,7 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="17">
         <v>0.44800000000000001</v>
@@ -3457,59 +4217,59 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="I26" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="M26" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="N26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J26" s="17" t="s">
+      <c r="O26" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="17">
         <v>1</v>
@@ -3530,7 +4290,7 @@
         <v>0.97200000000000009</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J27" s="17">
         <v>0.44</v>
@@ -3553,7 +4313,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="17">
         <v>0.68</v>
@@ -3574,7 +4334,7 @@
         <v>0.80999999999999994</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J28" s="17">
         <v>0.25</v>
@@ -3597,7 +4357,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="17">
         <v>0.91</v>
@@ -3618,7 +4378,7 @@
         <v>0.84000000000000008</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J29" s="17">
         <v>0.76</v>
@@ -3641,7 +4401,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="17">
         <v>0.41</v>
@@ -3662,7 +4422,7 @@
         <v>0.76999999999999991</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J30" s="17">
         <v>0.05</v>
@@ -3685,7 +4445,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="17">
         <v>0.99</v>
@@ -3706,7 +4466,7 @@
         <v>0.95</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J31" s="17">
         <v>0.76</v>
@@ -3729,7 +4489,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="17">
         <v>0.79800000000000004</v>
@@ -3750,7 +4510,7 @@
         <v>0.86839999999999995</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J32" s="17">
         <v>0.45199999999999996</v>
@@ -3773,59 +4533,59 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="I35" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="M35" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="N35" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J35" s="17" t="s">
+      <c r="O35" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="17">
         <v>0.86</v>
@@ -3846,7 +4606,7 @@
         <v>0.83999999999999986</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J36" s="17">
         <v>0.71</v>
@@ -3869,7 +4629,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="17">
         <v>0.94</v>
@@ -3890,7 +4650,7 @@
         <v>0.91400000000000003</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J37" s="17">
         <v>0.85</v>
@@ -3913,7 +4673,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="17">
         <v>0.92</v>
@@ -3934,7 +4694,7 @@
         <v>0.68399999999999994</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J38" s="17">
         <v>0.54</v>
@@ -3957,7 +4717,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="17">
         <v>1</v>
@@ -3978,7 +4738,7 @@
         <v>0.99199999999999999</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J39" s="17">
         <v>0.73</v>
@@ -4001,7 +4761,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="17">
         <v>0.99</v>
@@ -4022,7 +4782,7 @@
         <v>0.97200000000000009</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J40" s="17">
         <v>0.7</v>
@@ -4045,7 +4805,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="17">
         <v>0.94199999999999995</v>
@@ -4066,7 +4826,7 @@
         <v>0.88040000000000007</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J41" s="17">
         <v>0.70600000000000007</v>
@@ -4089,59 +4849,59 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="I48" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="M48" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="N48" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J48" s="17" t="s">
+      <c r="O48" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="K48" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L48" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M48" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O48" s="17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="17">
         <v>0.92</v>
@@ -4162,7 +4922,7 @@
         <v>0.874</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J49" s="17">
         <v>0.1</v>
@@ -4185,7 +4945,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" s="17">
         <v>0.98</v>
@@ -4206,7 +4966,7 @@
         <v>0.90599999999999992</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J50" s="17">
         <v>0.01</v>
@@ -4229,7 +4989,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="17">
         <v>0.85</v>
@@ -4250,7 +5010,7 @@
         <v>0.67800000000000005</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J51" s="17">
         <v>0</v>
@@ -4273,7 +5033,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="17">
         <v>0.83</v>
@@ -4294,7 +5054,7 @@
         <v>0.79200000000000004</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J52" s="17">
         <v>0.15</v>
@@ -4317,7 +5077,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="17">
         <v>0.89500000000000002</v>
@@ -4338,7 +5098,7 @@
         <v>0.8125</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J53" s="17">
         <v>6.5000000000000002E-2</v>
@@ -4361,59 +5121,59 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B56" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="I56" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="M56" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="N56" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J56" s="17" t="s">
+      <c r="O56" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="K56" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L56" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M56" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="N56" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O56" s="17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="17">
         <v>0.71</v>
@@ -4434,7 +5194,7 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J57" s="17">
         <v>0.09</v>
@@ -4457,7 +5217,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58" s="17">
         <v>0.79</v>
@@ -4478,7 +5238,7 @@
         <v>0.77</v>
       </c>
       <c r="I58" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J58" s="17">
         <v>0.22</v>
@@ -4501,7 +5261,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="17">
         <v>0.74</v>
@@ -4522,7 +5282,7 @@
         <v>0.57599999999999996</v>
       </c>
       <c r="I59" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J59" s="17">
         <v>0.21</v>
@@ -4545,7 +5305,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="17">
         <v>0.84</v>
@@ -4566,7 +5326,7 @@
         <v>0.73</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J60" s="17">
         <v>0.23</v>
@@ -4589,7 +5349,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="17">
         <v>0.77</v>
@@ -4610,7 +5370,7 @@
         <v>0.70299999999999996</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J61" s="17">
         <v>0.1875</v>
@@ -4633,59 +5393,59 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="I64" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="M64" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="N64" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J64" s="17" t="s">
+      <c r="O64" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="K64" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L64" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M64" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="N64" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O64" s="17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="17">
         <v>0.99</v>
@@ -4706,7 +5466,7 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J65" s="17">
         <v>0.74</v>
@@ -4729,7 +5489,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B66" s="17">
         <v>0.99</v>
@@ -4750,7 +5510,7 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J66" s="17">
         <v>0.75</v>
@@ -4773,7 +5533,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="17">
         <v>0.99</v>
@@ -4794,7 +5554,7 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J67" s="17">
         <v>0.67</v>
@@ -4817,7 +5577,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="17">
         <v>0.99</v>
@@ -4838,7 +5598,7 @@
         <v>0.97800000000000009</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J68" s="17">
         <v>0.72</v>
@@ -4861,7 +5621,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B69" s="17">
         <v>0.99</v>
@@ -4882,7 +5642,7 @@
         <v>0.95</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J69" s="17">
         <v>0.76</v>
@@ -4905,7 +5665,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" s="17">
         <v>0.99</v>
@@ -4926,7 +5686,7 @@
         <v>0.97320000000000007</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J70" s="17">
         <v>0.72799999999999998</v>
@@ -4949,59 +5709,59 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B73" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="I73" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="M73" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="N73" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I73" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J73" s="17" t="s">
+      <c r="O73" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="K73" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L73" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O73" s="17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B74" s="17">
         <v>0.99</v>
@@ -5022,7 +5782,7 @@
         <v>0.93799999999999994</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J74" s="17">
         <v>0.71</v>
@@ -5045,7 +5805,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75" s="17">
         <v>0.99</v>
@@ -5066,7 +5826,7 @@
         <v>0.94800000000000006</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J75" s="17">
         <v>0.71</v>
@@ -5089,7 +5849,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B76" s="17">
         <v>0.98</v>
@@ -5110,7 +5870,7 @@
         <v>0.92800000000000016</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J76" s="17">
         <v>0.53</v>
@@ -5133,7 +5893,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77" s="17">
         <v>0.97</v>
@@ -5154,7 +5914,7 @@
         <v>0.94400000000000017</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J77" s="17">
         <v>0.65</v>
@@ -5177,7 +5937,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B78" s="17">
         <v>0.99</v>
@@ -5198,7 +5958,7 @@
         <v>0.97200000000000009</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J78" s="17">
         <v>0.7</v>
@@ -5221,7 +5981,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B79" s="17">
         <v>0.98399999999999999</v>
@@ -5242,7 +6002,7 @@
         <v>0.94600000000000006</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J79" s="17">
         <v>0.65999999999999992</v>
@@ -5273,7 +6033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ACDE61-1CA3-427F-95EF-757CDFBD1DD6}">
   <dimension ref="A3:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -5284,21 +6044,21 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>0.69</v>
@@ -5315,7 +6075,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>0.73</v>
@@ -5332,7 +6092,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>0.68</v>
@@ -5349,7 +6109,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>0.73</v>
@@ -5366,7 +6126,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8">
         <v>0.78</v>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD2427-71D6-4069-B853-A158E20B0654}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00BC55B-CF04-469F-8BE2-4A8B4BB6681C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="1620" windowWidth="16335" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9630" yWindow="1620" windowWidth="16335" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分类器" sheetId="1" r:id="rId1"/>
     <sheet name="分类器-2" sheetId="3" r:id="rId2"/>
-    <sheet name="K-means" sheetId="4" r:id="rId3"/>
+    <sheet name="分类器-318" sheetId="5" r:id="rId3"/>
+    <sheet name="K-means" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="92">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,15 +98,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KNeighborsClassifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GaussianNB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RandomForestClassifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -305,6 +298,57 @@
   </si>
   <si>
     <t>MyCNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>action-mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classifier-mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classifier</t>
+  </si>
+  <si>
+    <t>classifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomForest</t>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incepiton-CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFF-CNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -905,7 +949,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1">
         <v>0.96599999999999997</v>
@@ -987,7 +1031,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1">
         <v>0.84299999999999997</v>
@@ -996,7 +1040,7 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20" s="1">
         <v>0.44800000000000001</v>
@@ -1044,7 +1088,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -1054,7 +1098,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
@@ -1069,49 +1113,49 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1">
         <v>0.98</v>
@@ -1134,7 +1178,7 @@
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J27" s="10">
         <v>0.62</v>
@@ -1303,7 +1347,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1">
         <v>0.99</v>
@@ -1326,7 +1370,7 @@
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J31" s="1">
         <v>0.76</v>
@@ -1351,7 +1395,7 @@
     </row>
     <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32" s="3">
         <f>AVERAGE(B27:B31)</f>
@@ -1379,7 +1423,7 @@
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J32" s="3">
         <f>AVERAGE(J27:J31)</f>
@@ -1411,7 +1455,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -1421,7 +1465,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
@@ -1436,49 +1480,49 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="I35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" s="1" t="s">
+      <c r="O35" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1">
         <v>0.73</v>
@@ -1501,7 +1545,7 @@
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J36" s="1">
         <v>0.16</v>
@@ -1670,7 +1714,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" s="1">
         <v>0.99</v>
@@ -1693,7 +1737,7 @@
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J40" s="1">
         <v>0.7</v>
@@ -1718,7 +1762,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B41" s="3">
         <f>AVERAGE(B36:B40)</f>
@@ -1746,7 +1790,7 @@
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J41" s="4">
         <f>AVERAGE(J36:J40)</f>
@@ -1809,7 +1853,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -1834,49 +1878,49 @@
         <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="I48" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N48" s="1" t="s">
+      <c r="O48" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="P48" s="1"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B49" s="1">
         <v>0.92</v>
@@ -1899,7 +1943,7 @@
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="6" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="J49" s="1">
         <v>0.1</v>
@@ -1924,7 +1968,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B50" s="1">
         <v>0.98</v>
@@ -1947,7 +1991,7 @@
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J50" s="1">
         <v>0.01</v>
@@ -1972,7 +2016,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" s="1">
         <v>0.85</v>
@@ -1995,7 +2039,7 @@
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J51" s="1">
         <v>0</v>
@@ -2020,7 +2064,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B52" s="1">
         <v>0.83</v>
@@ -2043,7 +2087,7 @@
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="6" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="J52" s="1">
         <v>0.15</v>
@@ -2068,7 +2112,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B53" s="3">
         <f>AVERAGE(B49:B52)</f>
@@ -2096,7 +2140,7 @@
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J53" s="3">
         <f>AVERAGE(J49:J52)</f>
@@ -2132,7 +2176,7 @@
     </row>
     <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -2157,49 +2201,49 @@
         <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="I56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N56" s="1" t="s">
+      <c r="O56" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="P56" s="1"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B57" s="1">
         <v>0.71</v>
@@ -2221,7 +2265,7 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="J57" s="1">
         <v>0.09</v>
@@ -2246,7 +2290,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B58" s="1">
         <v>0.79</v>
@@ -2268,7 +2312,7 @@
         <v>0.77</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J58" s="1">
         <v>0.22</v>
@@ -2293,7 +2337,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59" s="1">
         <v>0.74</v>
@@ -2315,7 +2359,7 @@
         <v>0.57599999999999996</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J59" s="1">
         <v>0.21</v>
@@ -2340,7 +2384,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B60" s="1">
         <v>0.84</v>
@@ -2362,7 +2406,7 @@
         <v>0.73</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="J60" s="1">
         <v>0.23</v>
@@ -2387,7 +2431,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B61" s="3">
         <f>AVERAGE(B57:B60)</f>
@@ -2415,7 +2459,7 @@
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J61" s="3">
         <f>AVERAGE(J57:J60)</f>
@@ -2530,7 +2574,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -2555,49 +2599,49 @@
         <v>3</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="I68" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="N68" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N68" s="1" t="s">
+      <c r="O68" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="O68" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="P68" s="1"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B69" s="1">
         <v>0.98</v>
@@ -2620,7 +2664,7 @@
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J69" s="10">
         <v>0.62</v>
@@ -2645,7 +2689,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B70" s="1">
         <v>0.93</v>
@@ -2668,7 +2712,7 @@
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J70" s="1">
         <v>0.3</v>
@@ -2693,7 +2737,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B71" s="1">
         <v>0.98</v>
@@ -2716,7 +2760,7 @@
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J71" s="1">
         <v>0.82</v>
@@ -2741,7 +2785,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B72" s="3">
         <f>AVERAGE(B69:B71)</f>
@@ -2769,7 +2813,7 @@
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J72" s="3">
         <f t="shared" ref="J72:O72" si="18">AVERAGE(J69:J71)</f>
@@ -2805,7 +2849,7 @@
     </row>
     <row r="74" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -2830,49 +2874,49 @@
         <v>4</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="I75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="N75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M75" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N75" s="1" t="s">
+      <c r="O75" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="O75" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="P75" s="1"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B76" s="1">
         <v>0.73</v>
@@ -2894,7 +2938,7 @@
         <v>0.77200000000000002</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J76" s="1">
         <v>0.16</v>
@@ -2919,7 +2963,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>0.98</v>
@@ -2941,7 +2985,7 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J77" s="1">
         <v>0.68</v>
@@ -2966,7 +3010,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>0.93</v>
@@ -2988,7 +3032,7 @@
         <v>0.85600000000000009</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J78" s="1">
         <v>0.55000000000000004</v>
@@ -3013,7 +3057,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B79" s="3">
         <f>AVERAGE(B76:B78)</f>
@@ -3041,7 +3085,7 @@
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J79" s="3">
         <f t="shared" ref="J79:O79" si="21">AVERAGE(J76:J78)</f>
@@ -3196,7 +3240,7 @@
     </row>
     <row r="88" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -3206,7 +3250,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J88" s="19"/>
       <c r="K88" s="19"/>
@@ -3221,49 +3265,49 @@
         <v>3</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G89" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="I89" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="N89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N89" s="1" t="s">
+      <c r="O89" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="O89" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="P89" s="1"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B90" s="1">
         <v>0.99</v>
@@ -3285,7 +3329,7 @@
         <v>0.96</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="J90" s="1">
         <v>0.92</v>
@@ -3310,7 +3354,7 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B91" s="1">
         <v>0.99</v>
@@ -3332,7 +3376,7 @@
         <v>0.96400000000000008</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J91" s="1">
         <v>0.89</v>
@@ -3357,7 +3401,7 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B92" s="1">
         <v>0.89</v>
@@ -3379,7 +3423,7 @@
         <v>0.92599999999999993</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J92" s="1">
         <v>0.86</v>
@@ -3404,7 +3448,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B93" s="1">
         <v>0.99</v>
@@ -3426,7 +3470,7 @@
         <v>0.96400000000000008</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="J93" s="1">
         <v>0.82</v>
@@ -3451,7 +3495,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B94" s="1">
         <v>0.98</v>
@@ -3473,7 +3517,7 @@
         <v>0.95</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J94" s="1">
         <v>0.82</v>
@@ -3498,7 +3542,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B95" s="3">
         <f>AVERAGE(B90:B94)</f>
@@ -3526,7 +3570,7 @@
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J95" s="3">
         <f>AVERAGE(J90:J94)</f>
@@ -3562,7 +3606,7 @@
     </row>
     <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -3572,7 +3616,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J97" s="19"/>
       <c r="K97" s="19"/>
@@ -3587,49 +3631,49 @@
         <v>4</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F98" s="1" t="s">
+      <c r="G98" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="I98" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L98" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="N98" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N98" s="1" t="s">
+      <c r="O98" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="O98" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="P98" s="1"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B99" s="1">
         <v>0.94</v>
@@ -3651,7 +3695,7 @@
         <v>0.85799999999999998</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="J99" s="1">
         <v>0.56999999999999995</v>
@@ -3676,7 +3720,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B100" s="1">
         <v>0.94</v>
@@ -3698,7 +3742,7 @@
         <v>0.85599999999999987</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J100" s="1">
         <v>0.57999999999999996</v>
@@ -3723,7 +3767,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B101" s="1">
         <v>0.93</v>
@@ -3745,7 +3789,7 @@
         <v>0.87800000000000011</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J101" s="1">
         <v>0.59</v>
@@ -3770,7 +3814,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B102" s="1">
         <v>0.96</v>
@@ -3792,7 +3836,7 @@
         <v>0.88400000000000001</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="J102" s="1">
         <v>0.59</v>
@@ -3817,7 +3861,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B103" s="1">
         <v>0.93</v>
@@ -3839,7 +3883,7 @@
         <v>0.85600000000000009</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J103" s="1">
         <v>0.55000000000000004</v>
@@ -3864,7 +3908,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B104" s="3">
         <f>AVERAGE(B99:B103)</f>
@@ -3892,7 +3936,7 @@
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J104" s="3">
         <f>AVERAGE(J99:J103)</f>
@@ -3951,7 +3995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206DC0CC-9E3D-482C-9909-509203E70288}">
   <dimension ref="A5:O79"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
@@ -3966,27 +4010,27 @@
   <sheetData>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="F5" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="17">
         <v>0.91500000000000004</v>
@@ -3995,10 +4039,10 @@
         <v>0.88800000000000001</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="17">
         <v>0.65700000000000003</v>
@@ -4009,7 +4053,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="17">
         <v>0.90200000000000002</v>
@@ -4018,7 +4062,7 @@
         <v>0.86699999999999999</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="17">
         <v>0.73599999999999999</v>
@@ -4029,7 +4073,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="17">
         <v>0.89600000000000002</v>
@@ -4038,7 +4082,7 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="17">
         <v>0.72299999999999998</v>
@@ -4049,7 +4093,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="17">
         <v>0.53300000000000003</v>
@@ -4058,7 +4102,7 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="17">
         <v>0.42099999999999999</v>
@@ -4069,7 +4113,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="17">
         <v>0.246</v>
@@ -4078,7 +4122,7 @@
         <v>0.52700000000000002</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="17">
         <v>0.26800000000000002</v>
@@ -4089,35 +4133,35 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="F15" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="17">
         <v>0.96599999999999997</v>
@@ -4126,7 +4170,7 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="17">
         <v>0.58799999999999997</v>
@@ -4137,7 +4181,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="17">
         <v>0.83799999999999997</v>
@@ -4146,7 +4190,7 @@
         <v>0.95299999999999996</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" s="17">
         <v>0.49199999999999999</v>
@@ -4157,7 +4201,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="17">
         <v>0.879</v>
@@ -4166,7 +4210,7 @@
         <v>0.66200000000000003</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F18" s="17">
         <v>0.64700000000000002</v>
@@ -4177,7 +4221,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="17">
         <v>0.89600000000000002</v>
@@ -4186,7 +4230,7 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" s="17">
         <v>0.47699999999999998</v>
@@ -4197,7 +4241,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="17">
         <v>0.84299999999999997</v>
@@ -4206,7 +4250,7 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" s="17">
         <v>0.44800000000000001</v>
@@ -4217,59 +4261,59 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="J26" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="N26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="O26" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="17">
         <v>1</v>
@@ -4290,7 +4334,7 @@
         <v>0.97200000000000009</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J27" s="17">
         <v>0.44</v>
@@ -4313,7 +4357,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="17">
         <v>0.68</v>
@@ -4334,7 +4378,7 @@
         <v>0.80999999999999994</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J28" s="17">
         <v>0.25</v>
@@ -4357,7 +4401,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="17">
         <v>0.91</v>
@@ -4378,7 +4422,7 @@
         <v>0.84000000000000008</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J29" s="17">
         <v>0.76</v>
@@ -4401,7 +4445,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" s="17">
         <v>0.41</v>
@@ -4422,7 +4466,7 @@
         <v>0.76999999999999991</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J30" s="17">
         <v>0.05</v>
@@ -4445,7 +4489,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" s="17">
         <v>0.99</v>
@@ -4466,7 +4510,7 @@
         <v>0.95</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J31" s="17">
         <v>0.76</v>
@@ -4489,7 +4533,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" s="17">
         <v>0.79800000000000004</v>
@@ -4510,7 +4554,7 @@
         <v>0.86839999999999995</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J32" s="17">
         <v>0.45199999999999996</v>
@@ -4533,59 +4577,59 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="F35" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="G35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="J35" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K35" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="N35" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="M35" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="O35" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" s="17">
         <v>0.86</v>
@@ -4606,7 +4650,7 @@
         <v>0.83999999999999986</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J36" s="17">
         <v>0.71</v>
@@ -4629,7 +4673,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="17">
         <v>0.94</v>
@@ -4650,7 +4694,7 @@
         <v>0.91400000000000003</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J37" s="17">
         <v>0.85</v>
@@ -4673,7 +4717,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" s="17">
         <v>0.92</v>
@@ -4694,7 +4738,7 @@
         <v>0.68399999999999994</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J38" s="17">
         <v>0.54</v>
@@ -4717,7 +4761,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" s="17">
         <v>1</v>
@@ -4738,7 +4782,7 @@
         <v>0.99199999999999999</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J39" s="17">
         <v>0.73</v>
@@ -4761,7 +4805,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B40" s="17">
         <v>0.99</v>
@@ -4782,7 +4826,7 @@
         <v>0.97200000000000009</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J40" s="17">
         <v>0.7</v>
@@ -4805,7 +4849,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" s="17">
         <v>0.94199999999999995</v>
@@ -4826,7 +4870,7 @@
         <v>0.88040000000000007</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J41" s="17">
         <v>0.70600000000000007</v>
@@ -4849,59 +4893,59 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B48" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="J48" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="N48" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J48" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K48" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L48" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M48" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N48" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="O48" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B49" s="17">
         <v>0.92</v>
@@ -4922,7 +4966,7 @@
         <v>0.874</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J49" s="17">
         <v>0.1</v>
@@ -4945,7 +4989,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B50" s="17">
         <v>0.98</v>
@@ -4966,7 +5010,7 @@
         <v>0.90599999999999992</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J50" s="17">
         <v>0.01</v>
@@ -4989,7 +5033,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B51" s="17">
         <v>0.85</v>
@@ -5010,7 +5054,7 @@
         <v>0.67800000000000005</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J51" s="17">
         <v>0</v>
@@ -5033,7 +5077,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B52" s="17">
         <v>0.83</v>
@@ -5054,7 +5098,7 @@
         <v>0.79200000000000004</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J52" s="17">
         <v>0.15</v>
@@ -5077,7 +5121,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" s="17">
         <v>0.89500000000000002</v>
@@ -5098,7 +5142,7 @@
         <v>0.8125</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J53" s="17">
         <v>6.5000000000000002E-2</v>
@@ -5121,59 +5165,59 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C56" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="F56" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="G56" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I56" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="J56" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K56" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L56" s="17" t="s">
+      <c r="N56" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="M56" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N56" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="O56" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B57" s="17">
         <v>0.71</v>
@@ -5194,7 +5238,7 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J57" s="17">
         <v>0.09</v>
@@ -5217,7 +5261,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B58" s="17">
         <v>0.79</v>
@@ -5238,7 +5282,7 @@
         <v>0.77</v>
       </c>
       <c r="I58" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J58" s="17">
         <v>0.22</v>
@@ -5261,7 +5305,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B59" s="17">
         <v>0.74</v>
@@ -5282,7 +5326,7 @@
         <v>0.57599999999999996</v>
       </c>
       <c r="I59" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J59" s="17">
         <v>0.21</v>
@@ -5305,7 +5349,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B60" s="17">
         <v>0.84</v>
@@ -5326,7 +5370,7 @@
         <v>0.73</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J60" s="17">
         <v>0.23</v>
@@ -5349,7 +5393,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B61" s="17">
         <v>0.77</v>
@@ -5370,7 +5414,7 @@
         <v>0.70299999999999996</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J61" s="17">
         <v>0.1875</v>
@@ -5393,59 +5437,59 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B64" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="J64" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="N64" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J64" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K64" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L64" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M64" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N64" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="O64" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B65" s="17">
         <v>0.99</v>
@@ -5466,7 +5510,7 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J65" s="17">
         <v>0.74</v>
@@ -5489,7 +5533,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B66" s="17">
         <v>0.99</v>
@@ -5510,7 +5554,7 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J66" s="17">
         <v>0.75</v>
@@ -5533,7 +5577,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B67" s="17">
         <v>0.99</v>
@@ -5554,7 +5598,7 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J67" s="17">
         <v>0.67</v>
@@ -5577,7 +5621,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B68" s="17">
         <v>0.99</v>
@@ -5598,7 +5642,7 @@
         <v>0.97800000000000009</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J68" s="17">
         <v>0.72</v>
@@ -5621,7 +5665,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B69" s="17">
         <v>0.99</v>
@@ -5642,7 +5686,7 @@
         <v>0.95</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J69" s="17">
         <v>0.76</v>
@@ -5665,7 +5709,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B70" s="17">
         <v>0.99</v>
@@ -5686,7 +5730,7 @@
         <v>0.97320000000000007</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J70" s="17">
         <v>0.72799999999999998</v>
@@ -5709,59 +5753,59 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C73" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="F73" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="G73" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I73" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="J73" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K73" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L73" s="17" t="s">
+      <c r="N73" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="M73" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="O73" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B74" s="17">
         <v>0.99</v>
@@ -5782,7 +5826,7 @@
         <v>0.93799999999999994</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J74" s="17">
         <v>0.71</v>
@@ -5805,7 +5849,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B75" s="17">
         <v>0.99</v>
@@ -5826,7 +5870,7 @@
         <v>0.94800000000000006</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J75" s="17">
         <v>0.71</v>
@@ -5849,7 +5893,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B76" s="17">
         <v>0.98</v>
@@ -5870,7 +5914,7 @@
         <v>0.92800000000000016</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J76" s="17">
         <v>0.53</v>
@@ -5893,7 +5937,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B77" s="17">
         <v>0.97</v>
@@ -5914,7 +5958,7 @@
         <v>0.94400000000000017</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J77" s="17">
         <v>0.65</v>
@@ -5937,7 +5981,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B78" s="17">
         <v>0.99</v>
@@ -5958,7 +6002,7 @@
         <v>0.97200000000000009</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J78" s="17">
         <v>0.7</v>
@@ -5981,7 +6025,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B79" s="17">
         <v>0.98399999999999999</v>
@@ -6002,7 +6046,7 @@
         <v>0.94600000000000006</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J79" s="17">
         <v>0.65999999999999992</v>
@@ -6030,6 +6074,3150 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1A7681-3E06-4973-ADD7-FEAE4E6A3E93}">
+  <dimension ref="A5:W104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="6" customWidth="1"/>
+    <col min="2" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="20.875" style="6" customWidth="1"/>
+    <col min="10" max="11" width="9" style="1"/>
+    <col min="12" max="13" width="9" style="6"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.246</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.879</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.77200000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C21" s="4"/>
+      <c r="E21" s="6"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="12"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.93399999999999994</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="L27" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N27" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.58200000000000007</v>
+      </c>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.45600000000000007</v>
+      </c>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.76999999999999991</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0.74600000000000011</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.79400000000000015</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.84800000000000009</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.77399999999999991</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.90399999999999991</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.70600000000000007</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.56600000000000006</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.43800000000000006</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0.45599999999999996</v>
+      </c>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.68399999999999994</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.97200000000000009</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.97200000000000009</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.86680000000000013</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0.59600000000000009</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0.89399999999999991</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0.62759999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="11"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="11"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G49" s="3">
+        <f>AVERAGE(B49:F49)</f>
+        <v>0.874</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="O49" s="4">
+        <f>AVERAGE(J49:N49)</f>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="P49" s="4"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" ref="G50:G53" si="0">AVERAGE(B50:F50)</f>
+        <v>0.90599999999999992</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O50" s="4">
+        <f t="shared" ref="O50:O53" si="1">AVERAGE(J50:N50)</f>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="P50" s="4"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="0"/>
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="O51" s="4">
+        <f t="shared" si="1"/>
+        <v>0.23200000000000004</v>
+      </c>
+      <c r="P51" s="3"/>
+      <c r="S51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="0"/>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="O52" s="4">
+        <f t="shared" si="1"/>
+        <v>0.252</v>
+      </c>
+      <c r="P52" s="3"/>
+      <c r="R52" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S52" s="6">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="T52" s="6">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="U52" s="6">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="V52" s="6">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="W52" s="6">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="3">
+        <f>AVERAGE(B49:B52)</f>
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" ref="C53:F53" si="2">AVERAGE(C49:C52)</f>
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="2"/>
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="2"/>
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J53" s="3">
+        <f>AVERAGE(J49:J52)</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K53" s="3">
+        <f t="shared" ref="K53:N53" si="3">AVERAGE(K49:K52)</f>
+        <v>0.495</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" si="3"/>
+        <v>0.37250000000000005</v>
+      </c>
+      <c r="M53" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1075</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" si="3"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="O53" s="4">
+        <f t="shared" si="1"/>
+        <v>0.22549999999999998</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M58" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0.372</v>
+      </c>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.5475000000000001</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.4425</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0.91499999999999992</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="M61" s="3">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0.75750000000000006</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0.36950000000000005</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="7"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="7"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="11"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="11"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" s="7"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P68" s="1"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
+        <f>AVERAGE(B69:F69)</f>
+        <v>0.91200000000000014</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J69" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="K69" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="L69" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="M69" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="N69" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="O69" s="4">
+        <f>AVERAGE(J69:N69)</f>
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="P69" s="4"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" ref="G70:G72" si="4">AVERAGE(B70:F70)</f>
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="O70" s="4">
+        <f t="shared" ref="O70:O72" si="5">AVERAGE(J70:N70)</f>
+        <v>0.65399999999999991</v>
+      </c>
+      <c r="P70" s="4"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="4"/>
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="O71" s="4">
+        <f t="shared" si="5"/>
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="3">
+        <f>AVERAGE(B69:B71)</f>
+        <v>0.95666666666666667</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" ref="C72:F72" si="6">AVERAGE(C69:C71)</f>
+        <v>0.9966666666666667</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="6"/>
+        <v>0.85666666666666658</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="4"/>
+        <v>0.93866666666666665</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J72" s="3">
+        <f>AVERAGE(J69:J71)</f>
+        <v>0.69666666666666666</v>
+      </c>
+      <c r="K72" s="3">
+        <f t="shared" ref="K72:N72" si="7">AVERAGE(K69:K71)</f>
+        <v>0.87000000000000011</v>
+      </c>
+      <c r="L72" s="3">
+        <f t="shared" si="7"/>
+        <v>0.70666666666666667</v>
+      </c>
+      <c r="M72" s="3">
+        <f t="shared" si="7"/>
+        <v>0.29333333333333339</v>
+      </c>
+      <c r="N72" s="3">
+        <f t="shared" si="7"/>
+        <v>0.93</v>
+      </c>
+      <c r="O72" s="4">
+        <f t="shared" si="5"/>
+        <v>0.69933333333333336</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P75" s="1"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G76" s="3">
+        <f>AVERAGE(B76:F76)</f>
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="O76" s="4">
+        <f>AVERAGE(J76:N76)</f>
+        <v>0.65</v>
+      </c>
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" ref="G77:G79" si="8">AVERAGE(B77:F77)</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="O77" s="4">
+        <f t="shared" ref="O77:O79" si="9">AVERAGE(J77:N77)</f>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="8"/>
+        <v>0.89599999999999991</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="M78" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="O78" s="4">
+        <f t="shared" si="9"/>
+        <v>0.6180000000000001</v>
+      </c>
+      <c r="P78" s="1"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="3">
+        <f>AVERAGE(B76:B78)</f>
+        <v>0.95333333333333325</v>
+      </c>
+      <c r="C79" s="3">
+        <f t="shared" ref="C79:F79" si="10">AVERAGE(C76:C78)</f>
+        <v>0.9966666666666667</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" si="10"/>
+        <v>0.82333333333333325</v>
+      </c>
+      <c r="E79" s="3">
+        <f t="shared" si="10"/>
+        <v>0.82333333333333325</v>
+      </c>
+      <c r="F79" s="3">
+        <f t="shared" si="10"/>
+        <v>0.98999999999999988</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="8"/>
+        <v>0.91733333333333333</v>
+      </c>
+      <c r="H79" s="3"/>
+      <c r="I79" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J79" s="3">
+        <f>AVERAGE(J76:J78)</f>
+        <v>0.59666666666666668</v>
+      </c>
+      <c r="K79" s="3">
+        <f t="shared" ref="K79:N79" si="11">AVERAGE(K76:K78)</f>
+        <v>0.81</v>
+      </c>
+      <c r="L79" s="3">
+        <f t="shared" si="11"/>
+        <v>0.58666666666666667</v>
+      </c>
+      <c r="M79" s="3">
+        <f t="shared" si="11"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="N79" s="3">
+        <f t="shared" si="11"/>
+        <v>0.97000000000000008</v>
+      </c>
+      <c r="O79" s="4">
+        <f t="shared" si="9"/>
+        <v>0.6193333333333334</v>
+      </c>
+      <c r="P79" s="3"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80" s="7"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81" s="7"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82" s="7"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83" s="7"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84" s="11"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="11"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85" s="11"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="11"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" s="7"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="O90" s="1">
+        <v>0.82199999999999984</v>
+      </c>
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0.96400000000000008</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="L91" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="P91" s="1"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0.92599999999999993</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="M92" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="O92" s="1">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0.96400000000000008</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="O93" s="1">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="O94" s="1">
+        <v>0.79799999999999993</v>
+      </c>
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0.92599999999999993</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.87800000000000011</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0.95280000000000009</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J95" s="3">
+        <v>0.86199999999999988</v>
+      </c>
+      <c r="K95" s="3">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="L95" s="3">
+        <v>0.60600000000000009</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="N95" s="3">
+        <v>0.97199999999999986</v>
+      </c>
+      <c r="O95" s="3">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+    </row>
+    <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O98" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P98" s="1"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="M99" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="N99" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="O99" s="1">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="P99" s="1"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0.85599999999999987</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="L100" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="M100" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="N100" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="O100" s="1">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="P100" s="1"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0.87800000000000011</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="L101" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="M101" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="N101" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="O101" s="1">
+        <v>0.62600000000000011</v>
+      </c>
+      <c r="P101" s="1"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="M102" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="N102" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="O102" s="1">
+        <v>0.62600000000000011</v>
+      </c>
+      <c r="P102" s="1"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0.85600000000000009</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="L103" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="M103" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="N103" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="O103" s="1">
+        <v>0.59800000000000009</v>
+      </c>
+      <c r="P103" s="1"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.94800000000000006</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0.81600000000000006</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="H104" s="3"/>
+      <c r="I104" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J104" s="3">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="K104" s="3">
+        <v>0.85399999999999987</v>
+      </c>
+      <c r="L104" s="3">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="M104" s="3">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="N104" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="O104" s="3">
+        <v>0.61520000000000008</v>
+      </c>
+      <c r="P104" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="I74:N74"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="I88:N88"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="I97:N97"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="I67:N67"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="I34:N34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ACDE61-1CA3-427F-95EF-757CDFBD1DD6}">
   <dimension ref="A3:E8"/>
   <sheetViews>
@@ -6044,21 +9232,21 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0.69</v>
@@ -6075,7 +9263,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>0.73</v>
@@ -6092,7 +9280,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>0.68</v>
@@ -6109,7 +9297,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>0.73</v>
@@ -6126,7 +9314,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>0.78</v>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00BC55B-CF04-469F-8BE2-4A8B4BB6681C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92397F76-59A7-48B8-9E2B-1BB5D861919B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9630" yWindow="1620" windowWidth="16335" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="92">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3966,6 +3966,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="I74:N74"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="I97:N97"/>
+    <mergeCell ref="I88:N88"/>
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="A67:F67"/>
     <mergeCell ref="I67:N67"/>
     <mergeCell ref="A14:D14"/>
@@ -3978,12 +3984,6 @@
     <mergeCell ref="I25:N25"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="I34:N34"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="I74:N74"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="I97:N97"/>
-    <mergeCell ref="I88:N88"/>
-    <mergeCell ref="A88:F88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6075,10 +6075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1A7681-3E06-4973-ADD7-FEAE4E6A3E93}">
-  <dimension ref="A5:W104"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="O71" sqref="J71:O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8580,7 +8580,7 @@
         <v>78</v>
       </c>
       <c r="B90" s="1">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="C90" s="1">
         <v>0.99</v>
@@ -8589,34 +8589,36 @@
         <v>0.92</v>
       </c>
       <c r="E90" s="1">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
       </c>
       <c r="G90" s="3">
-        <v>0.96</v>
+        <f>AVERAGE(B90:F90)</f>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>78</v>
       </c>
       <c r="J90" s="1">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="K90" s="1">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="L90" s="1">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="M90" s="1">
-        <v>0.71</v>
+        <v>0.62</v>
       </c>
       <c r="N90" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="O90" s="1">
-        <v>0.82199999999999984</v>
+        <v>0.88</v>
+      </c>
+      <c r="O90" s="4">
+        <f>AVERAGE(J90:N90)</f>
+        <v>0.77400000000000002</v>
       </c>
       <c r="P90" s="1"/>
     </row>
@@ -8625,7 +8627,7 @@
         <v>27</v>
       </c>
       <c r="B91" s="1">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="C91" s="1">
         <v>0.99</v>
@@ -8634,34 +8636,36 @@
         <v>0.93</v>
       </c>
       <c r="E91" s="1">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F91" s="1">
         <v>1</v>
       </c>
       <c r="G91" s="3">
-        <v>0.96400000000000008</v>
+        <f t="shared" ref="G91:G94" si="12">AVERAGE(B91:F91)</f>
+        <v>0.95600000000000007</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>27</v>
       </c>
       <c r="J91" s="1">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="K91" s="1">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="L91" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.68</v>
       </c>
       <c r="M91" s="1">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="N91" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="O91" s="1">
-        <v>0.82</v>
+        <v>0.84</v>
+      </c>
+      <c r="O91" s="4">
+        <f t="shared" ref="O91:O94" si="13">AVERAGE(J91:N91)</f>
+        <v>0.77600000000000002</v>
       </c>
       <c r="P91" s="1"/>
     </row>
@@ -8670,43 +8674,45 @@
         <v>17</v>
       </c>
       <c r="B92" s="1">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
       </c>
       <c r="D92" s="1">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E92" s="1">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F92" s="1">
         <v>1</v>
       </c>
       <c r="G92" s="3">
-        <v>0.92599999999999993</v>
+        <f t="shared" si="12"/>
+        <v>0.90999999999999992</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J92" s="1">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="K92" s="1">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="L92" s="1">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="M92" s="1">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="N92" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="O92" s="1">
-        <v>0.81799999999999995</v>
+        <v>0.91</v>
+      </c>
+      <c r="O92" s="4">
+        <f t="shared" si="13"/>
+        <v>0.78</v>
       </c>
       <c r="P92" s="1"/>
     </row>
@@ -8721,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="1">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="E93" s="1">
         <v>0.91</v>
@@ -8730,7 +8736,8 @@
         <v>1</v>
       </c>
       <c r="G93" s="3">
-        <v>0.96400000000000008</v>
+        <f t="shared" si="12"/>
+        <v>0.96200000000000008</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>85</v>
@@ -8739,477 +8746,420 @@
         <v>0.82</v>
       </c>
       <c r="K93" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="O93" s="4">
+        <f t="shared" si="13"/>
+        <v>0.79799999999999993</v>
+      </c>
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="3">
+        <f>AVERAGE(B90:B93)</f>
+        <v>0.9524999999999999</v>
+      </c>
+      <c r="C94" s="3">
+        <f>AVERAGE(C90:C93)</f>
+        <v>0.995</v>
+      </c>
+      <c r="D94" s="3">
+        <f>AVERAGE(D90:D93)</f>
+        <v>0.92</v>
+      </c>
+      <c r="E94" s="3">
+        <f>AVERAGE(E90:E93)</f>
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="F94" s="3">
+        <f>AVERAGE(F90:F93)</f>
+        <v>1</v>
+      </c>
+      <c r="G94" s="3">
+        <f>AVERAGE(B94:F94)</f>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="H94" s="3"/>
+      <c r="I94" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J94" s="3">
+        <f>AVERAGE(J90:J93)</f>
+        <v>0.8274999999999999</v>
+      </c>
+      <c r="K94" s="3">
+        <f>AVERAGE(K90:K93)</f>
         <v>0.91</v>
       </c>
-      <c r="L93" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M93" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="N93" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="O93" s="1">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="P93" s="1"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B94" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="D94" s="1">
+      <c r="L94" s="3">
+        <f>AVERAGE(L90:L93)</f>
+        <v>0.69</v>
+      </c>
+      <c r="M94" s="3">
+        <f>AVERAGE(M90:M93)</f>
+        <v>0.61</v>
+      </c>
+      <c r="N94" s="3">
+        <f>AVERAGE(N90:N93)</f>
+        <v>0.87249999999999994</v>
+      </c>
+      <c r="O94" s="4">
+        <f t="shared" si="13"/>
+        <v>0.78199999999999992</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+    </row>
+    <row r="96" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P97" s="1"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" s="1">
         <v>0.92</v>
       </c>
-      <c r="E94" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="F94" s="1">
-        <v>1</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="C98" s="1">
         <v>0.95</v>
       </c>
-      <c r="I94" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J94" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="K94" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="L94" s="1">
+      <c r="D98" s="1">
         <v>0.68</v>
       </c>
-      <c r="M94" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N94" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="O94" s="1">
-        <v>0.79799999999999993</v>
-      </c>
-      <c r="P94" s="1"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B95" s="3">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="C95" s="3">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="D95" s="3">
-        <v>0.92599999999999993</v>
-      </c>
-      <c r="E95" s="3">
-        <v>0.87800000000000011</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-      <c r="G95" s="3">
-        <v>0.95280000000000009</v>
-      </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J95" s="3">
-        <v>0.86199999999999988</v>
-      </c>
-      <c r="K95" s="3">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="L95" s="3">
-        <v>0.60600000000000009</v>
-      </c>
-      <c r="M95" s="3">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="N95" s="3">
-        <v>0.97199999999999986</v>
-      </c>
-      <c r="O95" s="3">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-    </row>
-    <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19"/>
-      <c r="M97" s="19"/>
-      <c r="N97" s="19"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O98" s="7" t="s">
-        <v>80</v>
+      <c r="E98" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3">
+        <f>AVERAGE(B98:F98)</f>
+        <v>0.85600000000000009</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="L98" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="N98" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="O98" s="1">
+        <f>AVERAGE(J98:N98)</f>
+        <v>0.59799999999999998</v>
       </c>
       <c r="P98" s="1"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B99" s="1">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="C99" s="1">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="D99" s="1">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
       <c r="E99" s="1">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="F99" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G99" s="3">
-        <v>0.85799999999999998</v>
+        <f t="shared" ref="G99:G102" si="14">AVERAGE(B99:F99)</f>
+        <v>0.85199999999999998</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="J99" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.75</v>
       </c>
       <c r="K99" s="1">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="L99" s="1">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="M99" s="1">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="N99" s="1">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="O99" s="1">
-        <v>0.61399999999999999</v>
+        <f t="shared" ref="O99:O102" si="15">AVERAGE(J99:N99)</f>
+        <v>0.59199999999999997</v>
       </c>
       <c r="P99" s="1"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B100" s="1">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="C100" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1">
-        <v>0.83</v>
+        <v>0.41</v>
       </c>
       <c r="E100" s="1">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="F100" s="1">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G100" s="3">
-        <v>0.85599999999999987</v>
+        <f t="shared" si="14"/>
+        <v>0.81799999999999995</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J100" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.74</v>
       </c>
       <c r="K100" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="L100" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="M100" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N100" s="1">
         <v>0.84</v>
       </c>
-      <c r="L100" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="M100" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="N100" s="1">
-        <v>0.93</v>
-      </c>
       <c r="O100" s="1">
-        <v>0.61199999999999999</v>
+        <f t="shared" si="15"/>
+        <v>0.85799999999999998</v>
       </c>
       <c r="P100" s="1"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B101" s="1">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="C101" s="1">
         <v>0.98</v>
       </c>
       <c r="D101" s="1">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="E101" s="1">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="F101" s="1">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G101" s="3">
-        <v>0.87800000000000011</v>
+        <f t="shared" si="14"/>
+        <v>0.91799999999999993</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="J101" s="1">
-        <v>0.59</v>
+        <v>0.69</v>
       </c>
       <c r="K101" s="1">
-        <v>0.91</v>
+        <v>0.81</v>
       </c>
       <c r="L101" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="M101" s="1">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="N101" s="1">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="O101" s="1">
-        <v>0.62600000000000011</v>
+        <f t="shared" si="15"/>
+        <v>0.57000000000000006</v>
       </c>
       <c r="P101" s="1"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B102" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="D102" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E102" s="1">
-        <v>0.73</v>
-      </c>
-      <c r="F102" s="1">
-        <v>0.98</v>
+      <c r="A102" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B102" s="3">
+        <f>AVERAGE(B98:B101)</f>
+        <v>0.9375</v>
+      </c>
+      <c r="C102" s="3">
+        <f>AVERAGE(C98:C101)</f>
+        <v>0.97</v>
+      </c>
+      <c r="D102" s="3">
+        <f>AVERAGE(D98:D101)</f>
+        <v>0.65249999999999997</v>
+      </c>
+      <c r="E102" s="3">
+        <f>AVERAGE(E98:E101)</f>
+        <v>0.745</v>
+      </c>
+      <c r="F102" s="3">
+        <f>AVERAGE(F98:F101)</f>
+        <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J102" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="K102" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="L102" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="M102" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="N102" s="1">
-        <v>0.93</v>
+        <f t="shared" si="14"/>
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H102" s="3"/>
+      <c r="I102" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J102" s="3">
+        <f>AVERAGE(J98:J101)</f>
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="K102" s="3">
+        <f>AVERAGE(K98:K101)</f>
+        <v>1.0775000000000001</v>
+      </c>
+      <c r="L102" s="3">
+        <f>AVERAGE(L98:L101)</f>
+        <v>0.41749999999999998</v>
+      </c>
+      <c r="M102" s="3">
+        <f>AVERAGE(M98:M101)</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="N102" s="3">
+        <f>AVERAGE(N98:N101)</f>
+        <v>0.85</v>
       </c>
       <c r="O102" s="1">
-        <v>0.62600000000000011</v>
-      </c>
-      <c r="P102" s="1"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B103" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="D103" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="E103" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="F103" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="G103" s="3">
-        <v>0.85600000000000009</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J103" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K103" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="L103" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="M103" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="N103" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="O103" s="1">
-        <v>0.59800000000000009</v>
-      </c>
-      <c r="P103" s="1"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B104" s="3">
-        <v>0.94000000000000006</v>
-      </c>
-      <c r="C104" s="3">
-        <v>0.94800000000000006</v>
-      </c>
-      <c r="D104" s="3">
-        <v>0.81600000000000006</v>
-      </c>
-      <c r="E104" s="3">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="F104" s="3">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="G104" s="3">
-        <v>0.86639999999999995</v>
-      </c>
-      <c r="H104" s="3"/>
-      <c r="I104" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J104" s="3">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="K104" s="3">
-        <v>0.85399999999999987</v>
-      </c>
-      <c r="L104" s="3">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="M104" s="3">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="N104" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="O104" s="3">
-        <v>0.61520000000000008</v>
-      </c>
-      <c r="P104" s="3"/>
+        <f t="shared" si="15"/>
+        <v>0.65449999999999997</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="I74:N74"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="I88:N88"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="I97:N97"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="I34:N34"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="I47:N47"/>
     <mergeCell ref="A55:F55"/>
     <mergeCell ref="I55:N55"/>
     <mergeCell ref="A67:F67"/>
     <mergeCell ref="I67:N67"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="I74:N74"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="I88:N88"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="I96:N96"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/action_recog_with_function/识别结果.xlsx
+++ b/action_recog_with_function/识别结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488786BB-A1CD-4E0B-AB38-F7C2ABBA85EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3782C012-4120-48F9-9DFC-1FE0F7EB665A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="1620" windowWidth="16335" windowHeight="11280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9630" yWindow="1620" windowWidth="16335" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分类器" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="103">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,14 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Incepiton-CNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MFF-CNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>action0</t>
   </si>
   <si>
@@ -363,9 +355,6 @@
   </si>
   <si>
     <t>MyCNN</t>
-  </si>
-  <si>
-    <t>Simple-Incepiton</t>
   </si>
   <si>
     <t>加速度+角速度(6轴)</t>
@@ -389,6 +378,17 @@
   </si>
   <si>
     <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D Incepiton-CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D Incepiton-CNN</t>
+  </si>
+  <si>
+    <t>1D Incepiton-CNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -519,12 +519,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -536,6 +530,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2194,7 +2200,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3040,7 +3045,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4850,7 +4854,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -9499,16 +9502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>73997</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>11103</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>45422</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>68253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>164214</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>135639</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10018,17 +10021,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
@@ -10193,24 +10196,24 @@
       <c r="O23" s="11"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
@@ -10560,24 +10563,24 @@
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
@@ -10958,24 +10961,24 @@
       <c r="O44" s="11"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="19" t="s">
+      <c r="I47" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
     </row>
@@ -11281,24 +11284,24 @@
       <c r="P54" s="1"/>
     </row>
     <row r="55" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="19" t="s">
+      <c r="I55" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
     </row>
@@ -11679,24 +11682,24 @@
       <c r="P66" s="3"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="19" t="s">
+      <c r="I67" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
     </row>
@@ -11954,24 +11957,24 @@
       <c r="P73" s="1"/>
     </row>
     <row r="74" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="19" t="s">
+      <c r="I74" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
     </row>
@@ -12345,24 +12348,24 @@
       <c r="P87" s="1"/>
     </row>
     <row r="88" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
-      <c r="I88" s="19" t="s">
+      <c r="I88" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
     </row>
@@ -12711,24 +12714,24 @@
       <c r="P96" s="1"/>
     </row>
     <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="19" t="s">
+      <c r="I97" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19"/>
-      <c r="M97" s="19"/>
-      <c r="N97" s="19"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="25"/>
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
     </row>
@@ -15181,10 +15184,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1A7681-3E06-4973-ADD7-FEAE4E6A3E93}">
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:W103"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B79" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15327,17 +15330,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
@@ -15502,24 +15505,24 @@
       <c r="O23" s="11"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
@@ -15847,24 +15850,24 @@
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
@@ -16223,24 +16226,24 @@
       <c r="O44" s="11"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="19" t="s">
+      <c r="I47" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
     </row>
@@ -16579,24 +16582,24 @@
       <c r="P54" s="1"/>
     </row>
     <row r="55" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="19" t="s">
+      <c r="I55" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
     </row>
@@ -16957,20 +16960,20 @@
       <c r="P66" s="3"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
     </row>
@@ -16993,7 +16996,7 @@
       <c r="F68" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="3" t="s">
         <v>80</v>
       </c>
       <c r="I68" s="1" t="s">
@@ -17014,13 +17017,13 @@
       <c r="N68" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O68" s="7" t="s">
+      <c r="O68" s="4" t="s">
         <v>80</v>
       </c>
       <c r="P68" s="1"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B69" s="1">
@@ -17043,7 +17046,7 @@
         <v>0.91200000000000014</v>
       </c>
       <c r="H69" s="4"/>
-      <c r="I69" s="6" t="s">
+      <c r="I69" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J69" s="10">
@@ -17068,8 +17071,8 @@
       <c r="P69" s="4"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>90</v>
+      <c r="A70" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="B70" s="1">
         <v>0.91</v>
@@ -17087,12 +17090,12 @@
         <v>1</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" ref="G70:G72" si="4">AVERAGE(B70:F70)</f>
+        <f t="shared" ref="G70:G71" si="4">AVERAGE(B70:F70)</f>
         <v>0.95199999999999996</v>
       </c>
       <c r="H70" s="4"/>
-      <c r="I70" s="6" t="s">
-        <v>90</v>
+      <c r="I70" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="J70" s="1">
         <v>0.64</v>
@@ -17110,417 +17113,488 @@
         <v>0.99</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" ref="O70:O72" si="5">AVERAGE(J70:N70)</f>
+        <f t="shared" ref="O70:O71" si="5">AVERAGE(J70:N70)</f>
         <v>0.65399999999999991</v>
       </c>
       <c r="P70" s="4"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="A71" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="21">
+        <v>0.94</v>
+      </c>
+      <c r="C71" s="21">
+        <v>0.98</v>
+      </c>
+      <c r="D71" s="21">
         <v>0.93</v>
       </c>
-      <c r="E71" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1</v>
+      <c r="E71" s="21">
+        <v>0.81</v>
+      </c>
+      <c r="F71" s="21">
+        <v>0.97</v>
       </c>
       <c r="G71" s="3">
         <f t="shared" si="4"/>
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J71" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="K71" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="L71" s="1">
+        <v>0.92599999999999993</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J71" s="24">
         <v>0.68</v>
       </c>
-      <c r="M71" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N71" s="1">
+      <c r="K71" s="24">
         <v>0.89</v>
+      </c>
+      <c r="L71" s="24">
+        <v>0.53</v>
+      </c>
+      <c r="M71" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="N71" s="24">
+        <v>0.92</v>
       </c>
       <c r="O71" s="4">
         <f t="shared" si="5"/>
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
+        <f>AVERAGE(B72:F72)</f>
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="O72" s="4">
+        <f>AVERAGE(J72:N72)</f>
         <v>0.77800000000000002</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="3">
-        <f>AVERAGE(B69:B71)</f>
-        <v>0.95666666666666667</v>
-      </c>
-      <c r="C72" s="3">
-        <f t="shared" ref="C72:F72" si="6">AVERAGE(C69:C71)</f>
-        <v>0.9966666666666667</v>
-      </c>
-      <c r="D72" s="3">
-        <f t="shared" si="6"/>
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="E72" s="3">
-        <f t="shared" si="6"/>
-        <v>0.85666666666666658</v>
-      </c>
-      <c r="F72" s="3">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G72" s="3">
-        <f t="shared" si="4"/>
-        <v>0.93866666666666665</v>
-      </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="7" t="s">
+      <c r="B73" s="3">
+        <f>AVERAGE(B69:B72)</f>
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="C73" s="3">
+        <f>AVERAGE(C69:C72)</f>
+        <v>0.99249999999999994</v>
+      </c>
+      <c r="D73" s="3">
+        <f>AVERAGE(D69:D72)</f>
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="E73" s="3">
+        <f>AVERAGE(E69:E72)</f>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="F73" s="3">
+        <f>AVERAGE(F69:F72)</f>
+        <v>0.99249999999999994</v>
+      </c>
+      <c r="G73" s="3">
+        <f>AVERAGE(B73:F73)</f>
+        <v>0.93549999999999989</v>
+      </c>
+      <c r="H73" s="3"/>
+      <c r="I73" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J72" s="3">
-        <f>AVERAGE(J69:J71)</f>
-        <v>0.69666666666666666</v>
-      </c>
-      <c r="K72" s="3">
-        <f t="shared" ref="K72:N72" si="7">AVERAGE(K69:K71)</f>
-        <v>0.87000000000000011</v>
-      </c>
-      <c r="L72" s="3">
-        <f t="shared" si="7"/>
-        <v>0.70666666666666667</v>
-      </c>
-      <c r="M72" s="3">
-        <f t="shared" si="7"/>
-        <v>0.29333333333333339</v>
-      </c>
-      <c r="N72" s="3">
-        <f t="shared" si="7"/>
-        <v>0.93</v>
-      </c>
-      <c r="O72" s="4">
-        <f t="shared" si="5"/>
-        <v>0.69933333333333336</v>
-      </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="O73" s="1"/>
+      <c r="J73" s="3">
+        <f>AVERAGE(J69:J72)</f>
+        <v>0.6925</v>
+      </c>
+      <c r="K73" s="3">
+        <f>AVERAGE(K69:K72)</f>
+        <v>0.87500000000000011</v>
+      </c>
+      <c r="L73" s="3">
+        <f>AVERAGE(L69:L72)</f>
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="M73" s="3">
+        <f>AVERAGE(M69:M72)</f>
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="N73" s="3">
+        <f>AVERAGE(N69:N72)</f>
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="O73" s="4">
+        <f>AVERAGE(J73:N73)</f>
+        <v>0.68599999999999994</v>
+      </c>
       <c r="P73" s="1"/>
     </row>
-    <row r="74" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G76" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J76" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="K76" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="M76" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="N76" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O75" s="7" t="s">
+      <c r="O76" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P75" s="1"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B77" s="1">
         <v>0.95</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="E76" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="F76" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="G76" s="3">
-        <f>AVERAGE(B76:F76)</f>
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J76" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="K76" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="L76" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="M76" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="N76" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="O76" s="4">
-        <f>AVERAGE(J76:N76)</f>
-        <v>0.65</v>
-      </c>
-      <c r="P76" s="1"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="1">
-        <v>0.98</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="E77" s="1">
-        <v>0.86</v>
+        <v>0.81</v>
       </c>
       <c r="F77" s="1">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" ref="G77:G79" si="8">AVERAGE(B77:F77)</f>
-        <v>0.94000000000000006</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>75</v>
+        <f>AVERAGE(B77:F77)</f>
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="J77" s="1">
-        <v>0.39</v>
+        <v>0.66</v>
       </c>
       <c r="K77" s="1">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="L77" s="1">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="M77" s="1">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="N77" s="1">
         <v>0.99</v>
       </c>
       <c r="O77" s="4">
-        <f t="shared" ref="O77:O79" si="9">AVERAGE(J77:N77)</f>
+        <f>AVERAGE(J77:N77)</f>
+        <v>0.65</v>
+      </c>
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" ref="G78:G79" si="6">AVERAGE(B78:F78)</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="I78" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="O78" s="4">
+        <f t="shared" ref="O78:O79" si="7">AVERAGE(J78:N78)</f>
         <v>0.59000000000000008</v>
       </c>
-      <c r="P77" s="1"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="1">
+      <c r="P78" s="1"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="21">
+        <v>0.94</v>
+      </c>
+      <c r="C79" s="21">
+        <v>0.96</v>
+      </c>
+      <c r="D79" s="21">
+        <v>0.65</v>
+      </c>
+      <c r="E79" s="21">
+        <v>0.71</v>
+      </c>
+      <c r="F79" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="6"/>
+        <v>0.85</v>
+      </c>
+      <c r="I79" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J79" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="K79" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="L79" s="21">
+        <v>0.32</v>
+      </c>
+      <c r="M79" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N79" s="21">
+        <v>0.89</v>
+      </c>
+      <c r="O79" s="4">
+        <f t="shared" si="7"/>
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="P79" s="1"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="1">
         <v>0.93</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C80" s="1">
         <v>0.99</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D80" s="1">
         <v>0.76</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E80" s="1">
         <v>0.8</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F80" s="1">
         <v>1</v>
       </c>
-      <c r="G78" s="3">
-        <f t="shared" si="8"/>
+      <c r="G80" s="3">
+        <f>AVERAGE(B80:F80)</f>
         <v>0.89599999999999991</v>
       </c>
-      <c r="I78" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J78" s="1">
+      <c r="I80" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="J80" s="1">
         <v>0.74</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K80" s="1">
         <v>0.9</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L80" s="1">
         <v>0.45</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M80" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N78" s="1">
+      <c r="N80" s="1">
         <v>0.93</v>
       </c>
-      <c r="O78" s="4">
-        <f t="shared" si="9"/>
+      <c r="O80" s="4">
+        <f>AVERAGE(J80:N80)</f>
         <v>0.6180000000000001</v>
       </c>
-      <c r="P78" s="1"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
+      <c r="P80" s="3"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="3">
-        <f>AVERAGE(B76:B78)</f>
-        <v>0.95333333333333325</v>
-      </c>
-      <c r="C79" s="3">
-        <f t="shared" ref="C79:F79" si="10">AVERAGE(C76:C78)</f>
-        <v>0.9966666666666667</v>
-      </c>
-      <c r="D79" s="3">
-        <f t="shared" si="10"/>
-        <v>0.82333333333333325</v>
-      </c>
-      <c r="E79" s="3">
-        <f t="shared" si="10"/>
-        <v>0.82333333333333325</v>
-      </c>
-      <c r="F79" s="3">
-        <f t="shared" si="10"/>
-        <v>0.98999999999999988</v>
-      </c>
-      <c r="G79" s="3">
-        <f t="shared" si="8"/>
-        <v>0.91733333333333333</v>
-      </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="7" t="s">
+      <c r="B81" s="3">
+        <f>AVERAGE(B77:B80)</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="C81" s="3">
+        <f>AVERAGE(C77:C80)</f>
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="D81" s="3">
+        <f>AVERAGE(D77:D80)</f>
+        <v>0.78</v>
+      </c>
+      <c r="E81" s="3">
+        <f>AVERAGE(E77:E80)</f>
+        <v>0.79499999999999993</v>
+      </c>
+      <c r="F81" s="3">
+        <f>AVERAGE(F77:F80)</f>
+        <v>0.99</v>
+      </c>
+      <c r="G81" s="3">
+        <f>AVERAGE(B81:F81)</f>
+        <v>0.90050000000000008</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J79" s="3">
-        <f>AVERAGE(J76:J78)</f>
-        <v>0.59666666666666668</v>
-      </c>
-      <c r="K79" s="3">
-        <f t="shared" ref="K79:N79" si="11">AVERAGE(K76:K78)</f>
-        <v>0.81</v>
-      </c>
-      <c r="L79" s="3">
-        <f t="shared" si="11"/>
-        <v>0.58666666666666667</v>
-      </c>
-      <c r="M79" s="3">
-        <f t="shared" si="11"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="N79" s="3">
-        <f t="shared" si="11"/>
-        <v>0.97000000000000008</v>
-      </c>
-      <c r="O79" s="4">
-        <f t="shared" si="9"/>
-        <v>0.6193333333333334</v>
-      </c>
-      <c r="P79" s="3"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
+      <c r="J81" s="3">
+        <f>AVERAGE(J77:J80)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K81" s="3">
+        <f>AVERAGE(K77:K80)</f>
+        <v>0.82</v>
+      </c>
+      <c r="L81" s="3">
+        <f>AVERAGE(L77:L80)</f>
+        <v>0.52</v>
+      </c>
+      <c r="M81" s="3">
+        <f>AVERAGE(M77:M80)</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="N81" s="3">
+        <f>AVERAGE(N77:N80)</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="O81" s="4">
+        <f>AVERAGE(J81:N81)</f>
+        <v>0.59500000000000008</v>
+      </c>
       <c r="P81" s="3"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
@@ -17558,21 +17632,21 @@
       <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84" s="11"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="11"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
@@ -17592,145 +17666,115 @@
       <c r="O85" s="11"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="11"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-    </row>
-    <row r="88" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="19" t="s">
+      <c r="A87" s="7"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="19" t="s">
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G90" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="I90" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="K90" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="L90" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="M90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="N90" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O89" s="7" t="s">
+      <c r="O90" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P89" s="1"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B90" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="E90" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="F90" s="1">
-        <v>1</v>
-      </c>
-      <c r="G90" s="3">
-        <f>AVERAGE(B90:F90)</f>
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J90" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="K90" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="L90" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="M90" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="N90" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="O90" s="4">
-        <f>AVERAGE(J90:N90)</f>
-        <v>0.77400000000000002</v>
       </c>
       <c r="P90" s="1"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B91" s="1">
         <v>0.97</v>
@@ -17739,320 +17783,320 @@
         <v>0.99</v>
       </c>
       <c r="D91" s="1">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="E91" s="1">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F91" s="1">
         <v>1</v>
       </c>
       <c r="G91" s="3">
-        <f t="shared" ref="G91:G94" si="12">AVERAGE(B91:F91)</f>
-        <v>0.95600000000000007</v>
+        <f>AVERAGE(B91:F91)</f>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="J91" s="1">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="K91" s="1">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="L91" s="1">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="M91" s="1">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="N91" s="1">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="O91" s="4">
-        <f t="shared" ref="O91:O94" si="13">AVERAGE(J91:N91)</f>
-        <v>0.77600000000000002</v>
+        <f>AVERAGE(J91:N91)</f>
+        <v>0.77400000000000002</v>
       </c>
       <c r="P91" s="1"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B92" s="1">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="C92" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D92" s="1">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="E92" s="1">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F92" s="1">
         <v>1</v>
       </c>
       <c r="G92" s="3">
-        <f t="shared" si="12"/>
-        <v>0.90999999999999992</v>
+        <f t="shared" ref="G92:G94" si="8">AVERAGE(B92:F92)</f>
+        <v>0.95600000000000007</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J92" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="M92" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="N92" s="1">
         <v>0.84</v>
       </c>
-      <c r="K92" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="L92" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="M92" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N92" s="1">
-        <v>0.91</v>
-      </c>
       <c r="O92" s="4">
-        <f t="shared" si="13"/>
-        <v>0.78</v>
+        <f t="shared" ref="O92:O95" si="9">AVERAGE(J92:N92)</f>
+        <v>0.77600000000000002</v>
       </c>
       <c r="P92" s="1"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="B93" s="1">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
       </c>
       <c r="D93" s="1">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E93" s="1">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="F93" s="1">
         <v>1</v>
       </c>
       <c r="G93" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="O93" s="4">
+        <f t="shared" si="9"/>
+        <v>0.78</v>
+      </c>
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3">
+        <f t="shared" si="8"/>
         <v>0.96200000000000008</v>
       </c>
-      <c r="I93" s="6" t="s">
+      <c r="I94" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J94" s="1">
         <v>0.82</v>
       </c>
-      <c r="K93" s="1">
+      <c r="K94" s="1">
         <v>0.9</v>
       </c>
-      <c r="L93" s="1">
+      <c r="L94" s="1">
         <v>0.7</v>
       </c>
-      <c r="M93" s="1">
+      <c r="M94" s="1">
         <v>0.71</v>
       </c>
-      <c r="N93" s="1">
+      <c r="N94" s="1">
         <v>0.86</v>
       </c>
-      <c r="O93" s="4">
-        <f t="shared" si="13"/>
+      <c r="O94" s="4">
+        <f t="shared" si="9"/>
         <v>0.79799999999999993</v>
       </c>
-      <c r="P93" s="1"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="3">
-        <f>AVERAGE(B90:B93)</f>
+      <c r="B95" s="3">
+        <f>AVERAGE(B91:B94)</f>
         <v>0.9524999999999999</v>
       </c>
-      <c r="C94" s="3">
-        <f>AVERAGE(C90:C93)</f>
+      <c r="C95" s="3">
+        <f>AVERAGE(C91:C94)</f>
         <v>0.995</v>
       </c>
-      <c r="D94" s="3">
-        <f>AVERAGE(D90:D93)</f>
+      <c r="D95" s="3">
+        <f>AVERAGE(D91:D94)</f>
         <v>0.92</v>
       </c>
-      <c r="E94" s="3">
-        <f>AVERAGE(E90:E93)</f>
+      <c r="E95" s="3">
+        <f>AVERAGE(E91:E94)</f>
         <v>0.85750000000000004</v>
       </c>
-      <c r="F94" s="3">
-        <f>AVERAGE(F90:F93)</f>
+      <c r="F95" s="3">
+        <f>AVERAGE(F91:F94)</f>
         <v>1</v>
       </c>
-      <c r="G94" s="3">
-        <f>AVERAGE(B94:F94)</f>
+      <c r="G95" s="3">
+        <f>AVERAGE(B95:F95)</f>
         <v>0.94499999999999995</v>
       </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="7" t="s">
+      <c r="H95" s="3"/>
+      <c r="I95" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="J94" s="3">
-        <f>AVERAGE(J90:J93)</f>
+      <c r="J95" s="3">
+        <f>AVERAGE(J91:J94)</f>
         <v>0.8274999999999999</v>
       </c>
-      <c r="K94" s="3">
-        <f>AVERAGE(K90:K93)</f>
+      <c r="K95" s="3">
+        <f>AVERAGE(K91:K94)</f>
         <v>0.91</v>
       </c>
-      <c r="L94" s="3">
-        <f>AVERAGE(L90:L93)</f>
+      <c r="L95" s="3">
+        <f>AVERAGE(L91:L94)</f>
         <v>0.69</v>
       </c>
-      <c r="M94" s="3">
-        <f>AVERAGE(M90:M93)</f>
+      <c r="M95" s="3">
+        <f>AVERAGE(M91:M94)</f>
         <v>0.61</v>
       </c>
-      <c r="N94" s="3">
-        <f>AVERAGE(N90:N93)</f>
+      <c r="N95" s="3">
+        <f>AVERAGE(N91:N94)</f>
         <v>0.87249999999999994</v>
       </c>
-      <c r="O94" s="4">
-        <f t="shared" si="13"/>
+      <c r="O95" s="4">
+        <f t="shared" si="9"/>
         <v>0.78199999999999992</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-    </row>
-    <row r="96" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="s">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+    </row>
+    <row r="97" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="19" t="s">
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19"/>
-      <c r="M96" s="19"/>
-      <c r="N96" s="19"/>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G98" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I98" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="J98" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="K98" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="L98" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N97" s="1" t="s">
+      <c r="N98" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O97" s="7" t="s">
+      <c r="O98" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P97" s="1"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B98" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="C98" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="D98" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="E98" s="1">
-        <v>0.73</v>
-      </c>
-      <c r="F98" s="1">
-        <v>1</v>
-      </c>
-      <c r="G98" s="3">
-        <f>AVERAGE(B98:F98)</f>
-        <v>0.85600000000000009</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J98" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="K98" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="L98" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="M98" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="N98" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="O98" s="1">
-        <f>AVERAGE(J98:N98)</f>
-        <v>0.59799999999999998</v>
       </c>
       <c r="P98" s="1"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B99" s="1">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="C99" s="1">
         <v>0.95</v>
@@ -18061,190 +18105,237 @@
         <v>0.68</v>
       </c>
       <c r="E99" s="1">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="F99" s="1">
         <v>1</v>
       </c>
       <c r="G99" s="3">
-        <f t="shared" ref="G99:G102" si="14">AVERAGE(B99:F99)</f>
-        <v>0.85199999999999998</v>
+        <f>AVERAGE(B99:F99)</f>
+        <v>0.85600000000000009</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="J99" s="1">
         <v>0.75</v>
       </c>
       <c r="K99" s="1">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="L99" s="1">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="M99" s="1">
         <v>0.13</v>
       </c>
       <c r="N99" s="1">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="O99" s="1">
-        <f t="shared" ref="O99:O102" si="15">AVERAGE(J99:N99)</f>
-        <v>0.59199999999999997</v>
+        <f>AVERAGE(J99:N99)</f>
+        <v>0.59799999999999998</v>
       </c>
       <c r="P99" s="1"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B100" s="1">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="C100" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D100" s="1">
-        <v>0.41</v>
+        <v>0.68</v>
       </c>
       <c r="E100" s="1">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="F100" s="1">
         <v>1</v>
       </c>
       <c r="G100" s="3">
-        <f t="shared" si="14"/>
-        <v>0.81799999999999995</v>
+        <f t="shared" ref="G100:G103" si="10">AVERAGE(B100:F100)</f>
+        <v>0.85199999999999998</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J100" s="1">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="K100" s="1">
-        <v>1.89</v>
+        <v>0.8</v>
       </c>
       <c r="L100" s="1">
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
       <c r="M100" s="1">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="N100" s="1">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="O100" s="1">
-        <f t="shared" si="15"/>
-        <v>0.85799999999999998</v>
+        <f t="shared" ref="O100:O103" si="11">AVERAGE(J100:N100)</f>
+        <v>0.59199999999999997</v>
       </c>
       <c r="P100" s="1"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="B101" s="1">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="C101" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D101" s="1">
-        <v>0.84</v>
+        <v>0.41</v>
       </c>
       <c r="E101" s="1">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="F101" s="1">
         <v>1</v>
       </c>
       <c r="G101" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="K101" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="L101" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="M101" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N101" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="O101" s="1">
+        <f t="shared" si="11"/>
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="P101" s="1"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G102" s="3">
+        <f t="shared" si="10"/>
         <v>0.91799999999999993</v>
       </c>
-      <c r="I101" s="6" t="s">
+      <c r="I102" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J101" s="1">
+      <c r="J102" s="1">
         <v>0.69</v>
       </c>
-      <c r="K101" s="1">
+      <c r="K102" s="1">
         <v>0.81</v>
       </c>
-      <c r="L101" s="1">
+      <c r="L102" s="1">
         <v>0.48</v>
       </c>
-      <c r="M101" s="1">
+      <c r="M102" s="1">
         <v>0.02</v>
       </c>
-      <c r="N101" s="1">
+      <c r="N102" s="1">
         <v>0.85</v>
       </c>
-      <c r="O101" s="1">
-        <f t="shared" si="15"/>
+      <c r="O102" s="1">
+        <f t="shared" si="11"/>
         <v>0.57000000000000006</v>
       </c>
-      <c r="P101" s="1"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A102" s="7" t="s">
+      <c r="P102" s="1"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B102" s="3">
-        <f>AVERAGE(B98:B101)</f>
+      <c r="B103" s="3">
+        <f>AVERAGE(B99:B102)</f>
         <v>0.9375</v>
       </c>
-      <c r="C102" s="3">
-        <f>AVERAGE(C98:C101)</f>
+      <c r="C103" s="3">
+        <f>AVERAGE(C99:C102)</f>
         <v>0.97</v>
       </c>
-      <c r="D102" s="3">
-        <f>AVERAGE(D98:D101)</f>
+      <c r="D103" s="3">
+        <f>AVERAGE(D99:D102)</f>
         <v>0.65249999999999997</v>
       </c>
-      <c r="E102" s="3">
-        <f>AVERAGE(E98:E101)</f>
+      <c r="E103" s="3">
+        <f>AVERAGE(E99:E102)</f>
         <v>0.745</v>
       </c>
-      <c r="F102" s="3">
-        <f>AVERAGE(F98:F101)</f>
+      <c r="F103" s="3">
+        <f>AVERAGE(F99:F102)</f>
         <v>1</v>
       </c>
-      <c r="G102" s="3">
-        <f t="shared" si="14"/>
+      <c r="G103" s="3">
+        <f t="shared" si="10"/>
         <v>0.86099999999999999</v>
       </c>
-      <c r="H102" s="3"/>
-      <c r="I102" s="7" t="s">
+      <c r="H103" s="3"/>
+      <c r="I103" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="J102" s="3">
-        <f>AVERAGE(J98:J101)</f>
+      <c r="J103" s="3">
+        <f>AVERAGE(J99:J102)</f>
         <v>0.73250000000000004</v>
       </c>
-      <c r="K102" s="3">
-        <f>AVERAGE(K98:K101)</f>
+      <c r="K103" s="3">
+        <f>AVERAGE(K99:K102)</f>
         <v>1.0775000000000001</v>
       </c>
-      <c r="L102" s="3">
-        <f>AVERAGE(L98:L101)</f>
+      <c r="L103" s="3">
+        <f>AVERAGE(L99:L102)</f>
         <v>0.41749999999999998</v>
       </c>
-      <c r="M102" s="3">
-        <f>AVERAGE(M98:M101)</f>
+      <c r="M103" s="3">
+        <f>AVERAGE(M99:M102)</f>
         <v>0.19500000000000001</v>
       </c>
-      <c r="N102" s="3">
-        <f>AVERAGE(N98:N101)</f>
+      <c r="N103" s="3">
+        <f>AVERAGE(N99:N102)</f>
         <v>0.85</v>
       </c>
-      <c r="O102" s="1">
-        <f t="shared" si="15"/>
+      <c r="O103" s="1">
+        <f t="shared" si="11"/>
         <v>0.65449999999999997</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="P103" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -18260,12 +18351,12 @@
     <mergeCell ref="I55:N55"/>
     <mergeCell ref="A67:F67"/>
     <mergeCell ref="I67:N67"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="I74:N74"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="I88:N88"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="I96:N96"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="I75:N75"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="I89:N89"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="I97:N97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18277,14 +18368,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0740187D-D8C8-477B-B180-936D890B9C3F}">
   <dimension ref="A5:AU102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG67" sqref="AG67"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="17" max="17" width="9" style="21"/>
-    <col min="33" max="33" width="9" style="21"/>
+    <col min="17" max="17" width="9" style="19"/>
+    <col min="33" max="33" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -18551,7 +18642,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
         <v>56</v>
@@ -18572,7 +18663,7 @@
         <v>58</v>
       </c>
       <c r="J26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s">
         <v>56</v>
@@ -18867,7 +18958,7 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
@@ -18888,7 +18979,7 @@
         <v>59</v>
       </c>
       <c r="J35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s">
         <v>56</v>
@@ -19172,41 +19263,41 @@
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.2">
       <c r="S46" t="s">
-        <v>99</v>
-      </c>
-      <c r="T46" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="U46" s="23"/>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="23"/>
-      <c r="Z46" s="23"/>
-      <c r="AA46" s="23"/>
-      <c r="AB46" s="23"/>
-      <c r="AC46" s="23"/>
-      <c r="AD46" s="23"/>
-      <c r="AE46" s="23"/>
-      <c r="AF46" s="22"/>
-      <c r="AG46" s="24"/>
+        <v>96</v>
+      </c>
+      <c r="T46" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="27"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="27"/>
+      <c r="AF46" s="20"/>
+      <c r="AG46" s="22"/>
       <c r="AI46" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ46" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK46" s="23"/>
-      <c r="AL46" s="23"/>
-      <c r="AM46" s="23"/>
-      <c r="AN46" s="23"/>
-      <c r="AO46" s="23"/>
-      <c r="AP46" s="23"/>
-      <c r="AQ46" s="23"/>
-      <c r="AR46" s="23"/>
-      <c r="AS46" s="23"/>
-      <c r="AT46" s="23"/>
-      <c r="AU46" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="AJ46" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK46" s="27"/>
+      <c r="AL46" s="27"/>
+      <c r="AM46" s="27"/>
+      <c r="AN46" s="27"/>
+      <c r="AO46" s="27"/>
+      <c r="AP46" s="27"/>
+      <c r="AQ46" s="27"/>
+      <c r="AR46" s="27"/>
+      <c r="AS46" s="27"/>
+      <c r="AT46" s="27"/>
+      <c r="AU46" s="27"/>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -19215,47 +19306,47 @@
       <c r="I47" t="s">
         <v>60</v>
       </c>
-      <c r="T47" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA47" s="23"/>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="23"/>
-      <c r="AE47" s="23"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="24"/>
-      <c r="AJ47" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK47" s="23"/>
-      <c r="AL47" s="23"/>
-      <c r="AM47" s="23"/>
-      <c r="AN47" s="23"/>
-      <c r="AO47" s="23"/>
-      <c r="AP47" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ47" s="23"/>
-      <c r="AR47" s="23"/>
-      <c r="AS47" s="23"/>
-      <c r="AT47" s="23"/>
-      <c r="AU47" s="23"/>
+      <c r="T47" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="27"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="22"/>
+      <c r="AJ47" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK47" s="27"/>
+      <c r="AL47" s="27"/>
+      <c r="AM47" s="27"/>
+      <c r="AN47" s="27"/>
+      <c r="AO47" s="27"/>
+      <c r="AP47" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ47" s="27"/>
+      <c r="AR47" s="27"/>
+      <c r="AS47" s="27"/>
+      <c r="AT47" s="27"/>
+      <c r="AU47" s="27"/>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
         <v>56</v>
@@ -19276,7 +19367,7 @@
         <v>83</v>
       </c>
       <c r="J48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s">
         <v>56</v>
@@ -19294,7 +19385,7 @@
         <v>80</v>
       </c>
       <c r="T48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U48" t="s">
         <v>56</v>
@@ -19312,7 +19403,7 @@
         <v>80</v>
       </c>
       <c r="Z48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA48" t="s">
         <v>56</v>
@@ -19330,7 +19421,7 @@
         <v>80</v>
       </c>
       <c r="AJ48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AK48" t="s">
         <v>56</v>
@@ -19348,7 +19439,7 @@
         <v>80</v>
       </c>
       <c r="AP48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AQ48" t="s">
         <v>56</v>
@@ -19449,7 +19540,7 @@
         <v>0.874</v>
       </c>
       <c r="AF49" s="16"/>
-      <c r="AG49" s="25"/>
+      <c r="AG49" s="23"/>
       <c r="AI49" t="s">
         <v>78</v>
       </c>
@@ -19573,7 +19664,7 @@
         <v>0.90599999999999992</v>
       </c>
       <c r="AF50" s="16"/>
-      <c r="AG50" s="25"/>
+      <c r="AG50" s="23"/>
       <c r="AI50" t="s">
         <v>27</v>
       </c>
@@ -19658,7 +19749,7 @@
         <v>0.23200000000000004</v>
       </c>
       <c r="S51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T51" s="16">
         <v>0.74</v>
@@ -19697,9 +19788,9 @@
         <v>0.67800000000000005</v>
       </c>
       <c r="AF51" s="16"/>
-      <c r="AG51" s="25"/>
+      <c r="AG51" s="23"/>
       <c r="AI51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AJ51" s="16">
         <v>0</v>
@@ -19782,7 +19873,7 @@
         <v>0.252</v>
       </c>
       <c r="S52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T52" s="16">
         <v>0.84</v>
@@ -19821,9 +19912,9 @@
         <v>0.79200000000000004</v>
       </c>
       <c r="AF52" s="16"/>
-      <c r="AG52" s="25"/>
+      <c r="AG52" s="23"/>
       <c r="AI52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AJ52" s="16">
         <v>0.15</v>
@@ -19945,7 +20036,7 @@
         <v>0.8125</v>
       </c>
       <c r="AF53" s="16"/>
-      <c r="AG53" s="25"/>
+      <c r="AG53" s="23"/>
       <c r="AI53" t="s">
         <v>80</v>
       </c>
@@ -19999,7 +20090,7 @@
         <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
         <v>56</v>
@@ -20020,7 +20111,7 @@
         <v>59</v>
       </c>
       <c r="J56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s">
         <v>56</v>
@@ -20263,7 +20354,7 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
         <v>56</v>
@@ -20284,7 +20375,7 @@
         <v>83</v>
       </c>
       <c r="J68" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K68" t="s">
         <v>56</v>
@@ -20302,39 +20393,39 @@
         <v>80</v>
       </c>
       <c r="S68" t="s">
-        <v>99</v>
-      </c>
-      <c r="T68" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="U68" s="23"/>
-      <c r="V68" s="23"/>
-      <c r="W68" s="23"/>
-      <c r="X68" s="23"/>
-      <c r="Y68" s="23"/>
-      <c r="Z68" s="23"/>
-      <c r="AA68" s="23"/>
-      <c r="AB68" s="23"/>
-      <c r="AC68" s="23"/>
-      <c r="AD68" s="23"/>
-      <c r="AE68" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="T68" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="U68" s="27"/>
+      <c r="V68" s="27"/>
+      <c r="W68" s="27"/>
+      <c r="X68" s="27"/>
+      <c r="Y68" s="27"/>
+      <c r="Z68" s="27"/>
+      <c r="AA68" s="27"/>
+      <c r="AB68" s="27"/>
+      <c r="AC68" s="27"/>
+      <c r="AD68" s="27"/>
+      <c r="AE68" s="27"/>
       <c r="AI68" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ68" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK68" s="23"/>
-      <c r="AL68" s="23"/>
-      <c r="AM68" s="23"/>
-      <c r="AN68" s="23"/>
-      <c r="AO68" s="23"/>
-      <c r="AP68" s="23"/>
-      <c r="AQ68" s="23"/>
-      <c r="AR68" s="23"/>
-      <c r="AS68" s="23"/>
-      <c r="AT68" s="23"/>
-      <c r="AU68" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="AJ68" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK68" s="27"/>
+      <c r="AL68" s="27"/>
+      <c r="AM68" s="27"/>
+      <c r="AN68" s="27"/>
+      <c r="AO68" s="27"/>
+      <c r="AP68" s="27"/>
+      <c r="AQ68" s="27"/>
+      <c r="AR68" s="27"/>
+      <c r="AS68" s="27"/>
+      <c r="AT68" s="27"/>
+      <c r="AU68" s="27"/>
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -20379,42 +20470,42 @@
       <c r="O69">
         <v>0.66600000000000004</v>
       </c>
-      <c r="T69" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="U69" s="23"/>
-      <c r="V69" s="23"/>
-      <c r="W69" s="23"/>
-      <c r="X69" s="23"/>
-      <c r="Y69" s="23"/>
-      <c r="Z69" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA69" s="23"/>
-      <c r="AB69" s="23"/>
-      <c r="AC69" s="23"/>
-      <c r="AD69" s="23"/>
-      <c r="AE69" s="23"/>
-      <c r="AJ69" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK69" s="23"/>
-      <c r="AL69" s="23"/>
-      <c r="AM69" s="23"/>
-      <c r="AN69" s="23"/>
-      <c r="AO69" s="23"/>
-      <c r="AP69" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ69" s="23"/>
-      <c r="AR69" s="23"/>
-      <c r="AS69" s="23"/>
-      <c r="AT69" s="23"/>
-      <c r="AU69" s="23"/>
+      <c r="T69" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="U69" s="27"/>
+      <c r="V69" s="27"/>
+      <c r="W69" s="27"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="27"/>
+      <c r="AC69" s="27"/>
+      <c r="AD69" s="27"/>
+      <c r="AE69" s="27"/>
+      <c r="AJ69" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK69" s="27"/>
+      <c r="AL69" s="27"/>
+      <c r="AM69" s="27"/>
+      <c r="AN69" s="27"/>
+      <c r="AO69" s="27"/>
+      <c r="AP69" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ69" s="27"/>
+      <c r="AR69" s="27"/>
+      <c r="AS69" s="27"/>
+      <c r="AT69" s="27"/>
+      <c r="AU69" s="27"/>
     </row>
     <row r="70" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B70">
         <v>0.91</v>
@@ -20435,7 +20526,7 @@
         <v>0.95199999999999996</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J70">
         <v>0.64</v>
@@ -20456,7 +20547,7 @@
         <v>0.65399999999999991</v>
       </c>
       <c r="T70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U70" t="s">
         <v>56</v>
@@ -20474,7 +20565,7 @@
         <v>80</v>
       </c>
       <c r="Z70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA70" t="s">
         <v>56</v>
@@ -20492,7 +20583,7 @@
         <v>80</v>
       </c>
       <c r="AJ70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AK70" t="s">
         <v>56</v>
@@ -20510,7 +20601,7 @@
         <v>80</v>
       </c>
       <c r="AP70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AQ70" t="s">
         <v>56</v>
@@ -20530,46 +20621,46 @@
     </row>
     <row r="71" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B71">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="C71">
         <v>0.99</v>
       </c>
       <c r="D71">
+        <v>0.96</v>
+      </c>
+      <c r="E71">
         <v>0.93</v>
-      </c>
-      <c r="E71">
-        <v>0.88</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="G71">
-        <v>0.95199999999999996</v>
+        <v>0.97199999999999986</v>
       </c>
       <c r="I71" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J71">
-        <v>0.83</v>
+        <v>0.44</v>
       </c>
       <c r="K71">
-        <v>0.93</v>
+        <v>0.72</v>
       </c>
       <c r="L71">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="M71">
-        <v>0.56000000000000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N71">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O71">
-        <v>0.77800000000000002</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="S71" t="s">
         <v>43</v>
@@ -20652,49 +20743,49 @@
     </row>
     <row r="72" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B72">
-        <v>0.95666666666666667</v>
+        <v>0.96</v>
       </c>
       <c r="C72">
-        <v>0.9966666666666667</v>
+        <v>0.99</v>
       </c>
       <c r="D72">
-        <v>0.8833333333333333</v>
+        <v>0.93</v>
       </c>
       <c r="E72">
-        <v>0.85666666666666658</v>
+        <v>0.88</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72">
-        <v>0.93866666666666665</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I72" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J72">
-        <v>0.69666666666666666</v>
+        <v>0.83</v>
       </c>
       <c r="K72">
-        <v>0.87000000000000011</v>
+        <v>0.93</v>
       </c>
       <c r="L72">
-        <v>0.70666666666666667</v>
+        <v>0.68</v>
       </c>
       <c r="M72">
-        <v>0.29333333333333339</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N72">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="O72">
-        <v>0.69933333333333336</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="S72" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T72" s="16">
         <v>0.91</v>
@@ -20733,7 +20824,7 @@
         <v>0.94000000000000006</v>
       </c>
       <c r="AI72" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AJ72" s="16">
         <v>0.39</v>
@@ -20773,8 +20864,50 @@
       </c>
     </row>
     <row r="73" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73">
+        <v>0.95666666666666667</v>
+      </c>
+      <c r="C73">
+        <v>0.9966666666666667</v>
+      </c>
+      <c r="D73">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="E73">
+        <v>0.85666666666666658</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0.93866666666666665</v>
+      </c>
+      <c r="I73" t="s">
+        <v>80</v>
+      </c>
+      <c r="J73">
+        <v>0.69666666666666666</v>
+      </c>
+      <c r="K73">
+        <v>0.87000000000000011</v>
+      </c>
+      <c r="L73">
+        <v>0.70666666666666667</v>
+      </c>
+      <c r="M73">
+        <v>0.29333333333333339</v>
+      </c>
+      <c r="N73">
+        <v>0.93</v>
+      </c>
+      <c r="O73">
+        <v>0.69933333333333336</v>
+      </c>
       <c r="S73" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T73" s="16">
         <v>0.96</v>
@@ -20813,7 +20946,7 @@
         <v>0.89599999999999991</v>
       </c>
       <c r="AI73" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AJ73" s="16">
         <v>0.74</v>
@@ -20937,7 +21070,7 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
         <v>56</v>
@@ -20958,7 +21091,7 @@
         <v>59</v>
       </c>
       <c r="J75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s">
         <v>56</v>
@@ -20990,7 +21123,7 @@
     </row>
     <row r="76" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B76">
         <v>0.95</v>
@@ -21011,7 +21144,7 @@
         <v>0.91600000000000004</v>
       </c>
       <c r="I76" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J76">
         <v>0.66</v>
@@ -21034,7 +21167,7 @@
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B77">
         <v>0.98</v>
@@ -21055,7 +21188,7 @@
         <v>0.94000000000000006</v>
       </c>
       <c r="I77" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J77">
         <v>0.39</v>
@@ -21078,89 +21211,133 @@
     </row>
     <row r="78" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B78">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="C78">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="D78">
+        <v>0.77</v>
+      </c>
+      <c r="E78">
         <v>0.76</v>
       </c>
-      <c r="E78">
-        <v>0.8</v>
-      </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G78">
-        <v>0.89599999999999991</v>
+        <v>0.8859999999999999</v>
       </c>
       <c r="I78" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="J78">
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
       <c r="K78">
+        <v>0.81</v>
+      </c>
+      <c r="L78">
+        <v>0.42</v>
+      </c>
+      <c r="M78">
+        <v>0.08</v>
+      </c>
+      <c r="N78">
         <v>0.9</v>
       </c>
-      <c r="L78">
-        <v>0.45</v>
-      </c>
-      <c r="M78">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N78">
-        <v>0.93</v>
-      </c>
       <c r="O78">
-        <v>0.6180000000000001</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="79" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79">
+        <v>0.93</v>
+      </c>
+      <c r="C79">
+        <v>0.99</v>
+      </c>
+      <c r="D79">
+        <v>0.76</v>
+      </c>
+      <c r="E79">
+        <v>0.8</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0.89599999999999991</v>
+      </c>
+      <c r="I79" t="s">
+        <v>92</v>
+      </c>
+      <c r="J79">
+        <v>0.74</v>
+      </c>
+      <c r="K79">
+        <v>0.9</v>
+      </c>
+      <c r="L79">
+        <v>0.45</v>
+      </c>
+      <c r="M79">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N79">
+        <v>0.93</v>
+      </c>
+      <c r="O79">
+        <v>0.6180000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>80</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>0.95333333333333325</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>0.9966666666666667</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>0.82333333333333325</v>
       </c>
-      <c r="E79">
+      <c r="E80">
         <v>0.82333333333333325</v>
       </c>
-      <c r="F79">
+      <c r="F80">
         <v>0.98999999999999988</v>
       </c>
-      <c r="G79">
+      <c r="G80">
         <v>0.91733333333333333</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I80" t="s">
         <v>80</v>
       </c>
-      <c r="J79">
+      <c r="J80">
         <v>0.59666666666666668</v>
       </c>
-      <c r="K79">
+      <c r="K80">
         <v>0.81</v>
       </c>
-      <c r="L79">
+      <c r="L80">
         <v>0.58666666666666667</v>
       </c>
-      <c r="M79">
+      <c r="M80">
         <v>0.13333333333333333</v>
       </c>
-      <c r="N79">
+      <c r="N80">
         <v>0.97000000000000008</v>
       </c>
-      <c r="O79">
+      <c r="O80">
         <v>0.6193333333333334</v>
       </c>
     </row>
@@ -21177,7 +21354,7 @@
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
         <v>56</v>
@@ -21198,7 +21375,7 @@
         <v>83</v>
       </c>
       <c r="J89" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K89" t="s">
         <v>56</v>
@@ -21304,39 +21481,39 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="S91" t="s">
-        <v>99</v>
-      </c>
-      <c r="T91" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="U91" s="23"/>
-      <c r="V91" s="23"/>
-      <c r="W91" s="23"/>
-      <c r="X91" s="23"/>
-      <c r="Y91" s="23"/>
-      <c r="Z91" s="23"/>
-      <c r="AA91" s="23"/>
-      <c r="AB91" s="23"/>
-      <c r="AC91" s="23"/>
-      <c r="AD91" s="23"/>
-      <c r="AE91" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="T91" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="U91" s="27"/>
+      <c r="V91" s="27"/>
+      <c r="W91" s="27"/>
+      <c r="X91" s="27"/>
+      <c r="Y91" s="27"/>
+      <c r="Z91" s="27"/>
+      <c r="AA91" s="27"/>
+      <c r="AB91" s="27"/>
+      <c r="AC91" s="27"/>
+      <c r="AD91" s="27"/>
+      <c r="AE91" s="27"/>
       <c r="AI91" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ91" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK91" s="23"/>
-      <c r="AL91" s="23"/>
-      <c r="AM91" s="23"/>
-      <c r="AN91" s="23"/>
-      <c r="AO91" s="23"/>
-      <c r="AP91" s="23"/>
-      <c r="AQ91" s="23"/>
-      <c r="AR91" s="23"/>
-      <c r="AS91" s="23"/>
-      <c r="AT91" s="23"/>
-      <c r="AU91" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="AJ91" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK91" s="27"/>
+      <c r="AL91" s="27"/>
+      <c r="AM91" s="27"/>
+      <c r="AN91" s="27"/>
+      <c r="AO91" s="27"/>
+      <c r="AP91" s="27"/>
+      <c r="AQ91" s="27"/>
+      <c r="AR91" s="27"/>
+      <c r="AS91" s="27"/>
+      <c r="AT91" s="27"/>
+      <c r="AU91" s="27"/>
     </row>
     <row r="92" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -21381,38 +21558,38 @@
       <c r="O92">
         <v>0.78</v>
       </c>
-      <c r="T92" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="U92" s="23"/>
-      <c r="V92" s="23"/>
-      <c r="W92" s="23"/>
-      <c r="X92" s="23"/>
-      <c r="Y92" s="23"/>
-      <c r="Z92" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA92" s="23"/>
-      <c r="AB92" s="23"/>
-      <c r="AC92" s="23"/>
-      <c r="AD92" s="23"/>
-      <c r="AE92" s="23"/>
-      <c r="AJ92" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK92" s="23"/>
-      <c r="AL92" s="23"/>
-      <c r="AM92" s="23"/>
-      <c r="AN92" s="23"/>
-      <c r="AO92" s="23"/>
-      <c r="AP92" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ92" s="23"/>
-      <c r="AR92" s="23"/>
-      <c r="AS92" s="23"/>
-      <c r="AT92" s="23"/>
-      <c r="AU92" s="23"/>
+      <c r="T92" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="U92" s="27"/>
+      <c r="V92" s="27"/>
+      <c r="W92" s="27"/>
+      <c r="X92" s="27"/>
+      <c r="Y92" s="27"/>
+      <c r="Z92" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA92" s="27"/>
+      <c r="AB92" s="27"/>
+      <c r="AC92" s="27"/>
+      <c r="AD92" s="27"/>
+      <c r="AE92" s="27"/>
+      <c r="AJ92" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK92" s="27"/>
+      <c r="AL92" s="27"/>
+      <c r="AM92" s="27"/>
+      <c r="AN92" s="27"/>
+      <c r="AO92" s="27"/>
+      <c r="AP92" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ92" s="27"/>
+      <c r="AR92" s="27"/>
+      <c r="AS92" s="27"/>
+      <c r="AT92" s="27"/>
+      <c r="AU92" s="27"/>
     </row>
     <row r="93" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -21458,7 +21635,7 @@
         <v>0.79799999999999993</v>
       </c>
       <c r="T93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U93" t="s">
         <v>56</v>
@@ -21476,7 +21653,7 @@
         <v>80</v>
       </c>
       <c r="Z93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA93" t="s">
         <v>56</v>
@@ -21494,7 +21671,7 @@
         <v>80</v>
       </c>
       <c r="AJ93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AK93" t="s">
         <v>56</v>
@@ -21512,7 +21689,7 @@
         <v>80</v>
       </c>
       <c r="AP93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AQ93" t="s">
         <v>56</v>
@@ -21740,7 +21917,7 @@
         <v>64</v>
       </c>
       <c r="S96" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T96" s="16">
         <v>0.97</v>
@@ -21779,7 +21956,7 @@
         <v>0.90999999999999992</v>
       </c>
       <c r="AI96" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AJ96" s="16">
         <v>0.74</v>
@@ -21823,7 +22000,7 @@
         <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C97" t="s">
         <v>56</v>
@@ -21844,7 +22021,7 @@
         <v>59</v>
       </c>
       <c r="J97" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K97" t="s">
         <v>56</v>
@@ -21862,7 +22039,7 @@
         <v>80</v>
       </c>
       <c r="S97" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T97" s="16">
         <v>0.95</v>
@@ -21901,7 +22078,7 @@
         <v>0.96200000000000008</v>
       </c>
       <c r="AI97" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AJ97" s="16">
         <v>0.69</v>
@@ -22261,7 +22438,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
